--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagecellvedio22024-12-07104733trace/processed_No.297920240925homecagecellvedio22024-12-07104733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagecellvedio22024-12-07104733trace/processed_No.297920240925homecagecellvedio22024-12-07104733trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,37 +560,37 @@
         <v>740</v>
       </c>
       <c r="B2" t="n">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C2" t="n">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D2" t="n">
-        <v>3.213967701550058</v>
+        <v>3.189672420361791</v>
       </c>
       <c r="E2" t="n">
-        <v>2.541753788770391</v>
+        <v>2.518769535052196</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6722139127796671</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G2" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
-        <v>37.08702572351194</v>
+        <v>37.76303500374433</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K2" t="n">
-        <v>206.4957608257822</v>
+        <v>204.747370017625</v>
       </c>
       <c r="L2" t="n">
-        <v>12.27898691064548</v>
+        <v>12.19434812806886</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7762943681189283</v>
+        <v>0.7689881352072361</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09879061827461957</v>
+        <v>0.1080791024222096</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9865101421361533</v>
+        <v>0.9888306400866411</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>2338</v>
+        <v>1855</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,7 +643,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B3" t="n">
         <v>889</v>
@@ -652,31 +652,31 @@
         <v>1009</v>
       </c>
       <c r="D3" t="n">
-        <v>4.094576227030432</v>
+        <v>4.079101411284906</v>
       </c>
       <c r="E3" t="n">
-        <v>3.422362314250765</v>
+        <v>3.408198525975311</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6722139127796671</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G3" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H3" t="n">
-        <v>130.5169515829343</v>
+        <v>131.1935710359467</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
         <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>475.5898590860485</v>
+        <v>476.9343805600072</v>
       </c>
       <c r="L3" t="n">
-        <v>15.64335816819152</v>
+        <v>15.59469942473376</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8010059073700502</v>
+        <v>0.7715666906468753</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5083333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1811110715750634</v>
+        <v>0.1758626547632941</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9915179119501455</v>
+        <v>0.9923462133758352</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>2339</v>
+        <v>1856</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -732,37 +732,37 @@
         <v>1343</v>
       </c>
       <c r="B4" t="n">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C4" t="n">
         <v>1424</v>
       </c>
       <c r="D4" t="n">
-        <v>1.855812520667475</v>
+        <v>1.825460951690364</v>
       </c>
       <c r="E4" t="n">
-        <v>1.183598607887808</v>
+        <v>1.154558066380769</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6722139127796671</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G4" t="n">
         <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>24.73577712054748</v>
+        <v>25.37849484568687</v>
       </c>
       <c r="I4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
-        <v>86.90115969698833</v>
+        <v>86.68958424690565</v>
       </c>
       <c r="L4" t="n">
-        <v>7.090145193088835</v>
+        <v>6.978869114272023</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7943674130749296</v>
+        <v>0.7932229964609997</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.62</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4252519166013637</v>
+        <v>0.4142337360855106</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8624307492767985</v>
+        <v>0.8806300351126731</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>2340</v>
+        <v>1857</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -821,34 +821,34 @@
         <v>1518</v>
       </c>
       <c r="C5" t="n">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59440501660744</v>
+        <v>2.563271627807824</v>
       </c>
       <c r="E5" t="n">
-        <v>1.922191103827773</v>
+        <v>1.892368742498229</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6722139127796671</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5" t="n">
-        <v>53.17962354459223</v>
+        <v>53.98490006948327</v>
       </c>
       <c r="I5" t="n">
         <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="n">
-        <v>185.6533011558429</v>
+        <v>184.0071008274525</v>
       </c>
       <c r="L5" t="n">
-        <v>9.911943179911743</v>
+        <v>9.799572638479585</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,16 +864,16 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7234836870747158</v>
+        <v>0.7160822178527025</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.390625</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05273856215684795</v>
+        <v>0.04727475807565384</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8901134310250354</v>
+        <v>0.8995079667254304</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>2341</v>
+        <v>1858</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2052</v>
+        <v>1304</v>
       </c>
       <c r="B6" t="n">
-        <v>2083</v>
+        <v>1332</v>
       </c>
       <c r="C6" t="n">
-        <v>2123</v>
+        <v>1425</v>
       </c>
       <c r="D6" t="n">
-        <v>1.87845113198855</v>
+        <v>2.006134220333851</v>
       </c>
       <c r="E6" t="n">
-        <v>1.206237219208883</v>
+        <v>1.376195416797706</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6722139127796671</v>
+        <v>-0.6299388035361453</v>
       </c>
       <c r="G6" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
-        <v>24.56733195769903</v>
+        <v>34.83913995096623</v>
       </c>
       <c r="I6" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="K6" t="n">
-        <v>96.98386933189407</v>
+        <v>144.569650665693</v>
       </c>
       <c r="L6" t="n">
-        <v>7.176636171810434</v>
+        <v>6.63774851910572</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7976312326847401</v>
+        <v>0.930157608320772</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3280000476559165</v>
+        <v>0.3724778521363143</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9597172768805846</v>
+        <v>0.9440937289713032</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n1</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>2342</v>
+        <v>1859</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1304</v>
+        <v>2629</v>
       </c>
       <c r="B7" t="n">
-        <v>1332</v>
+        <v>2664</v>
       </c>
       <c r="C7" t="n">
-        <v>1426</v>
+        <v>2740</v>
       </c>
       <c r="D7" t="n">
-        <v>2.015835911098727</v>
+        <v>2.376201981254816</v>
       </c>
       <c r="E7" t="n">
-        <v>1.382335423868561</v>
+        <v>1.746263177718671</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6335004872301659</v>
+        <v>-0.6299388035361453</v>
       </c>
       <c r="G7" t="n">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H7" t="n">
-        <v>35.19408345302577</v>
+        <v>80.41513108149547</v>
       </c>
       <c r="I7" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="K7" t="n">
-        <v>145.2431707223743</v>
+        <v>150.2343599549186</v>
       </c>
       <c r="L7" t="n">
-        <v>6.671774007734158</v>
+        <v>7.86220135337975</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,16 +1036,16 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.9318573147567593</v>
+        <v>0.8409975416236127</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3771997928945865</v>
+        <v>0.3259783372809248</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9427133012458985</v>
+        <v>0.9327553115052571</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>2343</v>
+        <v>1860</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2630</v>
+        <v>814</v>
       </c>
       <c r="B8" t="n">
-        <v>2664</v>
+        <v>845</v>
       </c>
       <c r="C8" t="n">
-        <v>2740</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>2.382207797830417</v>
+        <v>3.34231214606069</v>
       </c>
       <c r="E8" t="n">
-        <v>1.748707310600251</v>
+        <v>2.644305976728683</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6335004872301659</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G8" t="n">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="H8" t="n">
-        <v>80.46904798433798</v>
+        <v>76.38173054386573</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="K8" t="n">
-        <v>150.6568668934001</v>
+        <v>302.2830382479516</v>
       </c>
       <c r="L8" t="n">
-        <v>7.884348115380013</v>
+        <v>12.69245225356175</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8450793354990087</v>
+        <v>0.9197433316817976</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3069277454987012</v>
+        <v>0.3261880600398891</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9297931959490372</v>
+        <v>0.8701334847140814</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>2344</v>
+        <v>1861</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>815</v>
+        <v>1122</v>
       </c>
       <c r="B9" t="n">
-        <v>845</v>
+        <v>1151</v>
       </c>
       <c r="C9" t="n">
-        <v>1001</v>
+        <v>1190</v>
       </c>
       <c r="D9" t="n">
-        <v>3.365886357020065</v>
+        <v>2.702240100355452</v>
       </c>
       <c r="E9" t="n">
-        <v>2.665755152040287</v>
+        <v>2.004233931023445</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.7001312049797779</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G9" t="n">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="H9" t="n">
-        <v>75.59350557402342</v>
+        <v>28.62083161865235</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="K9" t="n">
-        <v>302.123277381139</v>
+        <v>112.0264498291456</v>
       </c>
       <c r="L9" t="n">
-        <v>12.77160101559327</v>
+        <v>10.26177447006133</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.9172391291293969</v>
+        <v>0.8150615904871412</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3378015552948875</v>
+        <v>0.2498611663698307</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8683558998684047</v>
+        <v>0.9911593087351999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>2345</v>
+        <v>1862</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1123</v>
+        <v>1273</v>
       </c>
       <c r="B10" t="n">
-        <v>1150</v>
+        <v>1298</v>
       </c>
       <c r="C10" t="n">
-        <v>1189</v>
+        <v>1370</v>
       </c>
       <c r="D10" t="n">
-        <v>2.715700148994115</v>
+        <v>2.78821781392488</v>
       </c>
       <c r="E10" t="n">
-        <v>2.015568944014337</v>
+        <v>2.090211644592873</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7001312049797779</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G10" t="n">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
-        <v>28.89380875886127</v>
+        <v>99.9703177194815</v>
       </c>
       <c r="I10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n">
-        <v>111.1171446889096</v>
+        <v>161.4866266285656</v>
       </c>
       <c r="L10" t="n">
-        <v>10.30451866225419</v>
+        <v>10.58827540015446</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8214032600054264</v>
+        <v>0.8853197105279591</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2404833882664853</v>
+        <v>0.4034584674029378</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9892601015765654</v>
+        <v>0.9681450302977481</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>2346</v>
+        <v>1863</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1273</v>
+        <v>1370</v>
       </c>
       <c r="B11" t="n">
-        <v>1298</v>
+        <v>1404</v>
       </c>
       <c r="C11" t="n">
-        <v>1371</v>
+        <v>1465</v>
       </c>
       <c r="D11" t="n">
-        <v>2.809222806041821</v>
+        <v>2.831300639434069</v>
       </c>
       <c r="E11" t="n">
-        <v>2.109091601062043</v>
+        <v>2.133294470102062</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7001312049797779</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G11" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
-        <v>99.88131338707399</v>
+        <v>136.6150516837529</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J11" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K11" t="n">
-        <v>162.1217800365627</v>
+        <v>176.667688209928</v>
       </c>
       <c r="L11" t="n">
-        <v>10.6593833056312</v>
+        <v>10.75188271204734</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.8876732292511217</v>
+        <v>0.79914319407745</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3424657534246575</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4087355436721531</v>
+        <v>0.3536791082671106</v>
       </c>
       <c r="S11" t="n">
-        <v>0.966781546366539</v>
+        <v>0.9918317556076507</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>2347</v>
+        <v>1864</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1371</v>
+        <v>3092</v>
       </c>
       <c r="B12" t="n">
-        <v>1403</v>
+        <v>3151</v>
       </c>
       <c r="C12" t="n">
-        <v>1465</v>
+        <v>3290</v>
       </c>
       <c r="D12" t="n">
-        <v>2.842276801167865</v>
+        <v>3.537455862629126</v>
       </c>
       <c r="E12" t="n">
-        <v>2.142145596188087</v>
+        <v>2.839449693297119</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7001312049797779</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G12" t="n">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="H12" t="n">
-        <v>136.7020422588876</v>
+        <v>117.4406800697702</v>
       </c>
       <c r="I12" t="n">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J12" t="n">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="K12" t="n">
-        <v>176.4069843776836</v>
+        <v>395.9586008079182</v>
       </c>
       <c r="L12" t="n">
-        <v>10.78480418825866</v>
+        <v>13.43351179464822</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8124806977609211</v>
+        <v>0.8454748706069788</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.4244604316546763</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3560907800941581</v>
+        <v>0.3001720125707086</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9904932894965841</v>
+        <v>0.9909065005349952</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>2348</v>
+        <v>1865</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3092</v>
+        <v>1823</v>
       </c>
       <c r="B13" t="n">
-        <v>3152</v>
+        <v>1857</v>
       </c>
       <c r="C13" t="n">
-        <v>3292</v>
+        <v>1966</v>
       </c>
       <c r="D13" t="n">
-        <v>3.552929524041626</v>
+        <v>3.485350292026437</v>
       </c>
       <c r="E13" t="n">
-        <v>2.852798319061848</v>
+        <v>2.837890224507726</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7001312049797779</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G13" t="n">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="H13" t="n">
-        <v>117.1290075740831</v>
+        <v>131.182639371078</v>
       </c>
       <c r="I13" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="K13" t="n">
-        <v>397.4312990392884</v>
+        <v>316.5162047627442</v>
       </c>
       <c r="L13" t="n">
-        <v>13.48132215543807</v>
+        <v>7.877969326608347</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8453439113089283</v>
+        <v>0.8281519655505138</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3154625824183228</v>
+        <v>0.1385507937615871</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9914428733909449</v>
+        <v>0.9473309960049131</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>2349</v>
+        <v>1866</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3956</v>
+        <v>2375</v>
       </c>
       <c r="B14" t="n">
-        <v>3987</v>
+        <v>2515</v>
       </c>
       <c r="C14" t="n">
-        <v>4164</v>
+        <v>2809</v>
       </c>
       <c r="D14" t="n">
-        <v>2.514797834379949</v>
+        <v>3.397912339261478</v>
       </c>
       <c r="E14" t="n">
-        <v>1.814666629400171</v>
+        <v>2.750452271742767</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7001312049797779</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G14" t="n">
-        <v>208</v>
+        <v>434</v>
       </c>
       <c r="H14" t="n">
-        <v>99.26076890061404</v>
+        <v>206.8379358992142</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="J14" t="n">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="K14" t="n">
-        <v>315.562261024967</v>
+        <v>790.8497896552606</v>
       </c>
       <c r="L14" t="n">
-        <v>9.542210035877106</v>
+        <v>7.680332517636907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.8801806662021316</v>
+        <v>0.6718747216202424</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.1751412429378531</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2321884884311263</v>
+        <v>0.5154079150181587</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8278948843299629</v>
+        <v>0.8254250748723398</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>2350</v>
+        <v>1867</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1343</v>
+        <v>2809</v>
       </c>
       <c r="B15" t="n">
-        <v>1407</v>
+        <v>2845</v>
       </c>
       <c r="C15" t="n">
-        <v>1626</v>
+        <v>2962</v>
       </c>
       <c r="D15" t="n">
-        <v>1.629396110086335</v>
+        <v>1.969647272423642</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9806603869663848</v>
+        <v>1.322187204904931</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6487357231199508</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G15" t="n">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="H15" t="n">
-        <v>106.6848442918044</v>
+        <v>57.36078559871157</v>
       </c>
       <c r="I15" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="K15" t="n">
-        <v>222.4446269805854</v>
+        <v>195.7678662672834</v>
       </c>
       <c r="L15" t="n">
-        <v>3.677079315043387</v>
+        <v>4.452011848533458</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8603006573436688</v>
+        <v>0.9732212423418252</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2922374429223744</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3062860389091144</v>
+        <v>0.2249546084147926</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8940886023523106</v>
+        <v>0.9664125254138409</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>2351</v>
+        <v>1868</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1824</v>
+        <v>207</v>
       </c>
       <c r="B16" t="n">
-        <v>1857</v>
+        <v>245</v>
       </c>
       <c r="C16" t="n">
-        <v>1966</v>
+        <v>309</v>
       </c>
       <c r="D16" t="n">
-        <v>3.496675099494613</v>
+        <v>2.855192098606209</v>
       </c>
       <c r="E16" t="n">
-        <v>2.847939376374662</v>
+        <v>2.320689540944143</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6487357231199508</v>
+        <v>-0.5345025576620659</v>
       </c>
       <c r="G16" t="n">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="H16" t="n">
-        <v>130.2664781616954</v>
+        <v>54.1091248158954</v>
       </c>
       <c r="I16" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="K16" t="n">
-        <v>315.5393031787173</v>
+        <v>190.1357789825377</v>
       </c>
       <c r="L16" t="n">
-        <v>7.890992006294681</v>
+        <v>6.270541710760106</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8369638204311671</v>
+        <v>0.8234729434991166</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3027522935779817</v>
+        <v>0.59375</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1436261642230102</v>
+        <v>0.2285797301954873</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9443031897207621</v>
+        <v>0.9683881590462594</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>2352</v>
+        <v>1869</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2556</v>
+        <v>4201</v>
       </c>
       <c r="B17" t="n">
-        <v>2604</v>
+        <v>4226</v>
       </c>
       <c r="C17" t="n">
-        <v>2735</v>
+        <v>4265</v>
       </c>
       <c r="D17" t="n">
-        <v>3.162068402779533</v>
+        <v>1.914483091437321</v>
       </c>
       <c r="E17" t="n">
-        <v>2.513332679659583</v>
+        <v>1.379980533775255</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6487357231199508</v>
+        <v>-0.5345025576620659</v>
       </c>
       <c r="G17" t="n">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>26.37143657729257</v>
+        <v>26.56281001588377</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="K17" t="n">
-        <v>371.9397336523782</v>
+        <v>65.8838233814275</v>
       </c>
       <c r="L17" t="n">
-        <v>7.135880738046456</v>
+        <v>4.204566860934843</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.6478184296971736</v>
+        <v>0.8435226562355043</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.366412213740458</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="R17" t="n">
-        <v>0.34706777716318</v>
+        <v>0.2249150003459838</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8920026221747706</v>
+        <v>0.9969511535050379</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>2353</v>
+        <v>1870</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2735</v>
+        <v>2827</v>
       </c>
       <c r="B18" t="n">
-        <v>2762</v>
+        <v>2857</v>
       </c>
       <c r="C18" t="n">
-        <v>2810</v>
+        <v>2948</v>
       </c>
       <c r="D18" t="n">
-        <v>1.775753086203611</v>
+        <v>1.653871852924667</v>
       </c>
       <c r="E18" t="n">
-        <v>1.12701736308366</v>
+        <v>1.233987250300814</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6487357231199508</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G18" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="H18" t="n">
-        <v>26.86977121054224</v>
+        <v>38.06622382743535</v>
       </c>
       <c r="I18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="K18" t="n">
-        <v>104.0969998488948</v>
+        <v>99.12771889904268</v>
       </c>
       <c r="L18" t="n">
-        <v>4.007364999513701</v>
+        <v>8.043020114515505</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7558376844433614</v>
+        <v>0.9344924585487928</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5625</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1044744536479286</v>
+        <v>0.2687983920787421</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9707950096004924</v>
+        <v>0.9710543329264765</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>2354</v>
+        <v>1871</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2810</v>
+        <v>3591</v>
       </c>
       <c r="B19" t="n">
-        <v>2844</v>
+        <v>3636</v>
       </c>
       <c r="C19" t="n">
-        <v>2962</v>
+        <v>3732</v>
       </c>
       <c r="D19" t="n">
-        <v>1.969047184443774</v>
+        <v>3.436392848222602</v>
       </c>
       <c r="E19" t="n">
-        <v>1.320311461323823</v>
+        <v>3.016508245598748</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6487357231199508</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G19" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H19" t="n">
-        <v>57.67359576312401</v>
+        <v>47.599336958599</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J19" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K19" t="n">
-        <v>194.8851728370525</v>
+        <v>265.5596260910467</v>
       </c>
       <c r="L19" t="n">
-        <v>4.443574295681229</v>
+        <v>16.71167977782287</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9853002849738319</v>
+        <v>0.8858991859512183</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.288135593220339</v>
+        <v>0.46875</v>
       </c>
       <c r="R19" t="n">
-        <v>0.222002463130774</v>
+        <v>0.2899388436151185</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9641266584942576</v>
+        <v>0.9794288973694287</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>2355</v>
+        <v>1872</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4121</v>
+        <v>3837</v>
       </c>
       <c r="B20" t="n">
-        <v>4185</v>
+        <v>3853</v>
       </c>
       <c r="C20" t="n">
-        <v>4265</v>
+        <v>3875</v>
       </c>
       <c r="D20" t="n">
-        <v>2.139095727508831</v>
+        <v>4.234038873433523</v>
       </c>
       <c r="E20" t="n">
-        <v>1.49036000438888</v>
+        <v>3.814154270809669</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6487357231199508</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G20" t="n">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>38.83817526833445</v>
+        <v>15.71966024206313</v>
       </c>
       <c r="I20" t="n">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="K20" t="n">
-        <v>219.2089058737308</v>
+        <v>148.5552451315251</v>
       </c>
       <c r="L20" t="n">
-        <v>4.827325046273518</v>
+        <v>20.59074877200752</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.5273252904698581</v>
+        <v>0.6686393630932941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2797234666688321</v>
+        <v>0.0579542097219189</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5051928249162569</v>
+        <v>0.9674433673910215</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>2356</v>
+        <v>1873</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>207</v>
+        <v>3875</v>
       </c>
       <c r="B21" t="n">
-        <v>244</v>
+        <v>3899</v>
       </c>
       <c r="C21" t="n">
-        <v>309</v>
+        <v>3951</v>
       </c>
       <c r="D21" t="n">
-        <v>2.877314332557187</v>
+        <v>3.736906186461573</v>
       </c>
       <c r="E21" t="n">
-        <v>2.338167596415941</v>
+        <v>3.31702158383772</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5391467361412461</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G21" t="n">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="H21" t="n">
-        <v>53.80310024990956</v>
+        <v>14.48007318055215</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K21" t="n">
-        <v>190.893901425982</v>
+        <v>222.8966011777755</v>
       </c>
       <c r="L21" t="n">
-        <v>6.306860517390859</v>
+        <v>18.17311998545566</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8318645651607095</v>
+        <v>0.8112550500888229</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5692307692307692</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2262069680229564</v>
+        <v>0.2404449626507985</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9701559368642666</v>
+        <v>0.9633050678773035</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>2357</v>
+        <v>1874</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3491</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>3514</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>3543</v>
+        <v>233</v>
       </c>
       <c r="D22" t="n">
-        <v>1.664116047172417</v>
+        <v>2.929030223626767</v>
       </c>
       <c r="E22" t="n">
-        <v>1.124969311031171</v>
+        <v>2.277665046871752</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5391467361412461</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G22" t="n">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="H22" t="n">
-        <v>32.31686216332901</v>
+        <v>35.41547515035041</v>
       </c>
       <c r="I22" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="K22" t="n">
-        <v>59.02425143057308</v>
+        <v>374.3964566891433</v>
       </c>
       <c r="L22" t="n">
-        <v>3.647619474699733</v>
+        <v>14.39781147214422</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7155860263193516</v>
+        <v>0.6778654863467876</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.273224043715847</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2019053231356434</v>
+        <v>0.465516375606318</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8294847003502872</v>
+        <v>0.8357069642218313</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>2358</v>
+        <v>1875</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4201</v>
+        <v>1060</v>
       </c>
       <c r="B23" t="n">
-        <v>4226</v>
+        <v>1085</v>
       </c>
       <c r="C23" t="n">
-        <v>4265</v>
+        <v>1177</v>
       </c>
       <c r="D23" t="n">
-        <v>1.938371710287065</v>
+        <v>2.212450318224122</v>
       </c>
       <c r="E23" t="n">
-        <v>1.399224974145819</v>
+        <v>1.561085141469107</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5391467361412461</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G23" t="n">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="H23" t="n">
-        <v>26.13414703836042</v>
+        <v>58.94517099921359</v>
       </c>
       <c r="I23" t="n">
         <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="K23" t="n">
-        <v>66.15356370454712</v>
+        <v>164.2819887902358</v>
       </c>
       <c r="L23" t="n">
-        <v>4.248767633521634</v>
+        <v>10.87542296980254</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.8442002568335634</v>
+        <v>0.9446348860032632</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2500952845473707</v>
+        <v>0.2537180689326123</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9893107726151535</v>
+        <v>0.925641783329273</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>2359</v>
+        <v>1876</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2827</v>
+        <v>2624</v>
       </c>
       <c r="B24" t="n">
-        <v>2857</v>
+        <v>2655</v>
       </c>
       <c r="C24" t="n">
-        <v>2949</v>
+        <v>2710</v>
       </c>
       <c r="D24" t="n">
-        <v>1.666353507680294</v>
+        <v>1.273191784446011</v>
       </c>
       <c r="E24" t="n">
-        <v>1.247323463024275</v>
+        <v>0.6218266076909955</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4190300446560193</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G24" t="n">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>37.8028679823633</v>
+        <v>45.9619486542656</v>
       </c>
       <c r="I24" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="K24" t="n">
-        <v>99.29876616591299</v>
+        <v>73.2817755355522</v>
       </c>
       <c r="L24" t="n">
-        <v>8.100733623033801</v>
+        <v>6.258445246645023</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.9341821404509136</v>
+        <v>0.8112305556928354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2899795048914358</v>
+        <v>0.3765230695978019</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9719767707267146</v>
+        <v>0.8734326683120808</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>2360</v>
+        <v>1877</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3592</v>
+        <v>2767</v>
       </c>
       <c r="B25" t="n">
-        <v>3636</v>
+        <v>2798</v>
       </c>
       <c r="C25" t="n">
-        <v>3733</v>
+        <v>2903</v>
       </c>
       <c r="D25" t="n">
-        <v>3.459424267447535</v>
+        <v>2.213660955428561</v>
       </c>
       <c r="E25" t="n">
-        <v>3.040394222791515</v>
+        <v>1.562295778673546</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4190300446560193</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G25" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H25" t="n">
-        <v>47.50564831021939</v>
+        <v>60.96906348464472</v>
       </c>
       <c r="I25" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J25" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K25" t="n">
-        <v>266.4852523676895</v>
+        <v>126.8322634665886</v>
       </c>
       <c r="L25" t="n">
-        <v>16.81748461565213</v>
+        <v>10.88137392452129</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8909489757774467</v>
+        <v>0.9532348625254318</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4536082474226804</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2831586249078556</v>
+        <v>0.4788393392548395</v>
       </c>
       <c r="S25" t="n">
-        <v>0.976992516022544</v>
+        <v>0.9252789402521049</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>2361</v>
+        <v>1878</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3837</v>
+        <v>3806</v>
       </c>
       <c r="B26" t="n">
-        <v>3854</v>
+        <v>3860</v>
       </c>
       <c r="C26" t="n">
-        <v>3876</v>
+        <v>4123</v>
       </c>
       <c r="D26" t="n">
-        <v>4.247346493806107</v>
+        <v>3.135726014017069</v>
       </c>
       <c r="E26" t="n">
-        <v>3.828316449150088</v>
+        <v>2.484360837262054</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.4190300446560193</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G26" t="n">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="H26" t="n">
-        <v>16.75601163907595</v>
+        <v>148.2239002129859</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J26" t="n">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="K26" t="n">
-        <v>151.9971611727432</v>
+        <v>572.6107205368482</v>
       </c>
       <c r="L26" t="n">
-        <v>20.64785316709106</v>
+        <v>15.41383616117612</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.663741321481083</v>
+        <v>0.8442620040078527</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="R26" t="n">
-        <v>0.07112942971875108</v>
+        <v>0.2244683961945164</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9596375602984623</v>
+        <v>0.9338340597807403</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>2362</v>
+        <v>1879</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3876</v>
+        <v>1327</v>
       </c>
       <c r="B27" t="n">
-        <v>3899</v>
+        <v>1374</v>
       </c>
       <c r="C27" t="n">
-        <v>3952</v>
+        <v>1484</v>
       </c>
       <c r="D27" t="n">
-        <v>3.734982991847605</v>
+        <v>1.640784882745218</v>
       </c>
       <c r="E27" t="n">
-        <v>3.315952947191586</v>
+        <v>0.9541159401996443</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4190300446560193</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G27" t="n">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="H27" t="n">
-        <v>15.38525422643534</v>
+        <v>36.21591191871562</v>
       </c>
       <c r="I27" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J27" t="n">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="K27" t="n">
-        <v>221.5027216119822</v>
+        <v>142.1882384276111</v>
       </c>
       <c r="L27" t="n">
-        <v>18.15707301245961</v>
+        <v>5.522802063351975</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.8260922273365651</v>
+        <v>0.7171158090184391</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4339622641509434</v>
+        <v>0.4272727272727272</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2450883381059134</v>
+        <v>0.192631649501089</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9543116668748955</v>
+        <v>0.8235269509903833</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>2363</v>
+        <v>1880</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>1892</v>
       </c>
       <c r="B28" t="n">
-        <v>50</v>
+        <v>1922</v>
       </c>
       <c r="C28" t="n">
-        <v>233</v>
+        <v>2069</v>
       </c>
       <c r="D28" t="n">
-        <v>2.931393464258562</v>
+        <v>3.33260764882986</v>
       </c>
       <c r="E28" t="n">
-        <v>2.281170692864465</v>
+        <v>2.645938706284286</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6502227713940972</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G28" t="n">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="H28" t="n">
-        <v>35.51324689326201</v>
+        <v>235.1240990399499</v>
       </c>
       <c r="I28" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="K28" t="n">
-        <v>374.3134747918016</v>
+        <v>278.0548840052347</v>
       </c>
       <c r="L28" t="n">
-        <v>14.40769043249164</v>
+        <v>11.21739515816719</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.6735264210679519</v>
+        <v>0.8473492501581112</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.273224043715847</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4666905736342294</v>
+        <v>0.470888729526529</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8152487394736404</v>
+        <v>0.8416914211002641</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>2364</v>
+        <v>1881</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1061</v>
+        <v>2482</v>
       </c>
       <c r="B29" t="n">
-        <v>1084</v>
+        <v>2504</v>
       </c>
       <c r="C29" t="n">
-        <v>1178</v>
+        <v>2538</v>
       </c>
       <c r="D29" t="n">
-        <v>2.231957272335517</v>
+        <v>2.382435817291397</v>
       </c>
       <c r="E29" t="n">
-        <v>1.581734500941419</v>
+        <v>1.695766874745823</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.6502227713940972</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G29" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="H29" t="n">
-        <v>58.45114070510067</v>
+        <v>22.94235345436164</v>
       </c>
       <c r="I29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J29" t="n">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="K29" t="n">
-        <v>165.140717789514</v>
+        <v>103.2162125967706</v>
       </c>
       <c r="L29" t="n">
-        <v>10.96998742422049</v>
+        <v>8.019163015157858</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.9307780080741619</v>
+        <v>0.7664995074128758</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.2446808510638298</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R29" t="n">
-        <v>0.22689630363296</v>
+        <v>0.1380384038942778</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9249428232322259</v>
+        <v>0.9844129011643161</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>2365</v>
+        <v>1882</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2624</v>
+        <v>2538</v>
       </c>
       <c r="B30" t="n">
-        <v>2654</v>
+        <v>2565</v>
       </c>
       <c r="C30" t="n">
-        <v>2711</v>
+        <v>2806</v>
       </c>
       <c r="D30" t="n">
-        <v>1.286469879884536</v>
+        <v>1.813834327526828</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6362471084904388</v>
+        <v>1.127165384981254</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.6502227713940972</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G30" t="n">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="H30" t="n">
-        <v>45.63508132566858</v>
+        <v>29.98062440566491</v>
       </c>
       <c r="I30" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J30" t="n">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="K30" t="n">
-        <v>73.73567923293797</v>
+        <v>181.3096934866236</v>
       </c>
       <c r="L30" t="n">
-        <v>6.322951867803654</v>
+        <v>6.105278072701088</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.8250365992284348</v>
+        <v>0.7045525364995542</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4067705474344556</v>
+        <v>0.5948170727382506</v>
       </c>
       <c r="S30" t="n">
-        <v>0.872943922899889</v>
+        <v>0.586281249612448</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>2366</v>
+        <v>1883</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2768</v>
+        <v>2258</v>
       </c>
       <c r="B31" t="n">
-        <v>2799</v>
+        <v>2464</v>
       </c>
       <c r="C31" t="n">
-        <v>2903</v>
+        <v>2838</v>
       </c>
       <c r="D31" t="n">
-        <v>2.23314082274215</v>
+        <v>2.553811244129513</v>
       </c>
       <c r="E31" t="n">
-        <v>1.582918051348052</v>
+        <v>1.953722452501884</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6502227713940972</v>
+        <v>-0.6000887916276285</v>
       </c>
       <c r="G31" t="n">
-        <v>135</v>
+        <v>580</v>
       </c>
       <c r="H31" t="n">
-        <v>60.47188119543807</v>
+        <v>190.3620442161296</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="J31" t="n">
-        <v>104</v>
+        <v>374</v>
       </c>
       <c r="K31" t="n">
-        <v>125.8467937497555</v>
+        <v>456.2308452743262</v>
       </c>
       <c r="L31" t="n">
-        <v>10.97580453068468</v>
+        <v>5.894374872936158</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.9503772690174105</v>
+        <v>0.6579422974007391</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2980769230769231</v>
+        <v>0.5508021390374331</v>
       </c>
       <c r="R31" t="n">
-        <v>0.5030694182807084</v>
+        <v>0.4601351220762094</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9188361344023447</v>
+        <v>0.8684652636492953</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>2367</v>
+        <v>1884</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3807</v>
+        <v>3042</v>
       </c>
       <c r="B32" t="n">
-        <v>3861</v>
+        <v>3066</v>
       </c>
       <c r="C32" t="n">
-        <v>4125</v>
+        <v>3149</v>
       </c>
       <c r="D32" t="n">
-        <v>3.135694796191073</v>
+        <v>2.151826119318632</v>
       </c>
       <c r="E32" t="n">
-        <v>2.485472024796976</v>
+        <v>1.551737327691004</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6502227713940972</v>
+        <v>-0.6000887916276285</v>
       </c>
       <c r="G32" t="n">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="H32" t="n">
-        <v>148.3636223081617</v>
+        <v>44.5686518176035</v>
       </c>
       <c r="I32" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="J32" t="n">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="K32" t="n">
-        <v>572.6943843450805</v>
+        <v>170.8859447125481</v>
       </c>
       <c r="L32" t="n">
-        <v>15.41182392099071</v>
+        <v>4.966565104525883</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,24 +3186,24 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.8566421406333159</v>
+        <v>0.9067016200108465</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="R32" t="n">
-        <v>0.2399815128318704</v>
+        <v>0.1515208356994659</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9334620580635913</v>
+        <v>0.9380048980894267</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>2368</v>
+        <v>1885</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1327</v>
+        <v>1464</v>
       </c>
       <c r="B33" t="n">
-        <v>1374</v>
+        <v>1536</v>
       </c>
       <c r="C33" t="n">
-        <v>1484</v>
+        <v>1629</v>
       </c>
       <c r="D33" t="n">
-        <v>1.668698181454997</v>
+        <v>2.782574429026877</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9845243492268416</v>
+        <v>2.158500526244191</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6841738322281551</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G33" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45639571020843</v>
+        <v>36.84136792103368</v>
       </c>
       <c r="I33" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="J33" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="K33" t="n">
-        <v>142.011196663614</v>
+        <v>173.3982746027479</v>
       </c>
       <c r="L33" t="n">
-        <v>5.603757303765463</v>
+        <v>7.765298699337493</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.6883923168813871</v>
+        <v>0.5922631599113733</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.4272727272727272</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2042749618798897</v>
+        <v>0.7572416409418302</v>
       </c>
       <c r="S33" t="n">
-        <v>0.8170088903967919</v>
+        <v>0.9066378987861115</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>2369</v>
+        <v>1886</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1893</v>
+        <v>1629</v>
       </c>
       <c r="B34" t="n">
-        <v>1920</v>
+        <v>1705</v>
       </c>
       <c r="C34" t="n">
-        <v>2069</v>
+        <v>1817</v>
       </c>
       <c r="D34" t="n">
-        <v>3.358555579437425</v>
+        <v>2.089324140138562</v>
       </c>
       <c r="E34" t="n">
-        <v>2.67438174720927</v>
+        <v>1.465250237355876</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6841738322281551</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G34" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="H34" t="n">
-        <v>234.3428130174134</v>
+        <v>38.98389715157168</v>
       </c>
       <c r="I34" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J34" t="n">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="K34" t="n">
-        <v>275.6667834432467</v>
+        <v>247.062488954117</v>
       </c>
       <c r="L34" t="n">
-        <v>11.27857066516632</v>
+        <v>5.830653030756968</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,24 +3358,24 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.8364478330633328</v>
+        <v>0.5002047224533065</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.1812080536912752</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4556291698667735</v>
+        <v>0.1482062953490157</v>
       </c>
       <c r="S34" t="n">
-        <v>0.8412403041033067</v>
+        <v>0.6085409142838114</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>2370</v>
+        <v>1887</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2482</v>
+        <v>1817</v>
       </c>
       <c r="B35" t="n">
-        <v>2504</v>
+        <v>1851</v>
       </c>
       <c r="C35" t="n">
-        <v>2539</v>
+        <v>1915</v>
       </c>
       <c r="D35" t="n">
-        <v>2.405414662512284</v>
+        <v>3.039574126408104</v>
       </c>
       <c r="E35" t="n">
-        <v>1.721240830284129</v>
+        <v>2.415500223625418</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.6841738322281551</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G35" t="n">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="H35" t="n">
-        <v>22.00519470932431</v>
+        <v>63.32720376699831</v>
       </c>
       <c r="I35" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="K35" t="n">
-        <v>104.2035463835612</v>
+        <v>190.4916408641635</v>
       </c>
       <c r="L35" t="n">
-        <v>8.077769924747338</v>
+        <v>8.482504821476157</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,24 +3444,24 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.7867567910460613</v>
+        <v>0.6977400053657976</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.53125</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1437714523386847</v>
+        <v>0.07576890660650276</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9874676684699848</v>
+        <v>0.9665809512110447</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>2371</v>
+        <v>1888</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2539</v>
+        <v>2655</v>
       </c>
       <c r="B36" t="n">
-        <v>2564</v>
+        <v>2722</v>
       </c>
       <c r="C36" t="n">
-        <v>2806</v>
+        <v>2866</v>
       </c>
       <c r="D36" t="n">
-        <v>1.829244763172404</v>
+        <v>2.861110623411211</v>
       </c>
       <c r="E36" t="n">
-        <v>1.145070930944249</v>
+        <v>2.237036720628526</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6841738322281551</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G36" t="n">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="H36" t="n">
-        <v>31.45613534306722</v>
+        <v>81.81211591669444</v>
       </c>
       <c r="I36" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="J36" t="n">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="K36" t="n">
-        <v>179.456331184524</v>
+        <v>305.8003321528383</v>
       </c>
       <c r="L36" t="n">
-        <v>6.142898587606891</v>
+        <v>7.984468760609446</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,24 +3530,24 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.7007890075593584</v>
+        <v>0.8160457356896406</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.1033057851239669</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="R36" t="n">
-        <v>0.5901844111207361</v>
+        <v>0.3661608482222031</v>
       </c>
       <c r="S36" t="n">
-        <v>0.578630530932261</v>
+        <v>0.9792887774471831</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>2372</v>
+        <v>1889</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3042</v>
+        <v>2866</v>
       </c>
       <c r="B37" t="n">
-        <v>3067</v>
+        <v>2896</v>
       </c>
       <c r="C37" t="n">
-        <v>3150</v>
+        <v>2967</v>
       </c>
       <c r="D37" t="n">
-        <v>2.154523209871361</v>
+        <v>2.398528427186394</v>
       </c>
       <c r="E37" t="n">
-        <v>1.554242022354867</v>
+        <v>1.774454524403708</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.6002811875164946</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G37" t="n">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H37" t="n">
-        <v>45.77978426565824</v>
+        <v>50.49848150571825</v>
       </c>
       <c r="I37" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J37" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="K37" t="n">
-        <v>172.0051587211212</v>
+        <v>141.2875997829169</v>
       </c>
       <c r="L37" t="n">
-        <v>4.971939354720992</v>
+        <v>6.693545905425485</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,24 +3616,24 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.9098062862578817</v>
+        <v>0.8227846179690725</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.3012048192771085</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1661976426901161</v>
+        <v>0.1459025127071613</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9322500458139737</v>
+        <v>0.9694888277177974</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>2373</v>
+        <v>1890</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3631</v>
+        <v>3034</v>
       </c>
       <c r="B38" t="n">
-        <v>3651</v>
+        <v>3057</v>
       </c>
       <c r="C38" t="n">
-        <v>3739</v>
+        <v>3088</v>
       </c>
       <c r="D38" t="n">
-        <v>2.907841696513049</v>
+        <v>1.961914845788242</v>
       </c>
       <c r="E38" t="n">
-        <v>2.307560508996554</v>
+        <v>1.337840943005557</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.6002811875164946</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G38" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="H38" t="n">
-        <v>25.18055473049344</v>
+        <v>22.72753732202136</v>
       </c>
       <c r="I38" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J38" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="K38" t="n">
-        <v>224.656354108352</v>
+        <v>73.78753438184252</v>
       </c>
       <c r="L38" t="n">
-        <v>6.710353595612967</v>
+        <v>5.475093367237728</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.8749709914592163</v>
+        <v>0.7566815019392503</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="R38" t="n">
-        <v>0.2138974862651033</v>
+        <v>0.159699317673204</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9212395786966683</v>
+        <v>0.9732815219529557</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>2374</v>
+        <v>1891</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1463</v>
+        <v>3088</v>
       </c>
       <c r="B39" t="n">
-        <v>1535</v>
+        <v>3118</v>
       </c>
       <c r="C39" t="n">
-        <v>1629</v>
+        <v>3174</v>
       </c>
       <c r="D39" t="n">
-        <v>2.815883532074022</v>
+        <v>2.013719881437244</v>
       </c>
       <c r="E39" t="n">
-        <v>2.183371573842935</v>
+        <v>1.389645978654558</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G39" t="n">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="H39" t="n">
-        <v>36.26661992156278</v>
+        <v>25.21512358023756</v>
       </c>
       <c r="I39" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="J39" t="n">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="K39" t="n">
-        <v>174.8332182664852</v>
+        <v>104.380834621178</v>
       </c>
       <c r="L39" t="n">
-        <v>7.856061300122662</v>
+        <v>5.619665088931084</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.5821772241899175</v>
+        <v>0.7771259991324522</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7659574468085106</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R39" t="n">
-        <v>0.8176116641676859</v>
+        <v>0.1730692208123748</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9069606343316375</v>
+        <v>0.8873312042089258</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>2375</v>
+        <v>1892</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1629</v>
+        <v>885</v>
       </c>
       <c r="B40" t="n">
-        <v>1705</v>
+        <v>940</v>
       </c>
       <c r="C40" t="n">
-        <v>1818</v>
+        <v>1037</v>
       </c>
       <c r="D40" t="n">
-        <v>2.114875094263581</v>
+        <v>2.563056017345469</v>
       </c>
       <c r="E40" t="n">
-        <v>1.482363136032495</v>
+        <v>2.113520461922289</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.4495355554231797</v>
       </c>
       <c r="G40" t="n">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="H40" t="n">
-        <v>38.28280516336326</v>
+        <v>120.9316724293542</v>
       </c>
       <c r="I40" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="J40" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="K40" t="n">
-        <v>249.6585650496982</v>
+        <v>238.0100253420943</v>
       </c>
       <c r="L40" t="n">
-        <v>5.900310930260676</v>
+        <v>13.15752811532576</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.5076254506073881</v>
+        <v>0.7828647036943692</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.672566371681416</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1467141438992186</v>
+        <v>0.2295258104156357</v>
       </c>
       <c r="S40" t="n">
-        <v>0.611654586648555</v>
+        <v>0.8578800045641329</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>2376</v>
+        <v>1893</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1818</v>
+        <v>1163</v>
       </c>
       <c r="B41" t="n">
-        <v>1850</v>
+        <v>1342</v>
       </c>
       <c r="C41" t="n">
-        <v>1908</v>
+        <v>1851</v>
       </c>
       <c r="D41" t="n">
-        <v>3.055145352110733</v>
+        <v>5.759210570439731</v>
       </c>
       <c r="E41" t="n">
-        <v>2.422633393879647</v>
+        <v>5.309675015016552</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.4495355554231797</v>
       </c>
       <c r="G41" t="n">
-        <v>90</v>
+        <v>688</v>
       </c>
       <c r="H41" t="n">
-        <v>63.42865939126091</v>
+        <v>165.8802091460104</v>
       </c>
       <c r="I41" t="n">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="J41" t="n">
-        <v>58</v>
+        <v>509</v>
       </c>
       <c r="K41" t="n">
-        <v>182.8929717613763</v>
+        <v>1177.043065133522</v>
       </c>
       <c r="L41" t="n">
-        <v>8.52358021685956</v>
+        <v>29.56508733707799</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,24 +3960,24 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.6685151660244588</v>
+        <v>0.6863165313348795</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.3516699410609037</v>
       </c>
       <c r="R41" t="n">
-        <v>0.05931799551491222</v>
+        <v>0.2076347535464224</v>
       </c>
       <c r="S41" t="n">
-        <v>0.9543561611255316</v>
+        <v>0.8862942434837835</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>2377</v>
+        <v>1894</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2657</v>
+        <v>1324</v>
       </c>
       <c r="B42" t="n">
-        <v>2723</v>
+        <v>1351</v>
       </c>
       <c r="C42" t="n">
-        <v>2866</v>
+        <v>1704</v>
       </c>
       <c r="D42" t="n">
-        <v>2.902237380158045</v>
+        <v>3.5857181966514</v>
       </c>
       <c r="E42" t="n">
-        <v>2.269725421926958</v>
+        <v>3.071118839080923</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.5145993575704764</v>
       </c>
       <c r="G42" t="n">
-        <v>209</v>
+        <v>380</v>
       </c>
       <c r="H42" t="n">
-        <v>81.23305139807417</v>
+        <v>102.701863310617</v>
       </c>
       <c r="I42" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J42" t="n">
-        <v>143</v>
+        <v>353</v>
       </c>
       <c r="K42" t="n">
-        <v>307.6223873083295</v>
+        <v>489.2321009134472</v>
       </c>
       <c r="L42" t="n">
-        <v>8.096980754468806</v>
+        <v>10.58311316963289</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.8049870168843454</v>
+        <v>0.7994998021573388</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.0764872521246459</v>
       </c>
       <c r="R42" t="n">
-        <v>0.3783540361310908</v>
+        <v>0.4284999122479004</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9773694808283441</v>
+        <v>0.7641901792332435</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>2378</v>
+        <v>1895</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2866</v>
+        <v>2829</v>
       </c>
       <c r="B43" t="n">
-        <v>2894</v>
+        <v>2875</v>
       </c>
       <c r="C43" t="n">
-        <v>2968</v>
+        <v>3095</v>
       </c>
       <c r="D43" t="n">
-        <v>2.415283172950077</v>
+        <v>5.021764638719839</v>
       </c>
       <c r="E43" t="n">
-        <v>1.78277121471899</v>
+        <v>4.507165281149362</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.5145993575704764</v>
       </c>
       <c r="G43" t="n">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="H43" t="n">
-        <v>50.02022828420195</v>
+        <v>107.7622604293074</v>
       </c>
       <c r="I43" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="J43" t="n">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="K43" t="n">
-        <v>142.4709293962133</v>
+        <v>541.8481054152514</v>
       </c>
       <c r="L43" t="n">
-        <v>6.738422398413238</v>
+        <v>14.82155054250057</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,24 +4132,24 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.8056328849415872</v>
+        <v>0.9424765920456744</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1042708358095921</v>
+        <v>0.2870044219846181</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9665478879020442</v>
+        <v>0.9444423526554003</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>2379</v>
+        <v>1896</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3033</v>
+        <v>1092</v>
       </c>
       <c r="B44" t="n">
-        <v>3056</v>
+        <v>1138</v>
       </c>
       <c r="C44" t="n">
-        <v>3089</v>
+        <v>1207</v>
       </c>
       <c r="D44" t="n">
-        <v>2.002012063359143</v>
+        <v>2.929654155594559</v>
       </c>
       <c r="E44" t="n">
-        <v>1.369500105128056</v>
+        <v>2.381261528834427</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.5483926267601319</v>
       </c>
       <c r="G44" t="n">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="H44" t="n">
-        <v>22.34717634129447</v>
+        <v>66.23321404075523</v>
       </c>
       <c r="I44" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J44" t="n">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="K44" t="n">
-        <v>75.95149725594814</v>
+        <v>228.6158826396061</v>
       </c>
       <c r="L44" t="n">
-        <v>5.585433244730179</v>
+        <v>8.276505828995392</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.753693341089851</v>
+        <v>0.7752919166417984</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1351831579753662</v>
+        <v>0.2844635089702506</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9780002051385446</v>
+        <v>0.8712284953370787</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>2380</v>
+        <v>1897</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3089</v>
+        <v>3401</v>
       </c>
       <c r="B45" t="n">
-        <v>3118</v>
+        <v>3443</v>
       </c>
       <c r="C45" t="n">
-        <v>3175</v>
+        <v>3523</v>
       </c>
       <c r="D45" t="n">
-        <v>2.04357054012511</v>
+        <v>2.892019709223682</v>
       </c>
       <c r="E45" t="n">
-        <v>1.411058581894024</v>
+        <v>2.412818737474295</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.6325119582310865</v>
+        <v>-0.4792009717493871</v>
       </c>
       <c r="G45" t="n">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="H45" t="n">
-        <v>24.79239217370377</v>
+        <v>36.08137327407076</v>
       </c>
       <c r="I45" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J45" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="K45" t="n">
-        <v>105.3514362273328</v>
+        <v>225.535556232504</v>
       </c>
       <c r="L45" t="n">
-        <v>5.701377649850049</v>
+        <v>8.941825373344404</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7995802436507049</v>
+        <v>0.7772532991403055</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5087719298245614</v>
+        <v>0.525</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1925359122367883</v>
+        <v>0.1753402523931788</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8779947368644535</v>
+        <v>0.8561595661056001</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>2381</v>
+        <v>1898</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>885</v>
+        <v>3627</v>
       </c>
       <c r="B46" t="n">
-        <v>940</v>
+        <v>3658</v>
       </c>
       <c r="C46" t="n">
-        <v>1037</v>
+        <v>3733</v>
       </c>
       <c r="D46" t="n">
-        <v>2.586220062592381</v>
+        <v>3.707053370135631</v>
       </c>
       <c r="E46" t="n">
-        <v>2.1359210192719</v>
+        <v>3.227852398386243</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.4502990433204814</v>
+        <v>-0.4792009717493871</v>
       </c>
       <c r="G46" t="n">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="H46" t="n">
-        <v>120.7612851333909</v>
+        <v>48.74859237825467</v>
       </c>
       <c r="I46" t="n">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J46" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K46" t="n">
-        <v>238.09755374237</v>
+        <v>306.2951959414244</v>
       </c>
       <c r="L46" t="n">
-        <v>13.26802527380647</v>
+        <v>11.46182502826673</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,24 +4390,24 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.7822708219844496</v>
+        <v>0.6388800973647523</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5670103092783505</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="R46" t="n">
-        <v>0.2346347012862882</v>
+        <v>0.1211180097457997</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8549127194421327</v>
+        <v>0.7765605864132431</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>2382</v>
+        <v>1899</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1247</v>
+        <v>3795</v>
       </c>
       <c r="B47" t="n">
-        <v>1342</v>
+        <v>3822</v>
       </c>
       <c r="C47" t="n">
-        <v>1850</v>
+        <v>3862</v>
       </c>
       <c r="D47" t="n">
-        <v>5.772963064432325</v>
+        <v>3.235846732402567</v>
       </c>
       <c r="E47" t="n">
-        <v>5.322664021111843</v>
+        <v>2.75664576065318</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.4502990433204814</v>
+        <v>-0.4792009717493871</v>
       </c>
       <c r="G47" t="n">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="H47" t="n">
-        <v>166.2551580701472</v>
+        <v>36.63339588549115</v>
       </c>
       <c r="I47" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="J47" t="n">
-        <v>508</v>
+        <v>40</v>
       </c>
       <c r="K47" t="n">
-        <v>1134.136652040383</v>
+        <v>165.0667227580128</v>
       </c>
       <c r="L47" t="n">
-        <v>29.61689956378308</v>
+        <v>10.00490291396314</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,24 +4476,24 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.7960294950883395</v>
+        <v>0.6316511349033229</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.187007874015748</v>
+        <v>0.675</v>
       </c>
       <c r="R47" t="n">
-        <v>0.3765490093640562</v>
+        <v>0.02974072776204865</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8840574875584039</v>
+        <v>0.9960281658634297</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>2383</v>
+        <v>1900</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1324</v>
+        <v>630</v>
       </c>
       <c r="B48" t="n">
-        <v>1351</v>
+        <v>661</v>
       </c>
       <c r="C48" t="n">
-        <v>1458</v>
+        <v>702</v>
       </c>
       <c r="D48" t="n">
-        <v>3.584366643828015</v>
+        <v>3.307005214511472</v>
       </c>
       <c r="E48" t="n">
-        <v>3.070411812522043</v>
+        <v>2.743545888887316</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5139548313059727</v>
+        <v>-0.5634593256241556</v>
       </c>
       <c r="G48" t="n">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="H48" t="n">
-        <v>103.1686864905521</v>
+        <v>42.32224224063987</v>
       </c>
       <c r="I48" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J48" t="n">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="K48" t="n">
-        <v>267.7412090041555</v>
+        <v>144.084781746457</v>
       </c>
       <c r="L48" t="n">
-        <v>10.5848176780313</v>
+        <v>12.07686108933492</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.8858608490106026</v>
+        <v>0.7708380591690273</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.2523364485981308</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2949900026627248</v>
+        <v>0.2305359783679984</v>
       </c>
       <c r="S48" t="n">
-        <v>0.8322952487032658</v>
+        <v>0.9538419690608312</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>2384</v>
+        <v>1901</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1458</v>
+        <v>1090</v>
       </c>
       <c r="B49" t="n">
-        <v>1493</v>
+        <v>1126</v>
       </c>
       <c r="C49" t="n">
-        <v>1556</v>
+        <v>1269</v>
       </c>
       <c r="D49" t="n">
-        <v>1.417567989827497</v>
+        <v>3.274980424502266</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9036131585215245</v>
+        <v>2.711521098878111</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5139548313059727</v>
+        <v>-0.5634593256241556</v>
       </c>
       <c r="G49" t="n">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="H49" t="n">
-        <v>35.75874481936876</v>
+        <v>85.91352925302158</v>
       </c>
       <c r="I49" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J49" t="n">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="K49" t="n">
-        <v>107.523962896845</v>
+        <v>310.1366455537755</v>
       </c>
       <c r="L49" t="n">
-        <v>4.186150639576521</v>
+        <v>11.95990967400024</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,24 +4648,24 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.6954697670314136</v>
+        <v>0.9152130631950034</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2517482517482518</v>
       </c>
       <c r="R49" t="n">
-        <v>0.09105778700941053</v>
+        <v>0.2006513284269273</v>
       </c>
       <c r="S49" t="n">
-        <v>0.7279448452216972</v>
+        <v>0.898969500284984</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U49" t="n">
-        <v>2385</v>
+        <v>1902</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1556</v>
+        <v>1406</v>
       </c>
       <c r="B50" t="n">
-        <v>1578</v>
+        <v>1437</v>
       </c>
       <c r="C50" t="n">
-        <v>1720</v>
+        <v>1514</v>
       </c>
       <c r="D50" t="n">
-        <v>1.350833487845826</v>
+        <v>3.845268602922638</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8368786565398533</v>
+        <v>3.281809277298483</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.5139548313059727</v>
+        <v>-0.5634593256241556</v>
       </c>
       <c r="G50" t="n">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="H50" t="n">
-        <v>27.49791930181618</v>
+        <v>207.4604588187265</v>
       </c>
       <c r="I50" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J50" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="K50" t="n">
-        <v>117.5299728758335</v>
+        <v>302.6700587413318</v>
       </c>
       <c r="L50" t="n">
-        <v>3.989080248486222</v>
+        <v>14.04254658108782</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,24 +4734,24 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8042179152932368</v>
+        <v>0.8428294915135168</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.1549295774647887</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="R50" t="n">
-        <v>0.393750407812284</v>
+        <v>0.2385904760841639</v>
       </c>
       <c r="S50" t="n">
-        <v>0.8727511742698273</v>
+        <v>0.9443293083376867</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U50" t="n">
-        <v>2386</v>
+        <v>1903</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2829</v>
+        <v>2797</v>
       </c>
       <c r="B51" t="n">
-        <v>2874</v>
+        <v>2825</v>
       </c>
       <c r="C51" t="n">
-        <v>3094</v>
+        <v>2889</v>
       </c>
       <c r="D51" t="n">
-        <v>5.044606138855171</v>
+        <v>2.990618886772342</v>
       </c>
       <c r="E51" t="n">
-        <v>4.530651307549198</v>
+        <v>2.436199342841188</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5139548313059727</v>
+        <v>-0.5544195439311541</v>
       </c>
       <c r="G51" t="n">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="H51" t="n">
-        <v>106.7072371807121</v>
+        <v>61.0692134052706</v>
       </c>
       <c r="I51" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J51" t="n">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="K51" t="n">
-        <v>541.2308752467882</v>
+        <v>161.3044672249868</v>
       </c>
       <c r="L51" t="n">
-        <v>14.89697945080573</v>
+        <v>8.93604799897132</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.9402800357573662</v>
+        <v>0.7649089503728969</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.4375</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2734325299783265</v>
+        <v>0.1196690403571011</v>
       </c>
       <c r="S51" t="n">
-        <v>0.9402783171445617</v>
+        <v>0.938776682200635</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>2387</v>
+        <v>1904</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1092</v>
+        <v>3347</v>
       </c>
       <c r="B52" t="n">
-        <v>1138</v>
+        <v>3381</v>
       </c>
       <c r="C52" t="n">
-        <v>1207</v>
+        <v>3470</v>
       </c>
       <c r="D52" t="n">
-        <v>2.946936393135357</v>
+        <v>3.482598264140055</v>
       </c>
       <c r="E52" t="n">
-        <v>2.395843999584818</v>
+        <v>2.928178720208901</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.551092393550539</v>
+        <v>-0.5544195439311541</v>
       </c>
       <c r="G52" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H52" t="n">
-        <v>66.67342698973539</v>
+        <v>311.0811062498879</v>
       </c>
       <c r="I52" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J52" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K52" t="n">
-        <v>228.9599223647811</v>
+        <v>349.6784372386472</v>
       </c>
       <c r="L52" t="n">
-        <v>8.311499093405844</v>
+        <v>10.40609533603162</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,24 +4906,24 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.7736528077825251</v>
+        <v>0.6947970279148104</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="R52" t="n">
-        <v>0.2860664460333395</v>
+        <v>0.07616877510266976</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8659709376251609</v>
+        <v>0.8366352723545265</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U52" t="n">
-        <v>2388</v>
+        <v>1905</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2603</v>
+        <v>482</v>
       </c>
       <c r="B53" t="n">
-        <v>2629</v>
+        <v>594</v>
       </c>
       <c r="C53" t="n">
-        <v>2675</v>
+        <v>814</v>
       </c>
       <c r="D53" t="n">
-        <v>1.602506910754125</v>
+        <v>3.663131694671537</v>
       </c>
       <c r="E53" t="n">
-        <v>1.122591600238487</v>
+        <v>3.089910921933768</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.479915310515637</v>
+        <v>-0.5732207727377685</v>
       </c>
       <c r="G53" t="n">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="H53" t="n">
-        <v>16.72918341023978</v>
+        <v>80.76306479083894</v>
       </c>
       <c r="I53" t="n">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="J53" t="n">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="K53" t="n">
-        <v>67.06038255466082</v>
+        <v>480.4336113214201</v>
       </c>
       <c r="L53" t="n">
-        <v>4.940574373478928</v>
+        <v>15.35647863655962</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.7180281442784074</v>
+        <v>0.6279448577173989</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="R53" t="n">
-        <v>0.3286710214401941</v>
+        <v>0.7678990217296586</v>
       </c>
       <c r="S53" t="n">
-        <v>0.9670658200473292</v>
+        <v>0.862665975313627</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>2389</v>
+        <v>1906</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3400</v>
+        <v>1020</v>
       </c>
       <c r="B54" t="n">
-        <v>3443</v>
+        <v>1040</v>
       </c>
       <c r="C54" t="n">
-        <v>3523</v>
+        <v>1076</v>
       </c>
       <c r="D54" t="n">
-        <v>2.939790173269492</v>
+        <v>1.462576289545679</v>
       </c>
       <c r="E54" t="n">
-        <v>2.459874862753856</v>
+        <v>0.8893555168079109</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.479915310515637</v>
+        <v>-0.5732207727377685</v>
       </c>
       <c r="G54" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="H54" t="n">
-        <v>34.97954527891306</v>
+        <v>17.19753061874781</v>
       </c>
       <c r="I54" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J54" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="K54" t="n">
-        <v>226.7194376327073</v>
+        <v>50.37237421353678</v>
       </c>
       <c r="L54" t="n">
-        <v>9.063456697747066</v>
+        <v>6.131371574059881</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,24 +5078,24 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.7685115590035847</v>
+        <v>0.8412488236250982</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.5375</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R54" t="n">
-        <v>0.176226346994332</v>
+        <v>0.3796637826782537</v>
       </c>
       <c r="S54" t="n">
-        <v>0.8581293590282965</v>
+        <v>0.9829466259496069</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U54" t="n">
-        <v>2390</v>
+        <v>1907</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3690</v>
+        <v>1978</v>
       </c>
       <c r="B55" t="n">
-        <v>3702</v>
+        <v>2003</v>
       </c>
       <c r="C55" t="n">
-        <v>3733</v>
+        <v>2095</v>
       </c>
       <c r="D55" t="n">
-        <v>3.173149758143204</v>
+        <v>1.907034251937933</v>
       </c>
       <c r="E55" t="n">
-        <v>2.693234447627567</v>
+        <v>1.333813479200165</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.479915310515637</v>
+        <v>-0.5732207727377685</v>
       </c>
       <c r="G55" t="n">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H55" t="n">
-        <v>12.11176848221294</v>
+        <v>62.5435258121322</v>
       </c>
       <c r="I55" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J55" t="n">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="K55" t="n">
-        <v>103.7323061434209</v>
+        <v>110.4539411915862</v>
       </c>
       <c r="L55" t="n">
-        <v>9.782910933542018</v>
+        <v>7.99461586152399</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,24 +5164,24 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.884437075144294</v>
+        <v>0.9271059333169301</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2341365439631336</v>
+        <v>0.2660494463517709</v>
       </c>
       <c r="S55" t="n">
-        <v>0.943586232006037</v>
+        <v>0.8700771984844757</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U55" t="n">
-        <v>2391</v>
+        <v>1908</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3795</v>
+        <v>3957</v>
       </c>
       <c r="B56" t="n">
-        <v>3821</v>
+        <v>3983</v>
       </c>
       <c r="C56" t="n">
-        <v>3862</v>
+        <v>4089</v>
       </c>
       <c r="D56" t="n">
-        <v>3.213395390104799</v>
+        <v>2.407160839680726</v>
       </c>
       <c r="E56" t="n">
-        <v>2.733480079589163</v>
+        <v>1.833940066942957</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.479915310515637</v>
+        <v>-0.5732207727377685</v>
       </c>
       <c r="G56" t="n">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="H56" t="n">
-        <v>36.49710330033531</v>
+        <v>90.23087677322019</v>
       </c>
       <c r="I56" t="n">
         <v>26</v>
       </c>
       <c r="J56" t="n">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="K56" t="n">
-        <v>165.2168417246456</v>
+        <v>175.7591079739329</v>
       </c>
       <c r="L56" t="n">
-        <v>9.9069893612727</v>
+        <v>10.09123260927002</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,24 +5250,24 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.6322239953015105</v>
+        <v>0.8758000683104943</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6341463414634146</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="R56" t="n">
-        <v>0.01933796684319947</v>
+        <v>0.3383222308943946</v>
       </c>
       <c r="S56" t="n">
-        <v>0.9910664295327412</v>
+        <v>0.777074932969375</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U56" t="n">
-        <v>2392</v>
+        <v>1909</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,73 +5287,73 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>631</v>
+        <v>1864</v>
       </c>
       <c r="B57" t="n">
-        <v>660</v>
+        <v>1899</v>
       </c>
       <c r="C57" t="n">
-        <v>703</v>
+        <v>1974</v>
       </c>
       <c r="D57" t="n">
-        <v>3.335377321252452</v>
+        <v>1.6054252130344</v>
       </c>
       <c r="E57" t="n">
-        <v>2.770215075678413</v>
+        <v>1.15682192226342</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.5651622455740399</v>
+        <v>-0.4486032907709799</v>
       </c>
       <c r="G57" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="H57" t="n">
-        <v>42.44764731296209</v>
+        <v>31.3465920213182</v>
       </c>
       <c r="I57" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J57" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="K57" t="n">
-        <v>144.6760843321493</v>
+        <v>86.67080274746607</v>
       </c>
       <c r="L57" t="n">
-        <v>12.15104579833196</v>
+        <v>3.898704906586978</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1944), 'value': np.float64(0.7171058195529143), 'amplitude': np.float64(1.1657091103238941), 'start_idx': np.int64(1924), 'end_idx': np.int64(1973), 'duration': np.float64(49.0), 'fwhm': np.float64(17.285389353037544), 'rise_time': np.float64(20.0), 'decay_time': np.float64(29.0), 'auc': np.float64(34.29056334004443)}]</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7885825874638832</v>
+        <v>0.7454880339070732</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R57" t="n">
-        <v>0.2259392040369756</v>
+        <v>0.5361976944752546</v>
       </c>
       <c r="S57" t="n">
-        <v>0.9482890334673555</v>
+        <v>0.4555130781804013</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>2393</v>
+        <v>1910</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,40 +5373,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1150</v>
+        <v>1480</v>
       </c>
       <c r="B58" t="n">
-        <v>1164</v>
+        <v>1536</v>
       </c>
       <c r="C58" t="n">
-        <v>1270</v>
+        <v>1634</v>
       </c>
       <c r="D58" t="n">
-        <v>2.571847307356916</v>
+        <v>2.171533183192236</v>
       </c>
       <c r="E58" t="n">
-        <v>2.006685061782876</v>
+        <v>1.698618484426971</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.5651622455740399</v>
+        <v>-0.4729146987652649</v>
       </c>
       <c r="G58" t="n">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="H58" t="n">
-        <v>29.90606366471138</v>
+        <v>32.00235995110461</v>
       </c>
       <c r="I58" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="J58" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K58" t="n">
-        <v>174.9864247910228</v>
+        <v>152.081458878399</v>
       </c>
       <c r="L58" t="n">
-        <v>9.369445015676915</v>
+        <v>4.524344726333492</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -5422,24 +5422,24 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.8449912154975331</v>
+        <v>0.6347640312889002</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R58" t="n">
-        <v>0.4380782931148752</v>
+        <v>0.3789545945746217</v>
       </c>
       <c r="S58" t="n">
-        <v>0.9206703837032031</v>
+        <v>0.6837659550055115</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>2394</v>
+        <v>1911</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1405</v>
+        <v>3937</v>
       </c>
       <c r="B59" t="n">
-        <v>1437</v>
+        <v>3960</v>
       </c>
       <c r="C59" t="n">
-        <v>1514</v>
+        <v>4028</v>
       </c>
       <c r="D59" t="n">
-        <v>3.824857741850169</v>
+        <v>3.66366793570193</v>
       </c>
       <c r="E59" t="n">
-        <v>3.259695496276128</v>
+        <v>3.223339569899459</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.5651622455740399</v>
+        <v>-0.4403283658024706</v>
       </c>
       <c r="G59" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H59" t="n">
-        <v>208.38525220978</v>
+        <v>36.91037947643963</v>
       </c>
       <c r="I59" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J59" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K59" t="n">
-        <v>305.5762508716578</v>
+        <v>131.656634889648</v>
       </c>
       <c r="L59" t="n">
-        <v>13.93426203901691</v>
+        <v>10.07000674313942</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.8364625437909702</v>
+        <v>0.926352495500721</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.4155844155844156</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="R59" t="n">
-        <v>0.2350419412215445</v>
+        <v>0.4700353670824109</v>
       </c>
       <c r="S59" t="n">
-        <v>0.9406649371628736</v>
+        <v>0.8436178883862564</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>2395</v>
+        <v>1912</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3030</v>
+        <v>267</v>
       </c>
       <c r="B60" t="n">
-        <v>3075</v>
+        <v>284</v>
       </c>
       <c r="C60" t="n">
-        <v>3141</v>
+        <v>398</v>
       </c>
       <c r="D60" t="n">
-        <v>1.613111177801391</v>
+        <v>2.425596820846783</v>
       </c>
       <c r="E60" t="n">
-        <v>1.047948932227351</v>
+        <v>1.865749431273089</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5651622455740399</v>
+        <v>-0.5598473895736945</v>
       </c>
       <c r="G60" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H60" t="n">
-        <v>62.29021661875277</v>
+        <v>73.72704055671952</v>
       </c>
       <c r="I60" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J60" t="n">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="K60" t="n">
-        <v>97.33324702023008</v>
+        <v>145.8746311373012</v>
       </c>
       <c r="L60" t="n">
-        <v>5.876692773070012</v>
+        <v>6.964667896717491</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.5869940226023587</v>
+        <v>0.7594548536535013</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="R60" t="n">
-        <v>0.4646610670061239</v>
+        <v>0.5254614330752116</v>
       </c>
       <c r="S60" t="n">
-        <v>0.7967206296110985</v>
+        <v>0.3990963087919036</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>2396</v>
+        <v>1913</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2798</v>
+        <v>3469</v>
       </c>
       <c r="B61" t="n">
-        <v>2825</v>
+        <v>3496</v>
       </c>
       <c r="C61" t="n">
-        <v>2889</v>
+        <v>3532</v>
       </c>
       <c r="D61" t="n">
-        <v>2.990688017591886</v>
+        <v>2.951782530832038</v>
       </c>
       <c r="E61" t="n">
-        <v>2.434212012833634</v>
+        <v>2.391935141258343</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.5564760047582524</v>
+        <v>-0.5598473895736945</v>
       </c>
       <c r="G61" t="n">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H61" t="n">
-        <v>61.23863494415446</v>
+        <v>31.15227011514708</v>
       </c>
       <c r="I61" t="n">
         <v>27</v>
       </c>
       <c r="J61" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="K61" t="n">
-        <v>161.3081492764172</v>
+        <v>153.6930516497002</v>
       </c>
       <c r="L61" t="n">
-        <v>8.912020316222447</v>
+        <v>8.475516150866524</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,24 +5680,24 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.7514865561126438</v>
+        <v>0.6604195217008153</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.421875</v>
+        <v>0.75</v>
       </c>
       <c r="R61" t="n">
-        <v>0.09978447945225627</v>
+        <v>0.07398556727516206</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9339369079775827</v>
+        <v>0.9836215146890589</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U61" t="n">
-        <v>2397</v>
+        <v>1914</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3348</v>
+        <v>3532</v>
       </c>
       <c r="B62" t="n">
-        <v>3381</v>
+        <v>3559</v>
       </c>
       <c r="C62" t="n">
-        <v>3469</v>
+        <v>3613</v>
       </c>
       <c r="D62" t="n">
-        <v>3.471175425270434</v>
+        <v>2.748124291722244</v>
       </c>
       <c r="E62" t="n">
-        <v>2.914699420512181</v>
+        <v>2.188276902148549</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.5564760047582524</v>
+        <v>-0.5598473895736945</v>
       </c>
       <c r="G62" t="n">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="H62" t="n">
-        <v>310.6245294851456</v>
+        <v>24.86240457581926</v>
       </c>
       <c r="I62" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J62" t="n">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="K62" t="n">
-        <v>345.2180101365279</v>
+        <v>180.8077273771454</v>
       </c>
       <c r="L62" t="n">
-        <v>10.34383584286111</v>
+        <v>7.890747904289243</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,24 +5766,24 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6903028198580952</v>
+        <v>0.6994913097629782</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="R62" t="n">
-        <v>0.07521019112955964</v>
+        <v>0.09464644886300275</v>
       </c>
       <c r="S62" t="n">
-        <v>0.8060631625741891</v>
+        <v>0.7707366746318614</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U62" t="n">
-        <v>2398</v>
+        <v>1915</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4122</v>
+        <v>3613</v>
       </c>
       <c r="B63" t="n">
-        <v>4145</v>
+        <v>3665</v>
       </c>
       <c r="C63" t="n">
-        <v>4190</v>
+        <v>3784</v>
       </c>
       <c r="D63" t="n">
-        <v>2.083367658653852</v>
+        <v>3.479624920608923</v>
       </c>
       <c r="E63" t="n">
-        <v>1.5268916538956</v>
+        <v>2.919777531035228</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5564760047582524</v>
+        <v>-0.5598473895736945</v>
       </c>
       <c r="G63" t="n">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="H63" t="n">
-        <v>49.2112256086084</v>
+        <v>502.1879105263279</v>
       </c>
       <c r="I63" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="J63" t="n">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="K63" t="n">
-        <v>82.33488783525122</v>
+        <v>447.291816316889</v>
       </c>
       <c r="L63" t="n">
-        <v>6.20827541718449</v>
+        <v>9.99112126504305</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,24 +5852,24 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.7344988628984777</v>
+        <v>0.6613677719552149</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.4369747899159664</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1476042552214857</v>
+        <v>0.1291789155612994</v>
       </c>
       <c r="S63" t="n">
-        <v>0.832940708773683</v>
+        <v>0.7572840410096874</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U63" t="n">
-        <v>2399</v>
+        <v>1916</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>482</v>
+        <v>3784</v>
       </c>
       <c r="B64" t="n">
-        <v>593</v>
+        <v>3806</v>
       </c>
       <c r="C64" t="n">
-        <v>813</v>
+        <v>3837</v>
       </c>
       <c r="D64" t="n">
-        <v>3.720677133220445</v>
+        <v>2.710254232711498</v>
       </c>
       <c r="E64" t="n">
-        <v>3.146004453289763</v>
+        <v>2.150406843137804</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.5746726799306818</v>
+        <v>-0.5598473895736945</v>
       </c>
       <c r="G64" t="n">
-        <v>331</v>
+        <v>53</v>
       </c>
       <c r="H64" t="n">
-        <v>79.9725409310862</v>
+        <v>23.92504908087813</v>
       </c>
       <c r="I64" t="n">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="J64" t="n">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="K64" t="n">
-        <v>480.6920580395347</v>
+        <v>119.042332422843</v>
       </c>
       <c r="L64" t="n">
-        <v>15.55447941385551</v>
+        <v>7.782010795973418</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,24 +5938,24 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.628502176175332</v>
+        <v>0.7146347746633286</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.5045454545454545</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="R64" t="n">
-        <v>0.8091751434231077</v>
+        <v>0.1199006220230571</v>
       </c>
       <c r="S64" t="n">
-        <v>0.8617260116459003</v>
+        <v>0.9537391547929475</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U64" t="n">
-        <v>2400</v>
+        <v>1917</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1020</v>
+        <v>3890</v>
       </c>
       <c r="B65" t="n">
-        <v>1040</v>
+        <v>3911</v>
       </c>
       <c r="C65" t="n">
-        <v>1076</v>
+        <v>3975</v>
       </c>
       <c r="D65" t="n">
-        <v>1.477505685711885</v>
+        <v>3.002439741318787</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9028330057812028</v>
+        <v>2.472757562018033</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5746726799306818</v>
+        <v>-0.5296821793007541</v>
       </c>
       <c r="G65" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="H65" t="n">
-        <v>17.5368826186907</v>
+        <v>24.0474788694919</v>
       </c>
       <c r="I65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J65" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K65" t="n">
-        <v>50.48984269024544</v>
+        <v>186.6509375790123</v>
       </c>
       <c r="L65" t="n">
-        <v>6.176787436637367</v>
+        <v>12.4435552540785</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.8446981678775451</v>
+        <v>0.9222052961193788</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.328125</v>
       </c>
       <c r="R65" t="n">
-        <v>0.3783883925034813</v>
+        <v>0.2764960095194737</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9850028550398499</v>
+        <v>0.9837818464783906</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>2401</v>
+        <v>1918</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1123</v>
+        <v>3975</v>
       </c>
       <c r="B66" t="n">
-        <v>1153</v>
+        <v>4093</v>
       </c>
       <c r="C66" t="n">
-        <v>1238</v>
+        <v>4265</v>
       </c>
       <c r="D66" t="n">
-        <v>3.163679056684212</v>
+        <v>4.380312595926809</v>
       </c>
       <c r="E66" t="n">
-        <v>2.589006376753531</v>
+        <v>3.850630416626055</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.5746726799306818</v>
+        <v>-0.5296821793007541</v>
       </c>
       <c r="G66" t="n">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="H66" t="n">
-        <v>35.08368189815042</v>
+        <v>130.5070759976034</v>
       </c>
       <c r="I66" t="n">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="J66" t="n">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="K66" t="n">
-        <v>178.8391522794614</v>
+        <v>644.029362743521</v>
       </c>
       <c r="L66" t="n">
-        <v>13.22592071208475</v>
+        <v>18.15412348412689</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,24 +6110,24 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.8709656800490053</v>
+        <v>0.6611646497221946</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="R66" t="n">
-        <v>0.2808483396317306</v>
+        <v>0.3329174688990834</v>
       </c>
       <c r="S66" t="n">
-        <v>0.7561120373573815</v>
+        <v>0.8455762140800567</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U66" t="n">
-        <v>2402</v>
+        <v>1919</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1978</v>
+        <v>738</v>
       </c>
       <c r="B67" t="n">
-        <v>2002</v>
+        <v>765</v>
       </c>
       <c r="C67" t="n">
-        <v>2094</v>
+        <v>831</v>
       </c>
       <c r="D67" t="n">
-        <v>1.917708112987543</v>
+        <v>2.038872568600067</v>
       </c>
       <c r="E67" t="n">
-        <v>1.343035433056861</v>
+        <v>1.534715593689455</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5746726799306818</v>
+        <v>-0.504156974910613</v>
       </c>
       <c r="G67" t="n">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H67" t="n">
-        <v>62.55828812375239</v>
+        <v>30.76790860640506</v>
       </c>
       <c r="I67" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J67" t="n">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="K67" t="n">
-        <v>110.5383610919464</v>
+        <v>91.68325044306204</v>
       </c>
       <c r="L67" t="n">
-        <v>8.01707600450402</v>
+        <v>6.952469307952474</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.9153330249534192</v>
+        <v>0.8797533935191291</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="R67" t="n">
-        <v>0.2580739530341448</v>
+        <v>0.3170808488156384</v>
       </c>
       <c r="S67" t="n">
-        <v>0.8468414283796186</v>
+        <v>0.855584442112364</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>2403</v>
+        <v>1920</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3957</v>
+        <v>979</v>
       </c>
       <c r="B68" t="n">
-        <v>3983</v>
+        <v>1053</v>
       </c>
       <c r="C68" t="n">
-        <v>4090</v>
+        <v>1154</v>
       </c>
       <c r="D68" t="n">
-        <v>2.436162651261516</v>
+        <v>4.934394014724441</v>
       </c>
       <c r="E68" t="n">
-        <v>1.861489971330835</v>
+        <v>4.430237039813828</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5746726799306818</v>
+        <v>-0.504156974910613</v>
       </c>
       <c r="G68" t="n">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="H68" t="n">
-        <v>89.82095384748709</v>
+        <v>129.382791620004</v>
       </c>
       <c r="I68" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="J68" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K68" t="n">
-        <v>176.3185953904972</v>
+        <v>493.108794275866</v>
       </c>
       <c r="L68" t="n">
-        <v>10.18450149020383</v>
+        <v>16.82607509123115</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,24 +6282,24 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.8758424757512732</v>
+        <v>0.7603029334229832</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.2429906542056075</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3417838387166713</v>
+        <v>0.3550128314073789</v>
       </c>
       <c r="S68" t="n">
-        <v>0.779705522261317</v>
+        <v>0.942712725317055</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U68" t="n">
-        <v>2404</v>
+        <v>1921</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,73 +6319,73 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1869</v>
+        <v>1617</v>
       </c>
       <c r="B69" t="n">
-        <v>1899</v>
+        <v>1658</v>
       </c>
       <c r="C69" t="n">
-        <v>1974</v>
+        <v>1755</v>
       </c>
       <c r="D69" t="n">
-        <v>1.608593799957574</v>
+        <v>1.917145493759709</v>
       </c>
       <c r="E69" t="n">
-        <v>1.162151777215489</v>
+        <v>1.412988518849096</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.446442022742085</v>
+        <v>-0.504156974910613</v>
       </c>
       <c r="G69" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="H69" t="n">
-        <v>32.21123457304748</v>
+        <v>36.75755422019097</v>
       </c>
       <c r="I69" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J69" t="n">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K69" t="n">
-        <v>86.31891837270176</v>
+        <v>159.4392680301755</v>
       </c>
       <c r="L69" t="n">
-        <v>3.902168402291904</v>
+        <v>6.537385126229673</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1944), 'value': np.float64(0.7323262930869117), 'amplitude': np.float64(1.1787683158289965), 'start_idx': np.int64(1924), 'end_idx': np.int64(1973), 'duration': np.float64(49.0), 'fwhm': np.float64(17.81156372065061), 'rise_time': np.float64(20.0), 'decay_time': np.float64(29.0), 'auc': np.float64(34.23895797268158)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7785312280360385</v>
+        <v>0.7582389109247372</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.4</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="R69" t="n">
-        <v>0.4222298207958552</v>
+        <v>0.3810257608731239</v>
       </c>
       <c r="S69" t="n">
-        <v>0.4309219480318967</v>
+        <v>0.6269463401052204</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U69" t="n">
-        <v>2405</v>
+        <v>1922</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2027</v>
+        <v>2303</v>
       </c>
       <c r="B70" t="n">
-        <v>2057</v>
+        <v>2323</v>
       </c>
       <c r="C70" t="n">
-        <v>2273</v>
+        <v>2411</v>
       </c>
       <c r="D70" t="n">
-        <v>1.990418713717336</v>
+        <v>2.647541609727864</v>
       </c>
       <c r="E70" t="n">
-        <v>1.543976690975251</v>
+        <v>2.115487264848623</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.446442022742085</v>
+        <v>-0.5320543448792412</v>
       </c>
       <c r="G70" t="n">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="H70" t="n">
-        <v>226.7168306177555</v>
+        <v>90.90986322559775</v>
       </c>
       <c r="I70" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J70" t="n">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c r="K70" t="n">
-        <v>219.1577336588485</v>
+        <v>133.2654102721265</v>
       </c>
       <c r="L70" t="n">
-        <v>4.828409143565724</v>
+        <v>12.33671983757879</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.7267389428343684</v>
+        <v>0.8754097810732642</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3658011483798596</v>
+        <v>0.5464201310842089</v>
       </c>
       <c r="S70" t="n">
-        <v>0.384721709888486</v>
+        <v>0.8602903938232874</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>2406</v>
+        <v>1923</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1480</v>
+        <v>2716</v>
       </c>
       <c r="B71" t="n">
-        <v>1537</v>
+        <v>2741</v>
       </c>
       <c r="C71" t="n">
-        <v>1634</v>
+        <v>2837</v>
       </c>
       <c r="D71" t="n">
-        <v>2.186143753774407</v>
+        <v>3.169503970945061</v>
       </c>
       <c r="E71" t="n">
-        <v>1.713963983149146</v>
+        <v>2.63744962606582</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.4721797706252612</v>
+        <v>-0.5320543448792412</v>
       </c>
       <c r="G71" t="n">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="H71" t="n">
-        <v>32.21403600572035</v>
+        <v>104.069950679233</v>
       </c>
       <c r="I71" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="J71" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K71" t="n">
-        <v>151.9906823604854</v>
+        <v>216.1656634429418</v>
       </c>
       <c r="L71" t="n">
-        <v>4.550873463732511</v>
+        <v>14.76890197682742</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,24 +6540,24 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.5912530902487801</v>
+        <v>0.912570620980275</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.5876288659793815</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="R71" t="n">
-        <v>0.4112492980552666</v>
+        <v>0.412132897326587</v>
       </c>
       <c r="S71" t="n">
-        <v>0.6614282733434383</v>
+        <v>0.9543757878371016</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U71" t="n">
-        <v>2407</v>
+        <v>1924</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1803</v>
+        <v>3368</v>
       </c>
       <c r="B72" t="n">
-        <v>1835</v>
+        <v>3402</v>
       </c>
       <c r="C72" t="n">
-        <v>1883</v>
+        <v>3532</v>
       </c>
       <c r="D72" t="n">
-        <v>2.380324820589953</v>
+        <v>3.433953126432323</v>
       </c>
       <c r="E72" t="n">
-        <v>1.908145049964692</v>
+        <v>2.901898781553082</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.4721797706252612</v>
+        <v>-0.5320543448792412</v>
       </c>
       <c r="G72" t="n">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="H72" t="n">
-        <v>26.90887304157354</v>
+        <v>34.45726655415501</v>
       </c>
       <c r="I72" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J72" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="K72" t="n">
-        <v>119.3548706331538</v>
+        <v>318.0113062297413</v>
       </c>
       <c r="L72" t="n">
-        <v>4.955098237425655</v>
+        <v>16.0011527299576</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,24 +6626,24 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.638863847136856</v>
+        <v>0.7913505958528545</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="R72" t="n">
-        <v>0.1257680357994437</v>
+        <v>0.4187481513944262</v>
       </c>
       <c r="S72" t="n">
-        <v>0.9201602889767843</v>
+        <v>0.8515567021527248</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U72" t="n">
-        <v>2408</v>
+        <v>1925</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>759</v>
+        <v>174</v>
       </c>
       <c r="B73" t="n">
-        <v>815</v>
+        <v>187</v>
       </c>
       <c r="C73" t="n">
-        <v>950</v>
+        <v>227</v>
       </c>
       <c r="D73" t="n">
-        <v>8.243581978463665</v>
+        <v>2.389811106115522</v>
       </c>
       <c r="E73" t="n">
-        <v>7.80121480210917</v>
+        <v>1.771608393598818</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.4423671763544939</v>
+        <v>-0.6182027125167038</v>
       </c>
       <c r="G73" t="n">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c r="H73" t="n">
-        <v>41.30291676918591</v>
+        <v>13.743977780439</v>
       </c>
       <c r="I73" t="n">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J73" t="n">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="K73" t="n">
-        <v>469.2495415946844</v>
+        <v>93.09541930180856</v>
       </c>
       <c r="L73" t="n">
-        <v>22.6082359406633</v>
+        <v>6.726531916986356</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.747277190645764</v>
+        <v>0.9122584419534375</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.4148148148148148</v>
+        <v>0.325</v>
       </c>
       <c r="R73" t="n">
-        <v>0.4187928629508626</v>
+        <v>0.2309398446657342</v>
       </c>
       <c r="S73" t="n">
-        <v>0.8593808584674479</v>
+        <v>0.9863195185337706</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>2409</v>
+        <v>1926</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>3937</v>
+        <v>1429</v>
       </c>
       <c r="B74" t="n">
-        <v>3959</v>
+        <v>1456</v>
       </c>
       <c r="C74" t="n">
-        <v>4028</v>
+        <v>1530</v>
       </c>
       <c r="D74" t="n">
-        <v>3.746417888643983</v>
+        <v>3.146448458469015</v>
       </c>
       <c r="E74" t="n">
-        <v>3.304050712289489</v>
+        <v>2.528245745952312</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.4423671763544939</v>
+        <v>-0.6182027125167038</v>
       </c>
       <c r="G74" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="H74" t="n">
-        <v>36.3763082899527</v>
+        <v>119.8108511369535</v>
       </c>
       <c r="I74" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J74" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K74" t="n">
-        <v>132.191613624322</v>
+        <v>194.6102230363302</v>
       </c>
       <c r="L74" t="n">
-        <v>10.27464757190055</v>
+        <v>8.856217098867756</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,24 +6798,24 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.9375853096319375</v>
+        <v>0.8291333624685248</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.3648648648648649</v>
       </c>
       <c r="R74" t="n">
-        <v>0.4543553731967696</v>
+        <v>0.2659569996473807</v>
       </c>
       <c r="S74" t="n">
-        <v>0.8397824569590135</v>
+        <v>0.7674580081784831</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U74" t="n">
-        <v>2410</v>
+        <v>1927</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>267</v>
+        <v>2596</v>
       </c>
       <c r="B75" t="n">
-        <v>284</v>
+        <v>2666</v>
       </c>
       <c r="C75" t="n">
-        <v>316</v>
+        <v>2808</v>
       </c>
       <c r="D75" t="n">
-        <v>2.417493743231857</v>
+        <v>3.044733727210692</v>
       </c>
       <c r="E75" t="n">
-        <v>1.860042488603894</v>
+        <v>2.426531014693989</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.5574512546279624</v>
+        <v>-0.6182027125167038</v>
       </c>
       <c r="G75" t="n">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c r="H75" t="n">
-        <v>73.54486294655945</v>
+        <v>113.4287801240062</v>
       </c>
       <c r="I75" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="J75" t="n">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="K75" t="n">
-        <v>82.43771015453849</v>
+        <v>321.4370715004898</v>
       </c>
       <c r="L75" t="n">
-        <v>6.9293959623185</v>
+        <v>8.56992359873046</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,24 +6884,24 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.8006771668966569</v>
+        <v>0.760751599961321</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.53125</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2993147410191189</v>
+        <v>0.2774298983051109</v>
       </c>
       <c r="S75" t="n">
-        <v>0.9628969909243363</v>
+        <v>0.8880761907572521</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U75" t="n">
-        <v>2411</v>
+        <v>1928</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3469</v>
+        <v>1545</v>
       </c>
       <c r="B76" t="n">
-        <v>3495</v>
+        <v>1656</v>
       </c>
       <c r="C76" t="n">
-        <v>3533</v>
+        <v>1859</v>
       </c>
       <c r="D76" t="n">
-        <v>2.957565515007157</v>
+        <v>2.014738203108458</v>
       </c>
       <c r="E76" t="n">
-        <v>2.400114260379194</v>
+        <v>1.473704670106472</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5574512546279624</v>
+        <v>-0.5410335330019856</v>
       </c>
       <c r="G76" t="n">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="H76" t="n">
-        <v>30.01204247348642</v>
+        <v>110.5788433865598</v>
       </c>
       <c r="I76" t="n">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="J76" t="n">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="K76" t="n">
-        <v>155.6280700555834</v>
+        <v>344.5733749329729</v>
       </c>
       <c r="L76" t="n">
-        <v>8.477433538498087</v>
+        <v>5.517270415475363</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.6821239151113649</v>
+        <v>0.6060353758607383</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.5467980295566502</v>
       </c>
       <c r="R76" t="n">
-        <v>0.07662644557071033</v>
+        <v>0.2637413440265632</v>
       </c>
       <c r="S76" t="n">
-        <v>0.9763855921035647</v>
+        <v>0.5749774102153438</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>2412</v>
+        <v>1929</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3533</v>
+        <v>1993</v>
       </c>
       <c r="B77" t="n">
-        <v>3559</v>
+        <v>2056</v>
       </c>
       <c r="C77" t="n">
-        <v>3614</v>
+        <v>2190</v>
       </c>
       <c r="D77" t="n">
-        <v>2.765624494269541</v>
+        <v>3.989713505267927</v>
       </c>
       <c r="E77" t="n">
-        <v>2.208173239641579</v>
+        <v>3.448679972265941</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5574512546279624</v>
+        <v>-0.5410335330019856</v>
       </c>
       <c r="G77" t="n">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="H77" t="n">
-        <v>24.08667613911257</v>
+        <v>130.9030300543577</v>
       </c>
       <c r="I77" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="J77" t="n">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="K77" t="n">
-        <v>180.5684365696875</v>
+        <v>419.7780260120373</v>
       </c>
       <c r="L77" t="n">
-        <v>7.927262379699367</v>
+        <v>10.92565190597732</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.7051675888039702</v>
+        <v>0.6736161170968081</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.4701492537313433</v>
       </c>
       <c r="R77" t="n">
-        <v>0.100654770270127</v>
+        <v>0.5075914516919384</v>
       </c>
       <c r="S77" t="n">
-        <v>0.7474931470223958</v>
+        <v>0.8550662141639386</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>2413</v>
+        <v>1930</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3614</v>
+        <v>3971</v>
       </c>
       <c r="B78" t="n">
-        <v>3665</v>
+        <v>3998</v>
       </c>
       <c r="C78" t="n">
-        <v>3741</v>
+        <v>4042</v>
       </c>
       <c r="D78" t="n">
-        <v>3.487372241629349</v>
+        <v>3.063048861817423</v>
       </c>
       <c r="E78" t="n">
-        <v>2.929920987001386</v>
+        <v>2.522015328815437</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.5574512546279624</v>
+        <v>-0.5410335330019856</v>
       </c>
       <c r="G78" t="n">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="H78" t="n">
-        <v>502.3913783092889</v>
+        <v>40.01034229562265</v>
       </c>
       <c r="I78" t="n">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="J78" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K78" t="n">
-        <v>348.7954778145283</v>
+        <v>169.1365993504526</v>
       </c>
       <c r="L78" t="n">
-        <v>9.996047848273738</v>
+        <v>8.388022245464418</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,24 +7142,24 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.5295114124303131</v>
+        <v>0.72829723370132</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6710526315789473</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="R78" t="n">
-        <v>0.06593959043061469</v>
+        <v>0.8242316225082683</v>
       </c>
       <c r="S78" t="n">
-        <v>0.9603638681258189</v>
+        <v>0.5844916560198409</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U78" t="n">
-        <v>2414</v>
+        <v>1931</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3636</v>
+        <v>1737</v>
       </c>
       <c r="B79" t="n">
-        <v>3666</v>
+        <v>1755</v>
       </c>
       <c r="C79" t="n">
-        <v>3743</v>
+        <v>1804</v>
       </c>
       <c r="D79" t="n">
-        <v>1.028600504169231</v>
+        <v>1.758709769626467</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4983897051314582</v>
+        <v>1.210314782179211</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5302107990377732</v>
+        <v>-0.5483949874472562</v>
       </c>
       <c r="G79" t="n">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H79" t="n">
-        <v>72.94638167605626</v>
+        <v>25.18141859411276</v>
       </c>
       <c r="I79" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J79" t="n">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K79" t="n">
-        <v>70.32345419727487</v>
+        <v>101.1603688167873</v>
       </c>
       <c r="L79" t="n">
-        <v>4.252063572435167</v>
+        <v>6.981140521185309</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.8043087716164207</v>
+        <v>0.7598202494337302</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4404951362542718</v>
+        <v>0.03074174573805637</v>
       </c>
       <c r="S79" t="n">
-        <v>0.6166296086029792</v>
+        <v>0.9119954717825465</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>2415</v>
+        <v>1932</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3890</v>
+        <v>1804</v>
       </c>
       <c r="B80" t="n">
-        <v>3911</v>
+        <v>1828</v>
       </c>
       <c r="C80" t="n">
-        <v>3974</v>
+        <v>1904</v>
       </c>
       <c r="D80" t="n">
-        <v>3.020826002175286</v>
+        <v>2.090751839560343</v>
       </c>
       <c r="E80" t="n">
-        <v>2.490615203137513</v>
+        <v>1.542356852113087</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5302107990377732</v>
+        <v>-0.5483949874472562</v>
       </c>
       <c r="G80" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>24.01577055421785</v>
+        <v>18.70486765582996</v>
       </c>
       <c r="I80" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J80" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="K80" t="n">
-        <v>185.5548465289063</v>
+        <v>100.1982653549961</v>
       </c>
       <c r="L80" t="n">
-        <v>12.48759275389311</v>
+        <v>8.299170584579999</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.9205211426442124</v>
+        <v>0.824603463056837</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="R80" t="n">
-        <v>0.271824208487249</v>
+        <v>0.5204929125385224</v>
       </c>
       <c r="S80" t="n">
-        <v>0.9811959356213767</v>
+        <v>0.7318793563594232</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>2416</v>
+        <v>1933</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3974</v>
+        <v>2017</v>
       </c>
       <c r="B81" t="n">
-        <v>4092</v>
+        <v>2049</v>
       </c>
       <c r="C81" t="n">
-        <v>4265</v>
+        <v>2281</v>
       </c>
       <c r="D81" t="n">
-        <v>4.403262176037777</v>
+        <v>3.273323133537645</v>
       </c>
       <c r="E81" t="n">
-        <v>3.873051377000004</v>
+        <v>2.724928146090389</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5302107990377732</v>
+        <v>-0.5483949874472562</v>
       </c>
       <c r="G81" t="n">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="H81" t="n">
-        <v>129.3785495059874</v>
+        <v>34.52165265097642</v>
       </c>
       <c r="I81" t="n">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="J81" t="n">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="K81" t="n">
-        <v>645.2092250452</v>
+        <v>450.2564271534433</v>
       </c>
       <c r="L81" t="n">
-        <v>18.20235419166334</v>
+        <v>12.99334839728921</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,24 +7400,24 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.6575658688210922</v>
+        <v>0.7929957890965119</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.6820809248554913</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="R81" t="n">
-        <v>0.3443250534332865</v>
+        <v>0.4160881316624515</v>
       </c>
       <c r="S81" t="n">
-        <v>0.844237001808077</v>
+        <v>0.9174042991929006</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U81" t="n">
-        <v>2417</v>
+        <v>1934</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>738</v>
+        <v>1706</v>
       </c>
       <c r="B82" t="n">
-        <v>763</v>
+        <v>1728</v>
       </c>
       <c r="C82" t="n">
-        <v>830</v>
+        <v>1781</v>
       </c>
       <c r="D82" t="n">
-        <v>2.044147670717479</v>
+        <v>1.990455382843879</v>
       </c>
       <c r="E82" t="n">
-        <v>1.539023750226592</v>
+        <v>1.488716745557987</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5051239204908875</v>
+        <v>-0.5017386372858914</v>
       </c>
       <c r="G82" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H82" t="n">
-        <v>31.16990526351037</v>
+        <v>52.86309935932695</v>
       </c>
       <c r="I82" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J82" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K82" t="n">
-        <v>91.50626238609414</v>
+        <v>125.2620067562341</v>
       </c>
       <c r="L82" t="n">
-        <v>6.92544108523536</v>
+        <v>4.351742031109057</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.8958792794518994</v>
+        <v>0.6963533320268334</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.373134328358209</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="R82" t="n">
-        <v>0.2936701715601578</v>
+        <v>0.15409084776685</v>
       </c>
       <c r="S82" t="n">
-        <v>0.8382775728813896</v>
+        <v>0.4570316498345474</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>2418</v>
+        <v>1935</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>978</v>
+        <v>1823</v>
       </c>
       <c r="B83" t="n">
-        <v>1054</v>
+        <v>1839</v>
       </c>
       <c r="C83" t="n">
-        <v>1154</v>
+        <v>1867</v>
       </c>
       <c r="D83" t="n">
-        <v>4.945329818140738</v>
+        <v>3.140133871171197</v>
       </c>
       <c r="E83" t="n">
-        <v>4.440205897649851</v>
+        <v>2.638395233885306</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5051239204908875</v>
+        <v>-0.5017386372858914</v>
       </c>
       <c r="G83" t="n">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="H83" t="n">
-        <v>164.4514585070604</v>
+        <v>20.97633055640449</v>
       </c>
       <c r="I83" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="J83" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="K83" t="n">
-        <v>495.3460381394575</v>
+        <v>95.68309720936249</v>
       </c>
       <c r="L83" t="n">
-        <v>16.75445996060079</v>
+        <v>6.865289555478928</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.7454062357715806</v>
+        <v>0.8086362629204052</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.76</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R83" t="n">
-        <v>0.3605013044649543</v>
+        <v>0.1918626052149408</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9440728282644867</v>
+        <v>0.9398574981441284</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>2419</v>
+        <v>1936</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1421</v>
+        <v>232</v>
       </c>
       <c r="B84" t="n">
-        <v>1443</v>
+        <v>263</v>
       </c>
       <c r="C84" t="n">
-        <v>1475</v>
+        <v>317</v>
       </c>
       <c r="D84" t="n">
-        <v>1.510084311205372</v>
+        <v>3.912205616635196</v>
       </c>
       <c r="E84" t="n">
-        <v>1.004960390714485</v>
+        <v>3.390638631243405</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5051239204908875</v>
+        <v>-0.5215669853917901</v>
       </c>
       <c r="G84" t="n">
+        <v>85</v>
+      </c>
+      <c r="H84" t="n">
+        <v>66.69809980812821</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31</v>
+      </c>
+      <c r="J84" t="n">
         <v>54</v>
       </c>
-      <c r="H84" t="n">
-        <v>26.05099815063363</v>
-      </c>
-      <c r="I84" t="n">
-        <v>22</v>
-      </c>
-      <c r="J84" t="n">
-        <v>32</v>
-      </c>
       <c r="K84" t="n">
-        <v>41.93430378675037</v>
+        <v>225.5098498682394</v>
       </c>
       <c r="L84" t="n">
-        <v>5.116068707169453</v>
+        <v>12.01550787522257</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.7475426717112058</v>
+        <v>0.7896225570328879</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6875</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="R84" t="n">
-        <v>0.1624992181538948</v>
+        <v>0.2517637692395758</v>
       </c>
       <c r="S84" t="n">
-        <v>0.9363533502690872</v>
+        <v>0.8960020392438806</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>2420</v>
+        <v>1937</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1616</v>
+        <v>317</v>
       </c>
       <c r="B85" t="n">
-        <v>1658</v>
+        <v>340</v>
       </c>
       <c r="C85" t="n">
-        <v>1755</v>
+        <v>401</v>
       </c>
       <c r="D85" t="n">
-        <v>1.902613812377497</v>
+        <v>3.119567502882067</v>
       </c>
       <c r="E85" t="n">
-        <v>1.39748989188661</v>
+        <v>2.598000517490276</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5051239204908875</v>
+        <v>-0.5215669853917901</v>
       </c>
       <c r="G85" t="n">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="H85" t="n">
-        <v>37.11151986861637</v>
+        <v>24.45844022784155</v>
       </c>
       <c r="I85" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J85" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="K85" t="n">
-        <v>160.976289915686</v>
+        <v>176.6524130360785</v>
       </c>
       <c r="L85" t="n">
-        <v>6.445933458882926</v>
+        <v>9.58108841181164</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.7832196586530225</v>
+        <v>0.8884554176462371</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.4329896907216495</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="R85" t="n">
-        <v>0.3790304658755735</v>
+        <v>0.232441208979669</v>
       </c>
       <c r="S85" t="n">
-        <v>0.6077707335738088</v>
+        <v>0.9190826517938014</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>2421</v>
+        <v>1938</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>166</v>
+        <v>2027</v>
       </c>
       <c r="B86" t="n">
-        <v>209</v>
+        <v>2047</v>
       </c>
       <c r="C86" t="n">
-        <v>273</v>
+        <v>2123</v>
       </c>
       <c r="D86" t="n">
-        <v>1.048074715252267</v>
+        <v>3.724174981055706</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5168495558397267</v>
+        <v>3.202607995663916</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5312251594125407</v>
+        <v>-0.5215669853917901</v>
       </c>
       <c r="G86" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H86" t="n">
-        <v>60.08420568544619</v>
+        <v>26.62394168290371</v>
       </c>
       <c r="I86" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="J86" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K86" t="n">
-        <v>51.90527927367261</v>
+        <v>247.0518307691733</v>
       </c>
       <c r="L86" t="n">
-        <v>4.820457449162244</v>
+        <v>11.43801175053482</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.7736726840720561</v>
+        <v>0.9250875075841074</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.671875</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="R86" t="n">
-        <v>0.2815059795801955</v>
+        <v>0.2513844432961022</v>
       </c>
       <c r="S86" t="n">
-        <v>0.8613132124339257</v>
+        <v>0.9351838795387892</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>2422</v>
+        <v>1939</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,40 +7867,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1512</v>
+        <v>2175</v>
       </c>
       <c r="B87" t="n">
-        <v>1529</v>
+        <v>2194</v>
       </c>
       <c r="C87" t="n">
-        <v>1551</v>
+        <v>2308</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8514611177027878</v>
+        <v>2.319284693545597</v>
       </c>
       <c r="E87" t="n">
-        <v>0.320235958290247</v>
+        <v>1.797717708153806</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5312251594125407</v>
+        <v>-0.5215669853917901</v>
       </c>
       <c r="G87" t="n">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="H87" t="n">
-        <v>19.26907983183105</v>
+        <v>38.66495792080786</v>
       </c>
       <c r="I87" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J87" t="n">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="K87" t="n">
-        <v>21.94794377050723</v>
+        <v>201.3753262609864</v>
       </c>
       <c r="L87" t="n">
-        <v>3.916163635828666</v>
+        <v>7.123189891064168</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -7916,24 +7916,24 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.7783788309378499</v>
+        <v>0.8668831776897161</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R87" t="n">
-        <v>0.3476060662540924</v>
+        <v>0.296259086768938</v>
       </c>
       <c r="S87" t="n">
-        <v>0.9381632735254402</v>
+        <v>0.8556665690130475</v>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n33</t>
         </is>
       </c>
       <c r="U87" t="n">
-        <v>2423</v>
+        <v>1940</v>
       </c>
       <c r="V87" t="inlineStr">
         <is>
@@ -7946,2672 +7946,6 @@
         </is>
       </c>
       <c r="X87" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1551</v>
-      </c>
-      <c r="B88" t="n">
-        <v>1568</v>
-      </c>
-      <c r="C88" t="n">
-        <v>1590</v>
-      </c>
-      <c r="D88" t="n">
-        <v>0.9746351343982148</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0.4434099749856741</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G88" t="n">
-        <v>39</v>
-      </c>
-      <c r="H88" t="n">
-        <v>30.18876398598991</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>22</v>
-      </c>
-      <c r="K88" t="n">
-        <v>27.13455814024901</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.48268346278565</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P88" t="n">
-        <v>0.5817895328752916</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="R88" t="n">
-        <v>0.06120956242315256</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.8365378552012994</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U88" t="n">
-        <v>2424</v>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2303</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2322</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2410</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2.688276146438866</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2.157050987026325</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G89" t="n">
-        <v>107</v>
-      </c>
-      <c r="H89" t="n">
-        <v>88.00707089573143</v>
-      </c>
-      <c r="I89" t="n">
-        <v>19</v>
-      </c>
-      <c r="J89" t="n">
-        <v>88</v>
-      </c>
-      <c r="K89" t="n">
-        <v>132.7214875796126</v>
-      </c>
-      <c r="L89" t="n">
-        <v>12.36431008870135</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P89" t="n">
-        <v>0.8706393973019848</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>0.2159090909090909</v>
-      </c>
-      <c r="R89" t="n">
-        <v>0.5305835442067885</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.8602580288915811</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U89" t="n">
-        <v>2425</v>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2485</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2509</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2540</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.291473161182084</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0.7602480017695435</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G90" t="n">
-        <v>55</v>
-      </c>
-      <c r="H90" t="n">
-        <v>22.42224020447566</v>
-      </c>
-      <c r="I90" t="n">
-        <v>24</v>
-      </c>
-      <c r="J90" t="n">
-        <v>31</v>
-      </c>
-      <c r="K90" t="n">
-        <v>44.60541179972348</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.939930932037453</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>0.7385568504444451</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="R90" t="n">
-        <v>0.3085277462174792</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.9101414909207908</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U90" t="n">
-        <v>2426</v>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2715</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2737</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2838</v>
-      </c>
-      <c r="D91" t="n">
-        <v>3.214145177299642</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2.682920017887101</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G91" t="n">
-        <v>123</v>
-      </c>
-      <c r="H91" t="n">
-        <v>102.9611638521837</v>
-      </c>
-      <c r="I91" t="n">
-        <v>22</v>
-      </c>
-      <c r="J91" t="n">
-        <v>101</v>
-      </c>
-      <c r="K91" t="n">
-        <v>218.7388046118375</v>
-      </c>
-      <c r="L91" t="n">
-        <v>14.78296331084917</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>0.8916942378652984</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>0.2178217821782178</v>
-      </c>
-      <c r="R91" t="n">
-        <v>0.3637020205252966</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.9547872531812247</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U91" t="n">
-        <v>2427</v>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>3235</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3268</v>
-      </c>
-      <c r="C92" t="n">
-        <v>3323</v>
-      </c>
-      <c r="D92" t="n">
-        <v>4.076594556962266</v>
-      </c>
-      <c r="E92" t="n">
-        <v>3.545369397549725</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G92" t="n">
-        <v>88</v>
-      </c>
-      <c r="H92" t="n">
-        <v>77.00188926320197</v>
-      </c>
-      <c r="I92" t="n">
-        <v>33</v>
-      </c>
-      <c r="J92" t="n">
-        <v>55</v>
-      </c>
-      <c r="K92" t="n">
-        <v>302.4585895530977</v>
-      </c>
-      <c r="L92" t="n">
-        <v>18.74966575698096</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>0.6320050274643185</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R92" t="n">
-        <v>0.1069541648780889</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.9827882777481475</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U92" t="n">
-        <v>2428</v>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>3323</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3343</v>
-      </c>
-      <c r="C93" t="n">
-        <v>3368</v>
-      </c>
-      <c r="D93" t="n">
-        <v>4.328037620001569</v>
-      </c>
-      <c r="E93" t="n">
-        <v>3.796812460589029</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G93" t="n">
-        <v>45</v>
-      </c>
-      <c r="H93" t="n">
-        <v>257.165172141204</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>25</v>
-      </c>
-      <c r="K93" t="n">
-        <v>156.9764811577012</v>
-      </c>
-      <c r="L93" t="n">
-        <v>19.9061392112387</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P93" t="n">
-        <v>0.5443037738545822</v>
-      </c>
-      <c r="Q93" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R93" t="n">
-        <v>0.03571248651804548</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.9281909382602058</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U93" t="n">
-        <v>2429</v>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>3368</v>
-      </c>
-      <c r="B94" t="n">
-        <v>3403</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3488</v>
-      </c>
-      <c r="D94" t="n">
-        <v>3.424826060072963</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2.893600900660422</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G94" t="n">
-        <v>120</v>
-      </c>
-      <c r="H94" t="n">
-        <v>33.76219180510634</v>
-      </c>
-      <c r="I94" t="n">
-        <v>35</v>
-      </c>
-      <c r="J94" t="n">
-        <v>85</v>
-      </c>
-      <c r="K94" t="n">
-        <v>293.4838408074074</v>
-      </c>
-      <c r="L94" t="n">
-        <v>15.75195742546846</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>0.77998050210722</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.4117647058823529</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.2328089574132429</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.7839083525107006</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U94" t="n">
-        <v>2430</v>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>3532</v>
-      </c>
-      <c r="B95" t="n">
-        <v>3556</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3596</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0.7988153580350377</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0.267590198622497</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G95" t="n">
-        <v>64</v>
-      </c>
-      <c r="H95" t="n">
-        <v>41.79771200874438</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>40</v>
-      </c>
-      <c r="K95" t="n">
-        <v>36.04530016249858</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.674027611875327</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>0.739407262827372</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.2773490153765559</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.6617421766556666</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U95" t="n">
-        <v>2431</v>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>3596</v>
-      </c>
-      <c r="B96" t="n">
-        <v>3618</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3650</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.185828927879689</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.6546037684671477</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-0.5312251594125407</v>
-      </c>
-      <c r="G96" t="n">
-        <v>54</v>
-      </c>
-      <c r="H96" t="n">
-        <v>21.56310889069027</v>
-      </c>
-      <c r="I96" t="n">
-        <v>22</v>
-      </c>
-      <c r="J96" t="n">
-        <v>32</v>
-      </c>
-      <c r="K96" t="n">
-        <v>32.05238778865771</v>
-      </c>
-      <c r="L96" t="n">
-        <v>5.454036630827265</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P96" t="n">
-        <v>0.8228967473170612</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0.3454191509143272</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0.9319689736449397</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>n26</t>
-        </is>
-      </c>
-      <c r="U96" t="n">
-        <v>2432</v>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>173</v>
-      </c>
-      <c r="B97" t="n">
-        <v>187</v>
-      </c>
-      <c r="C97" t="n">
-        <v>229</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2.423529446578826</v>
-      </c>
-      <c r="E97" t="n">
-        <v>1.805798393191911</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-0.6177310533869145</v>
-      </c>
-      <c r="G97" t="n">
-        <v>56</v>
-      </c>
-      <c r="H97" t="n">
-        <v>14.25373201630762</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>42</v>
-      </c>
-      <c r="K97" t="n">
-        <v>97.40219819328388</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6.789367931181133</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>0.9040772354902081</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.2378866874719369</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.9795924563821283</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U97" t="n">
-        <v>2433</v>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1430</v>
-      </c>
-      <c r="B98" t="n">
-        <v>1456</v>
-      </c>
-      <c r="C98" t="n">
-        <v>1529</v>
-      </c>
-      <c r="D98" t="n">
-        <v>3.220973725144721</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2.603242671757806</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-0.6177310533869145</v>
-      </c>
-      <c r="G98" t="n">
-        <v>99</v>
-      </c>
-      <c r="H98" t="n">
-        <v>119.5661418409186</v>
-      </c>
-      <c r="I98" t="n">
-        <v>26</v>
-      </c>
-      <c r="J98" t="n">
-        <v>73</v>
-      </c>
-      <c r="K98" t="n">
-        <v>192.0706104268541</v>
-      </c>
-      <c r="L98" t="n">
-        <v>9.023358782599106</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>0.8288497383646781</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="R98" t="n">
-        <v>0.2688159659002808</v>
-      </c>
-      <c r="S98" t="n">
-        <v>0.7491501627969019</v>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U98" t="n">
-        <v>2434</v>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>2597</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2667</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2808</v>
-      </c>
-      <c r="D99" t="n">
-        <v>3.063902422069184</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2.44617136868227</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.6177310533869145</v>
-      </c>
-      <c r="G99" t="n">
-        <v>211</v>
-      </c>
-      <c r="H99" t="n">
-        <v>112.6313239790479</v>
-      </c>
-      <c r="I99" t="n">
-        <v>70</v>
-      </c>
-      <c r="J99" t="n">
-        <v>141</v>
-      </c>
-      <c r="K99" t="n">
-        <v>321.3003906978653</v>
-      </c>
-      <c r="L99" t="n">
-        <v>8.583333236585922</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>0.7467895684416404</v>
-      </c>
-      <c r="Q99" t="n">
-        <v>0.4964539007092199</v>
-      </c>
-      <c r="R99" t="n">
-        <v>0.2966341613752946</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0.8736670881091676</v>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>n27</t>
-        </is>
-      </c>
-      <c r="U99" t="n">
-        <v>2435</v>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>2567</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2591</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2663</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3.422573885117805</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2.916810358696238</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-0.5057635264215665</v>
-      </c>
-      <c r="G100" t="n">
-        <v>96</v>
-      </c>
-      <c r="H100" t="n">
-        <v>70.34748702564821</v>
-      </c>
-      <c r="I100" t="n">
-        <v>24</v>
-      </c>
-      <c r="J100" t="n">
-        <v>72</v>
-      </c>
-      <c r="K100" t="n">
-        <v>254.4126048304049</v>
-      </c>
-      <c r="L100" t="n">
-        <v>12.24508091705977</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>0.7609172950981805</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="R100" t="n">
-        <v>0.1366579938166692</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.6587090014660792</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U100" t="n">
-        <v>2436</v>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1545</v>
-      </c>
-      <c r="B101" t="n">
-        <v>1657</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1859</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2.031589516988032</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1.497267573481677</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-0.534321943506355</v>
-      </c>
-      <c r="G101" t="n">
-        <v>314</v>
-      </c>
-      <c r="H101" t="n">
-        <v>109.5684432926007</v>
-      </c>
-      <c r="I101" t="n">
-        <v>112</v>
-      </c>
-      <c r="J101" t="n">
-        <v>202</v>
-      </c>
-      <c r="K101" t="n">
-        <v>342.5180700997751</v>
-      </c>
-      <c r="L101" t="n">
-        <v>5.547650216757887</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>0.5954625863969149</v>
-      </c>
-      <c r="Q101" t="n">
-        <v>0.5544554455445545</v>
-      </c>
-      <c r="R101" t="n">
-        <v>0.2719387330169969</v>
-      </c>
-      <c r="S101" t="n">
-        <v>0.5450823289522024</v>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U101" t="n">
-        <v>2437</v>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>2029</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2055</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2189</v>
-      </c>
-      <c r="D102" t="n">
-        <v>4.04523487376498</v>
-      </c>
-      <c r="E102" t="n">
-        <v>3.510912930258625</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-0.534321943506355</v>
-      </c>
-      <c r="G102" t="n">
-        <v>160</v>
-      </c>
-      <c r="H102" t="n">
-        <v>129.7238660567584</v>
-      </c>
-      <c r="I102" t="n">
-        <v>26</v>
-      </c>
-      <c r="J102" t="n">
-        <v>134</v>
-      </c>
-      <c r="K102" t="n">
-        <v>381.3993040180164</v>
-      </c>
-      <c r="L102" t="n">
-        <v>11.04630041483476</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>0.8086634291591691</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.1940298507462687</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.1647063971949893</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.8523601220338726</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U102" t="n">
-        <v>2438</v>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W102" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>2189</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2203</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2295</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.749913102967004</v>
-      </c>
-      <c r="E103" t="n">
-        <v>1.215591159460649</v>
-      </c>
-      <c r="F103" t="n">
-        <v>-0.534321943506355</v>
-      </c>
-      <c r="G103" t="n">
-        <v>106</v>
-      </c>
-      <c r="H103" t="n">
-        <v>50.4665124970511</v>
-      </c>
-      <c r="I103" t="n">
-        <v>14</v>
-      </c>
-      <c r="J103" t="n">
-        <v>92</v>
-      </c>
-      <c r="K103" t="n">
-        <v>149.5760072829006</v>
-      </c>
-      <c r="L103" t="n">
-        <v>4.778477996566446</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>0.7181364755482329</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>0.1521739130434783</v>
-      </c>
-      <c r="R103" t="n">
-        <v>0.07158691367071895</v>
-      </c>
-      <c r="S103" t="n">
-        <v>0.749808244557175</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U103" t="n">
-        <v>2439</v>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>3778</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3806</v>
-      </c>
-      <c r="C104" t="n">
-        <v>3841</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.618433362216875</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2.08411141871052</v>
-      </c>
-      <c r="F104" t="n">
-        <v>-0.534321943506355</v>
-      </c>
-      <c r="G104" t="n">
-        <v>63</v>
-      </c>
-      <c r="H104" t="n">
-        <v>131.2342455991502</v>
-      </c>
-      <c r="I104" t="n">
-        <v>28</v>
-      </c>
-      <c r="J104" t="n">
-        <v>35</v>
-      </c>
-      <c r="K104" t="n">
-        <v>107.2802743650896</v>
-      </c>
-      <c r="L104" t="n">
-        <v>7.150141447374923</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>0.717540151216129</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R104" t="n">
-        <v>0.3997376571445395</v>
-      </c>
-      <c r="S104" t="n">
-        <v>0.9251467602605052</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U104" t="n">
-        <v>2440</v>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W104" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>3972</v>
-      </c>
-      <c r="B105" t="n">
-        <v>3997</v>
-      </c>
-      <c r="C105" t="n">
-        <v>4042</v>
-      </c>
-      <c r="D105" t="n">
-        <v>3.075329657969608</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2.541007714463253</v>
-      </c>
-      <c r="F105" t="n">
-        <v>-0.534321943506355</v>
-      </c>
-      <c r="G105" t="n">
-        <v>70</v>
-      </c>
-      <c r="H105" t="n">
-        <v>40.5443399372266</v>
-      </c>
-      <c r="I105" t="n">
-        <v>25</v>
-      </c>
-      <c r="J105" t="n">
-        <v>45</v>
-      </c>
-      <c r="K105" t="n">
-        <v>168.5335611407679</v>
-      </c>
-      <c r="L105" t="n">
-        <v>8.397785625971784</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>0.7235359155032757</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="R105" t="n">
-        <v>0.8181512606240574</v>
-      </c>
-      <c r="S105" t="n">
-        <v>0.4916903521031663</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U105" t="n">
-        <v>2441</v>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W105" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2875</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2904</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2949</v>
-      </c>
-      <c r="D106" t="n">
-        <v>4.691253709172494</v>
-      </c>
-      <c r="E106" t="n">
-        <v>4.198402707302115</v>
-      </c>
-      <c r="F106" t="n">
-        <v>-0.4928510018703782</v>
-      </c>
-      <c r="G106" t="n">
-        <v>74</v>
-      </c>
-      <c r="H106" t="n">
-        <v>92.72413146169447</v>
-      </c>
-      <c r="I106" t="n">
-        <v>29</v>
-      </c>
-      <c r="J106" t="n">
-        <v>45</v>
-      </c>
-      <c r="K106" t="n">
-        <v>253.3859819568605</v>
-      </c>
-      <c r="L106" t="n">
-        <v>16.36966176972953</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0.7638398171442793</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0.2377080908094535</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0.9361468732790037</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>n30</t>
-        </is>
-      </c>
-      <c r="U106" t="n">
-        <v>2442</v>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W106" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1658</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1681</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1736</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.611504066440341</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2.063351798230616</v>
-      </c>
-      <c r="F107" t="n">
-        <v>-0.5481522682097247</v>
-      </c>
-      <c r="G107" t="n">
-        <v>78</v>
-      </c>
-      <c r="H107" t="n">
-        <v>68.62689199445208</v>
-      </c>
-      <c r="I107" t="n">
-        <v>23</v>
-      </c>
-      <c r="J107" t="n">
-        <v>55</v>
-      </c>
-      <c r="K107" t="n">
-        <v>164.2902043473828</v>
-      </c>
-      <c r="L107" t="n">
-        <v>10.32651487576267</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>0.7712919433256991</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0.4181818181818182</v>
-      </c>
-      <c r="R107" t="n">
-        <v>0.1881370426495168</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0.7060306415355149</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U107" t="n">
-        <v>2443</v>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1736</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1756</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1803</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.764406067475576</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.216253799265852</v>
-      </c>
-      <c r="F108" t="n">
-        <v>-0.5481522682097247</v>
-      </c>
-      <c r="G108" t="n">
-        <v>67</v>
-      </c>
-      <c r="H108" t="n">
-        <v>25.37208605949604</v>
-      </c>
-      <c r="I108" t="n">
-        <v>20</v>
-      </c>
-      <c r="J108" t="n">
-        <v>47</v>
-      </c>
-      <c r="K108" t="n">
-        <v>101.2766964311236</v>
-      </c>
-      <c r="L108" t="n">
-        <v>6.97688574826069</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>0.7343242482746777</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>0.425531914893617</v>
-      </c>
-      <c r="R108" t="n">
-        <v>0.03662950176196894</v>
-      </c>
-      <c r="S108" t="n">
-        <v>0.8834193848619605</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U108" t="n">
-        <v>2444</v>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W108" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1803</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1828</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1905</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2.116861788337594</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.568709520127869</v>
-      </c>
-      <c r="F109" t="n">
-        <v>-0.5481522682097247</v>
-      </c>
-      <c r="G109" t="n">
-        <v>102</v>
-      </c>
-      <c r="H109" t="n">
-        <v>17.82275807312681</v>
-      </c>
-      <c r="I109" t="n">
-        <v>25</v>
-      </c>
-      <c r="J109" t="n">
-        <v>77</v>
-      </c>
-      <c r="K109" t="n">
-        <v>101.6531512601585</v>
-      </c>
-      <c r="L109" t="n">
-        <v>8.370580397754518</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>0.8119140042755889</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>0.3246753246753247</v>
-      </c>
-      <c r="R109" t="n">
-        <v>0.5202413936986818</v>
-      </c>
-      <c r="S109" t="n">
-        <v>0.7207753534669759</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U109" t="n">
-        <v>2445</v>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2048</v>
-      </c>
-      <c r="C110" t="n">
-        <v>2283</v>
-      </c>
-      <c r="D110" t="n">
-        <v>3.288581377744186</v>
-      </c>
-      <c r="E110" t="n">
-        <v>2.740429109534461</v>
-      </c>
-      <c r="F110" t="n">
-        <v>-0.5481522682097247</v>
-      </c>
-      <c r="G110" t="n">
-        <v>269</v>
-      </c>
-      <c r="H110" t="n">
-        <v>34.4986871713395</v>
-      </c>
-      <c r="I110" t="n">
-        <v>34</v>
-      </c>
-      <c r="J110" t="n">
-        <v>235</v>
-      </c>
-      <c r="K110" t="n">
-        <v>456.8590373441967</v>
-      </c>
-      <c r="L110" t="n">
-        <v>13.00384133183475</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>0.7940969989712865</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>0.1446808510638298</v>
-      </c>
-      <c r="R110" t="n">
-        <v>0.3981841467540501</v>
-      </c>
-      <c r="S110" t="n">
-        <v>0.9128136198347968</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>n31</t>
-        </is>
-      </c>
-      <c r="U110" t="n">
-        <v>2446</v>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W110" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1705</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1730</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1782</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.006556471618571</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.504484938604578</v>
-      </c>
-      <c r="F111" t="n">
-        <v>-0.5020715330139931</v>
-      </c>
-      <c r="G111" t="n">
-        <v>77</v>
-      </c>
-      <c r="H111" t="n">
-        <v>53.22269764073644</v>
-      </c>
-      <c r="I111" t="n">
-        <v>25</v>
-      </c>
-      <c r="J111" t="n">
-        <v>52</v>
-      </c>
-      <c r="K111" t="n">
-        <v>127.7470471858043</v>
-      </c>
-      <c r="L111" t="n">
-        <v>4.364698281269456</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>0.6752881047908992</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>0.4807692307692308</v>
-      </c>
-      <c r="R111" t="n">
-        <v>0.1699515811469539</v>
-      </c>
-      <c r="S111" t="n">
-        <v>0.4106940227332404</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U111" t="n">
-        <v>2447</v>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W111" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1819</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1839</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1867</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3.221465328992964</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2.719393795978971</v>
-      </c>
-      <c r="F112" t="n">
-        <v>-0.5020715330139931</v>
-      </c>
-      <c r="G112" t="n">
-        <v>48</v>
-      </c>
-      <c r="H112" t="n">
-        <v>20.30063600278095</v>
-      </c>
-      <c r="I112" t="n">
-        <v>20</v>
-      </c>
-      <c r="J112" t="n">
-        <v>28</v>
-      </c>
-      <c r="K112" t="n">
-        <v>102.9842416251556</v>
-      </c>
-      <c r="L112" t="n">
-        <v>7.007390214780638</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>0.7490105502059324</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0.1538497294244486</v>
-      </c>
-      <c r="S112" t="n">
-        <v>0.9368912851061667</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U112" t="n">
-        <v>2448</v>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W112" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>1867</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1879</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1898</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.93435461079422</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.432283077780226</v>
-      </c>
-      <c r="F113" t="n">
-        <v>-0.5020715330139931</v>
-      </c>
-      <c r="G113" t="n">
-        <v>31</v>
-      </c>
-      <c r="H113" t="n">
-        <v>16.29214008457689</v>
-      </c>
-      <c r="I113" t="n">
-        <v>12</v>
-      </c>
-      <c r="J113" t="n">
-        <v>19</v>
-      </c>
-      <c r="K113" t="n">
-        <v>49.69362560401005</v>
-      </c>
-      <c r="L113" t="n">
-        <v>4.207643475037017</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>0.6367097146897908</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="R113" t="n">
-        <v>0.02059866003450189</v>
-      </c>
-      <c r="S113" t="n">
-        <v>0.9892831812230437</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U113" t="n">
-        <v>2449</v>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W113" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>233</v>
-      </c>
-      <c r="B114" t="n">
-        <v>262</v>
-      </c>
-      <c r="C114" t="n">
-        <v>317</v>
-      </c>
-      <c r="D114" t="n">
-        <v>3.996414382246882</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3.474621281574326</v>
-      </c>
-      <c r="F114" t="n">
-        <v>-0.5217931006725561</v>
-      </c>
-      <c r="G114" t="n">
-        <v>84</v>
-      </c>
-      <c r="H114" t="n">
-        <v>65.44001747427762</v>
-      </c>
-      <c r="I114" t="n">
-        <v>29</v>
-      </c>
-      <c r="J114" t="n">
-        <v>55</v>
-      </c>
-      <c r="K114" t="n">
-        <v>224.4011110048076</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.24788606626072</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>0.8034117249201814</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>0.5272727272727272</v>
-      </c>
-      <c r="R114" t="n">
-        <v>0.2522225275000134</v>
-      </c>
-      <c r="S114" t="n">
-        <v>0.8879178728321852</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U114" t="n">
-        <v>2450</v>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W114" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>317</v>
-      </c>
-      <c r="B115" t="n">
-        <v>340</v>
-      </c>
-      <c r="C115" t="n">
-        <v>402</v>
-      </c>
-      <c r="D115" t="n">
-        <v>3.161686880878122</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2.639893780205566</v>
-      </c>
-      <c r="F115" t="n">
-        <v>-0.5217931006725561</v>
-      </c>
-      <c r="G115" t="n">
-        <v>85</v>
-      </c>
-      <c r="H115" t="n">
-        <v>23.55659042082459</v>
-      </c>
-      <c r="I115" t="n">
-        <v>23</v>
-      </c>
-      <c r="J115" t="n">
-        <v>62</v>
-      </c>
-      <c r="K115" t="n">
-        <v>177.6095659320929</v>
-      </c>
-      <c r="L115" t="n">
-        <v>9.689681046642338</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>0.8839677678282473</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>0.3709677419354839</v>
-      </c>
-      <c r="R115" t="n">
-        <v>0.2369367356251261</v>
-      </c>
-      <c r="S115" t="n">
-        <v>0.9182870494144139</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U115" t="n">
-        <v>2451</v>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W115" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>402</v>
-      </c>
-      <c r="B116" t="n">
-        <v>432</v>
-      </c>
-      <c r="C116" t="n">
-        <v>476</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.904367400445435</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.382574299772878</v>
-      </c>
-      <c r="F116" t="n">
-        <v>-0.5217931006725561</v>
-      </c>
-      <c r="G116" t="n">
-        <v>74</v>
-      </c>
-      <c r="H116" t="n">
-        <v>43.48579832846445</v>
-      </c>
-      <c r="I116" t="n">
-        <v>30</v>
-      </c>
-      <c r="J116" t="n">
-        <v>44</v>
-      </c>
-      <c r="K116" t="n">
-        <v>102.2936773289298</v>
-      </c>
-      <c r="L116" t="n">
-        <v>5.836350467701798</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>0.6608564881091887</v>
-      </c>
-      <c r="Q116" t="n">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="R116" t="n">
-        <v>0.1136200213413328</v>
-      </c>
-      <c r="S116" t="n">
-        <v>0.8147625585516862</v>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U116" t="n">
-        <v>2452</v>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W116" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>2026</v>
-      </c>
-      <c r="B117" t="n">
-        <v>2046</v>
-      </c>
-      <c r="C117" t="n">
-        <v>2122</v>
-      </c>
-      <c r="D117" t="n">
-        <v>3.733997032012408</v>
-      </c>
-      <c r="E117" t="n">
-        <v>3.212203931339852</v>
-      </c>
-      <c r="F117" t="n">
-        <v>-0.5217931006725561</v>
-      </c>
-      <c r="G117" t="n">
-        <v>96</v>
-      </c>
-      <c r="H117" t="n">
-        <v>26.98376147436875</v>
-      </c>
-      <c r="I117" t="n">
-        <v>20</v>
-      </c>
-      <c r="J117" t="n">
-        <v>76</v>
-      </c>
-      <c r="K117" t="n">
-        <v>248.5365178807701</v>
-      </c>
-      <c r="L117" t="n">
-        <v>11.44365069423334</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>0.9247661502270597</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="R117" t="n">
-        <v>0.2314974825352935</v>
-      </c>
-      <c r="S117" t="n">
-        <v>0.9250275299650677</v>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U117" t="n">
-        <v>2453</v>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W117" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>2176</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2196</v>
-      </c>
-      <c r="C118" t="n">
-        <v>2308</v>
-      </c>
-      <c r="D118" t="n">
-        <v>2.333402411367604</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.811609310695048</v>
-      </c>
-      <c r="F118" t="n">
-        <v>-0.5217931006725561</v>
-      </c>
-      <c r="G118" t="n">
-        <v>132</v>
-      </c>
-      <c r="H118" t="n">
-        <v>36.35749629566135</v>
-      </c>
-      <c r="I118" t="n">
-        <v>20</v>
-      </c>
-      <c r="J118" t="n">
-        <v>112</v>
-      </c>
-      <c r="K118" t="n">
-        <v>199.5787889897967</v>
-      </c>
-      <c r="L118" t="n">
-        <v>7.151222107528419</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P118" t="n">
-        <v>0.8615532730379706</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="R118" t="n">
-        <v>0.318587157810098</v>
-      </c>
-      <c r="S118" t="n">
-        <v>0.8423247264972314</v>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>n33</t>
-        </is>
-      </c>
-      <c r="U118" t="n">
-        <v>2454</v>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W118" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagecellvedio22024-12-07104733trace/processed_No.297920240925homecagecellvedio22024-12-07104733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagecellvedio22024-12-07104733trace/processed_No.297920240925homecagecellvedio22024-12-07104733trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:X87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>828</v>
+        <v>740</v>
       </c>
       <c r="B2" t="n">
-        <v>883</v>
+        <v>770</v>
       </c>
       <c r="C2" t="n">
-        <v>1002</v>
+        <v>827</v>
       </c>
       <c r="D2" t="n">
-        <v>4.106909166677256</v>
+        <v>3.189672420361791</v>
       </c>
       <c r="E2" t="n">
-        <v>3.444183642514238</v>
+        <v>2.518769535052196</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6627255241630179</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G2" t="n">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
-        <v>131.253833264053</v>
+        <v>37.76303500374433</v>
       </c>
       <c r="I2" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="K2" t="n">
-        <v>463.4490039685578</v>
+        <v>204.747370017625</v>
       </c>
       <c r="L2" t="n">
-        <v>15.78367969567438</v>
+        <v>12.19434812806886</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7473671234521287</v>
+        <v>0.7689881352072361</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4621848739495799</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1041613384938896</v>
+        <v>0.1080791024222096</v>
       </c>
       <c r="S2" t="n">
-        <v>0.997429888785402</v>
+        <v>0.9888306400866411</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>896</v>
+        <v>1855</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1488</v>
+        <v>827</v>
       </c>
       <c r="B3" t="n">
-        <v>1526</v>
+        <v>889</v>
       </c>
       <c r="C3" t="n">
-        <v>1577</v>
+        <v>1009</v>
       </c>
       <c r="D3" t="n">
-        <v>2.411644067071857</v>
+        <v>4.079101411284906</v>
       </c>
       <c r="E3" t="n">
-        <v>1.748918542908839</v>
+        <v>3.408198525975311</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6627255241630179</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G3" t="n">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="H3" t="n">
-        <v>51.88795180419265</v>
+        <v>131.1935710359467</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="J3" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>183.6121760314093</v>
+        <v>476.9343805600072</v>
       </c>
       <c r="L3" t="n">
-        <v>9.268434228710319</v>
+        <v>15.59469942473376</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.6021665713445841</v>
+        <v>0.7715666906468753</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7450980392156863</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03052226631588563</v>
+        <v>0.1758626547632941</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9565463828296078</v>
+        <v>0.9923462133758352</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>897</v>
+        <v>1856</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1577</v>
+        <v>1343</v>
       </c>
       <c r="B4" t="n">
-        <v>1642</v>
+        <v>1375</v>
       </c>
       <c r="C4" t="n">
-        <v>1856</v>
+        <v>1424</v>
       </c>
       <c r="D4" t="n">
-        <v>3.198131830832271</v>
+        <v>1.825460951690364</v>
       </c>
       <c r="E4" t="n">
-        <v>2.535406306669253</v>
+        <v>1.154558066380769</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6627255241630179</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G4" t="n">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>286.5360638902239</v>
+        <v>25.37849484568687</v>
       </c>
       <c r="I4" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
-        <v>439.4508506530574</v>
+        <v>86.68958424690565</v>
       </c>
       <c r="L4" t="n">
-        <v>12.29106522539365</v>
+        <v>6.978869114272023</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8726249972763377</v>
+        <v>0.7932229964609997</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3037383177570093</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4734721400413541</v>
+        <v>0.4142337360855106</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8089008043016214</v>
+        <v>0.8806300351126731</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>898</v>
+        <v>1857</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2622</v>
+        <v>1493</v>
       </c>
       <c r="B5" t="n">
-        <v>2670</v>
+        <v>1518</v>
       </c>
       <c r="C5" t="n">
-        <v>2735</v>
+        <v>1582</v>
       </c>
       <c r="D5" t="n">
-        <v>2.271237241433695</v>
+        <v>2.563271627807824</v>
       </c>
       <c r="E5" t="n">
-        <v>1.654452988504148</v>
+        <v>1.892368742498229</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6167842529295471</v>
+        <v>-0.6709028853095946</v>
       </c>
       <c r="G5" t="n">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="H5" t="n">
-        <v>78.52678325704983</v>
+        <v>53.98490006948327</v>
       </c>
       <c r="I5" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="n">
-        <v>145.8813931230636</v>
+        <v>184.0071008274525</v>
       </c>
       <c r="L5" t="n">
-        <v>7.554147805420329</v>
+        <v>9.799572638479585</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.7669657304652449</v>
+        <v>0.7160822178527025</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7384615384615385</v>
+        <v>0.390625</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3700535501220933</v>
+        <v>0.04727475807565384</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9649370291286696</v>
+        <v>0.8995079667254304</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n1</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>899</v>
+        <v>1858</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>811</v>
+        <v>1304</v>
       </c>
       <c r="B6" t="n">
-        <v>849</v>
+        <v>1332</v>
       </c>
       <c r="C6" t="n">
-        <v>992</v>
+        <v>1425</v>
       </c>
       <c r="D6" t="n">
-        <v>3.087287325134123</v>
+        <v>2.006134220333851</v>
       </c>
       <c r="E6" t="n">
-        <v>2.397995816616008</v>
+        <v>1.376195416797706</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6892915085181145</v>
+        <v>-0.6299388035361453</v>
       </c>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
-        <v>130.1221992777862</v>
+        <v>34.83913995096623</v>
       </c>
       <c r="I6" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="K6" t="n">
-        <v>298.7625634763653</v>
+        <v>144.569650665693</v>
       </c>
       <c r="L6" t="n">
-        <v>11.75415945026566</v>
+        <v>6.63774851910572</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.9036171298454465</v>
+        <v>0.930157608320772</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2657342657342657</v>
+        <v>0.3010752688172043</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3409290513890895</v>
+        <v>0.3724778521363143</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8657630277745051</v>
+        <v>0.9440937289713032</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>900</v>
+        <v>1859</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1203</v>
+        <v>2629</v>
       </c>
       <c r="B7" t="n">
-        <v>1250</v>
+        <v>2664</v>
       </c>
       <c r="C7" t="n">
-        <v>1364</v>
+        <v>2740</v>
       </c>
       <c r="D7" t="n">
-        <v>2.691597236910206</v>
+        <v>2.376201981254816</v>
       </c>
       <c r="E7" t="n">
-        <v>2.002305728392092</v>
+        <v>1.746263177718671</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.6892915085181145</v>
+        <v>-0.6299388035361453</v>
       </c>
       <c r="G7" t="n">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="H7" t="n">
-        <v>103.042080225649</v>
+        <v>80.41513108149547</v>
       </c>
       <c r="I7" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J7" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="K7" t="n">
-        <v>294.6661702803995</v>
+        <v>150.2343599549186</v>
       </c>
       <c r="L7" t="n">
-        <v>10.24765749561797</v>
+        <v>7.86220135337975</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8042881765873956</v>
+        <v>0.8409975416236127</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.412280701754386</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2003773738323452</v>
+        <v>0.3259783372809248</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7265086453568143</v>
+        <v>0.9327553115052571</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>901</v>
+        <v>1860</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2370</v>
+        <v>814</v>
       </c>
       <c r="B8" t="n">
-        <v>2521</v>
+        <v>845</v>
       </c>
       <c r="C8" t="n">
-        <v>2952</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="n">
-        <v>3.475338972456217</v>
+        <v>3.34231214606069</v>
       </c>
       <c r="E8" t="n">
-        <v>2.825527278204115</v>
+        <v>2.644305976728683</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6498116942521026</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G8" t="n">
-        <v>582</v>
+        <v>186</v>
       </c>
       <c r="H8" t="n">
-        <v>254.1343379460536</v>
+        <v>76.38173054386573</v>
       </c>
       <c r="I8" t="n">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="J8" t="n">
-        <v>431</v>
+        <v>155</v>
       </c>
       <c r="K8" t="n">
-        <v>981.2746796960751</v>
+        <v>302.2830382479516</v>
       </c>
       <c r="L8" t="n">
-        <v>7.948456731363181</v>
+        <v>12.69245225356175</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.7029980284594214</v>
+        <v>0.9197433316817976</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3503480278422274</v>
+        <v>0.2</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3538484223621765</v>
+        <v>0.3261880600398891</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6745728851496526</v>
+        <v>0.8701334847140814</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>902</v>
+        <v>1861</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>205</v>
+        <v>1122</v>
       </c>
       <c r="B9" t="n">
-        <v>241</v>
+        <v>1151</v>
       </c>
       <c r="C9" t="n">
-        <v>304</v>
+        <v>1190</v>
       </c>
       <c r="D9" t="n">
-        <v>2.793466248240332</v>
+        <v>2.702240100355452</v>
       </c>
       <c r="E9" t="n">
-        <v>2.270165748723311</v>
+        <v>2.004233931023445</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5233004995170207</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G9" t="n">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H9" t="n">
-        <v>49.43149932504375</v>
+        <v>28.62083161865235</v>
       </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J9" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="K9" t="n">
-        <v>181.8563330792938</v>
+        <v>112.0264498291456</v>
       </c>
       <c r="L9" t="n">
-        <v>6.179021963099414</v>
+        <v>10.26177447006133</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.8347289085020981</v>
+        <v>0.8150615904871412</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2864786832035076</v>
+        <v>0.2498611663698307</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9634760255906768</v>
+        <v>0.9911593087351999</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>903</v>
+        <v>1862</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,40 +1245,40 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3587</v>
+        <v>1273</v>
       </c>
       <c r="B10" t="n">
-        <v>3634</v>
+        <v>1298</v>
       </c>
       <c r="C10" t="n">
-        <v>3725</v>
+        <v>1370</v>
       </c>
       <c r="D10" t="n">
-        <v>3.331238843567571</v>
+        <v>2.78821781392488</v>
       </c>
       <c r="E10" t="n">
-        <v>2.916238293254559</v>
+        <v>2.090211644592873</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4150005503130127</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G10" t="n">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
-        <v>49.82671596067348</v>
+        <v>99.9703177194815</v>
       </c>
       <c r="I10" t="n">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="J10" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="K10" t="n">
-        <v>257.2123253870679</v>
+        <v>161.4866266285656</v>
       </c>
       <c r="L10" t="n">
-        <v>16.25063101164656</v>
+        <v>10.58827540015446</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,24 +1294,24 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8818538253123858</v>
+        <v>0.8853197105279591</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5164835164835165</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2758201935969112</v>
+        <v>0.4034584674029378</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9906412987283109</v>
+        <v>0.9681450302977481</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>904</v>
+        <v>1863</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1370</v>
       </c>
       <c r="B11" t="n">
-        <v>53</v>
+        <v>1404</v>
       </c>
       <c r="C11" t="n">
-        <v>348</v>
+        <v>1465</v>
       </c>
       <c r="D11" t="n">
-        <v>2.90187303850828</v>
+        <v>2.831300639434069</v>
       </c>
       <c r="E11" t="n">
-        <v>2.250728226818636</v>
+        <v>2.133294470102062</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6511448116896437</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G11" t="n">
-        <v>348</v>
+        <v>95</v>
       </c>
       <c r="H11" t="n">
-        <v>32.98031411285156</v>
+        <v>136.6150516837529</v>
       </c>
       <c r="I11" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J11" t="n">
-        <v>295</v>
+        <v>61</v>
       </c>
       <c r="K11" t="n">
-        <v>406.8575334496356</v>
+        <v>176.667688209928</v>
       </c>
       <c r="L11" t="n">
-        <v>14.25954582830193</v>
+        <v>10.75188271204734</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,24 +1380,24 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.5984896020370185</v>
+        <v>0.79914319407745</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1796610169491525</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6329061436886242</v>
+        <v>0.3536791082671106</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7589144704806472</v>
+        <v>0.9918317556076507</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>905</v>
+        <v>1864</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1417,40 +1417,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>348</v>
+        <v>3092</v>
       </c>
       <c r="B12" t="n">
-        <v>399</v>
+        <v>3151</v>
       </c>
       <c r="C12" t="n">
-        <v>483</v>
+        <v>3290</v>
       </c>
       <c r="D12" t="n">
-        <v>2.73498363781785</v>
+        <v>3.537455862629126</v>
       </c>
       <c r="E12" t="n">
-        <v>2.083838826128206</v>
+        <v>2.839449693297119</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6511448116896437</v>
+        <v>-0.6980061693320068</v>
       </c>
       <c r="G12" t="n">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="H12" t="n">
-        <v>53.72480849347056</v>
+        <v>117.4406800697702</v>
       </c>
       <c r="I12" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="K12" t="n">
-        <v>209.8416615183157</v>
+        <v>395.9586008079182</v>
       </c>
       <c r="L12" t="n">
-        <v>13.43946616739906</v>
+        <v>13.43351179464822</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,24 +1466,24 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.8574113169467884</v>
+        <v>0.8454748706069788</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6071428571428571</v>
+        <v>0.4244604316546763</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2794990201261767</v>
+        <v>0.3001720125707086</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9882249044572406</v>
+        <v>0.9909065005349952</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>906</v>
+        <v>1865</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,40 +1503,40 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1058</v>
+        <v>1823</v>
       </c>
       <c r="B13" t="n">
-        <v>1093</v>
+        <v>1857</v>
       </c>
       <c r="C13" t="n">
-        <v>1171</v>
+        <v>1966</v>
       </c>
       <c r="D13" t="n">
-        <v>2.140226099143506</v>
+        <v>3.485350292026437</v>
       </c>
       <c r="E13" t="n">
-        <v>1.489081287453863</v>
+        <v>2.837890224507726</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6511448116896437</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G13" t="n">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="H13" t="n">
-        <v>60.53929771674689</v>
+        <v>131.182639371078</v>
       </c>
       <c r="I13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="K13" t="n">
-        <v>158.0502919458719</v>
+        <v>316.5162047627442</v>
       </c>
       <c r="L13" t="n">
-        <v>10.51688055910018</v>
+        <v>7.877969326608347</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1552,24 +1552,24 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8263298111360995</v>
+        <v>0.8281519655505138</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4487179487179487</v>
+        <v>0.3119266055045872</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1731843242913915</v>
+        <v>0.1385507937615871</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9499629649183416</v>
+        <v>0.9473309960049131</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>907</v>
+        <v>1866</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1589,40 +1589,40 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3750</v>
+        <v>2375</v>
       </c>
       <c r="B14" t="n">
-        <v>3850</v>
+        <v>2515</v>
       </c>
       <c r="C14" t="n">
-        <v>4117</v>
+        <v>2809</v>
       </c>
       <c r="D14" t="n">
-        <v>3.250575904812733</v>
+        <v>3.397912339261478</v>
       </c>
       <c r="E14" t="n">
-        <v>2.599431093123089</v>
+        <v>2.750452271742767</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6511448116896437</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G14" t="n">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="H14" t="n">
-        <v>145.2931938247129</v>
+        <v>206.8379358992142</v>
       </c>
       <c r="I14" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="J14" t="n">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="K14" t="n">
-        <v>597.1069993218305</v>
+        <v>790.8497896552606</v>
       </c>
       <c r="L14" t="n">
-        <v>15.97304067681696</v>
+        <v>7.680332517636907</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,24 +1638,24 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.817135988137296</v>
+        <v>0.6718747216202424</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3745318352059925</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6925496506914179</v>
+        <v>0.5154079150181587</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9349872673460009</v>
+        <v>0.8254250748723398</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>908</v>
+        <v>1867</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1887</v>
+        <v>2809</v>
       </c>
       <c r="B15" t="n">
-        <v>1930</v>
+        <v>2845</v>
       </c>
       <c r="C15" t="n">
-        <v>2077</v>
+        <v>2962</v>
       </c>
       <c r="D15" t="n">
-        <v>3.430613128280461</v>
+        <v>1.969647272423642</v>
       </c>
       <c r="E15" t="n">
-        <v>2.749327183916434</v>
+        <v>1.322187204904931</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6812859443640279</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G15" t="n">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="H15" t="n">
-        <v>233.8563716304841</v>
+        <v>57.36078559871157</v>
       </c>
       <c r="I15" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K15" t="n">
-        <v>288.404134553969</v>
+        <v>195.7678662672834</v>
       </c>
       <c r="L15" t="n">
-        <v>11.70654034411706</v>
+        <v>4.452011848533458</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,24 +1724,24 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.8876034274857777</v>
+        <v>0.9732212423418252</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2925170068027211</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5487964582682123</v>
+        <v>0.2249546084147926</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8697338935891041</v>
+        <v>0.9664125254138409</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>909</v>
+        <v>1868</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2351</v>
+        <v>207</v>
       </c>
       <c r="B16" t="n">
-        <v>2422</v>
+        <v>245</v>
       </c>
       <c r="C16" t="n">
-        <v>2802</v>
+        <v>309</v>
       </c>
       <c r="D16" t="n">
-        <v>2.91078300980468</v>
+        <v>2.855192098606209</v>
       </c>
       <c r="E16" t="n">
-        <v>2.229497065440652</v>
+        <v>2.320689540944143</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6812859443640279</v>
+        <v>-0.5345025576620659</v>
       </c>
       <c r="G16" t="n">
-        <v>451</v>
+        <v>102</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9805573193466</v>
+        <v>54.1091248158954</v>
       </c>
       <c r="I16" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="J16" t="n">
-        <v>380</v>
+        <v>64</v>
       </c>
       <c r="K16" t="n">
-        <v>551.7023179763979</v>
+        <v>190.1357789825377</v>
       </c>
       <c r="L16" t="n">
-        <v>9.932684760152076</v>
+        <v>6.270541710760106</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8955971295060259</v>
+        <v>0.8234729434991166</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1868421052631579</v>
+        <v>0.59375</v>
       </c>
       <c r="R16" t="n">
-        <v>0.39215639862205</v>
+        <v>0.2285797301954873</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8554489943523919</v>
+        <v>0.9683881590462594</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>910</v>
+        <v>1869</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>885</v>
+        <v>4201</v>
       </c>
       <c r="B17" t="n">
-        <v>919</v>
+        <v>4226</v>
       </c>
       <c r="C17" t="n">
-        <v>1088</v>
+        <v>4265</v>
       </c>
       <c r="D17" t="n">
-        <v>3.207565453035764</v>
+        <v>1.914483091437321</v>
       </c>
       <c r="E17" t="n">
-        <v>2.607237525027037</v>
+        <v>1.379980533775255</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6003279280087268</v>
+        <v>-0.5345025576620659</v>
       </c>
       <c r="G17" t="n">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>106.8603133939276</v>
+        <v>26.56281001588377</v>
       </c>
       <c r="I17" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J17" t="n">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="K17" t="n">
-        <v>281.9652913454418</v>
+        <v>65.8838233814275</v>
       </c>
       <c r="L17" t="n">
-        <v>7.368808268777129</v>
+        <v>4.204566860934843</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,24 +1896,24 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8579552050513081</v>
+        <v>0.8435226562355043</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.2011834319526627</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3184766593045046</v>
+        <v>0.2249150003459838</v>
       </c>
       <c r="S17" t="n">
-        <v>0.7145223505082756</v>
+        <v>0.9969511535050379</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>911</v>
+        <v>1870</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1476</v>
+        <v>2827</v>
       </c>
       <c r="B18" t="n">
-        <v>1540</v>
+        <v>2857</v>
       </c>
       <c r="C18" t="n">
-        <v>1629</v>
+        <v>2948</v>
       </c>
       <c r="D18" t="n">
-        <v>2.547037912375895</v>
+        <v>1.653871852924667</v>
       </c>
       <c r="E18" t="n">
-        <v>1.936439404071765</v>
+        <v>1.233987250300814</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6105985083041308</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G18" t="n">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="H18" t="n">
-        <v>41.18580137655613</v>
+        <v>38.06622382743535</v>
       </c>
       <c r="I18" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K18" t="n">
-        <v>171.053598515955</v>
+        <v>99.12771889904268</v>
       </c>
       <c r="L18" t="n">
-        <v>7.110792513069365</v>
+        <v>8.043020114515505</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.6809171091620305</v>
+        <v>0.9344924585487928</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7191011235955056</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5048888190083597</v>
+        <v>0.2687983920787421</v>
       </c>
       <c r="S18" t="n">
-        <v>0.932368710352747</v>
+        <v>0.9710543329264765</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>912</v>
+        <v>1871</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1921</v>
+        <v>3591</v>
       </c>
       <c r="B19" t="n">
-        <v>1969</v>
+        <v>3636</v>
       </c>
       <c r="C19" t="n">
-        <v>2202</v>
+        <v>3732</v>
       </c>
       <c r="D19" t="n">
-        <v>2.495862070211562</v>
+        <v>3.436392848222602</v>
       </c>
       <c r="E19" t="n">
-        <v>1.885263561907431</v>
+        <v>3.016508245598748</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6105985083041308</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G19" t="n">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="H19" t="n">
-        <v>39.87933365234358</v>
+        <v>47.599336958599</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19" t="n">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="K19" t="n">
-        <v>226.7928104636392</v>
+        <v>265.5596260910467</v>
       </c>
       <c r="L19" t="n">
-        <v>6.967920358106931</v>
+        <v>16.71167977782287</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.7780457727447402</v>
+        <v>0.8858991859512183</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2060085836909871</v>
+        <v>0.46875</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6044250818260107</v>
+        <v>0.2899388436151185</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6931173983970498</v>
+        <v>0.9794288973694287</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>913</v>
+        <v>1872</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2655</v>
+        <v>3837</v>
       </c>
       <c r="B20" t="n">
-        <v>2726</v>
+        <v>3853</v>
       </c>
       <c r="C20" t="n">
-        <v>2858</v>
+        <v>3875</v>
       </c>
       <c r="D20" t="n">
-        <v>2.720368898737159</v>
+        <v>4.234038873433523</v>
       </c>
       <c r="E20" t="n">
-        <v>2.109770390433029</v>
+        <v>3.814154270809669</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6105985083041308</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G20" t="n">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>83.15018349290995</v>
+        <v>15.71966024206313</v>
       </c>
       <c r="I20" t="n">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="K20" t="n">
-        <v>298.9690949326044</v>
+        <v>148.5552451315251</v>
       </c>
       <c r="L20" t="n">
-        <v>7.594696060053046</v>
+        <v>20.59074877200752</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,24 +2154,24 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.8262025559177821</v>
+        <v>0.6686393630932941</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3549553389595948</v>
+        <v>0.0579542097219189</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9855877894939507</v>
+        <v>0.9674433673910215</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>914</v>
+        <v>1873</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2858</v>
+        <v>3875</v>
       </c>
       <c r="B21" t="n">
-        <v>2901</v>
+        <v>3899</v>
       </c>
       <c r="C21" t="n">
-        <v>2970</v>
+        <v>3951</v>
       </c>
       <c r="D21" t="n">
-        <v>2.393235884276945</v>
+        <v>3.736906186461573</v>
       </c>
       <c r="E21" t="n">
-        <v>1.782637375972814</v>
+        <v>3.31702158383772</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6105985083041308</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G21" t="n">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="H21" t="n">
-        <v>51.81616243200733</v>
+        <v>14.48007318055215</v>
       </c>
       <c r="I21" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="K21" t="n">
-        <v>145.5910005308637</v>
+        <v>222.8966011777755</v>
       </c>
       <c r="L21" t="n">
-        <v>6.681409697608746</v>
+        <v>18.17311998545566</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,24 +2240,24 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.7744608671585588</v>
+        <v>0.8112550500888229</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6231884057971014</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1567914670041446</v>
+        <v>0.2404449626507985</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9843955613078474</v>
+        <v>0.9633050678773035</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>915</v>
+        <v>1874</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2970</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>3008</v>
+        <v>50</v>
       </c>
       <c r="C22" t="n">
-        <v>3086</v>
+        <v>233</v>
       </c>
       <c r="D22" t="n">
-        <v>2.273710940373077</v>
+        <v>2.929030223626767</v>
       </c>
       <c r="E22" t="n">
-        <v>1.663112432068946</v>
+        <v>2.277665046871752</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6105985083041308</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G22" t="n">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="H22" t="n">
-        <v>34.91980273142235</v>
+        <v>35.41547515035041</v>
       </c>
       <c r="I22" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="J22" t="n">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="K22" t="n">
-        <v>166.2317127159359</v>
+        <v>374.3964566891433</v>
       </c>
       <c r="L22" t="n">
-        <v>6.347721269923014</v>
+        <v>14.39781147214422</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.7562539526154561</v>
+        <v>0.6778654863467876</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.273224043715847</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3516670764363749</v>
+        <v>0.465516375606318</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5028554221219828</v>
+        <v>0.8357069642218313</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>916</v>
+        <v>1875</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1319</v>
+        <v>1060</v>
       </c>
       <c r="B23" t="n">
-        <v>1355</v>
+        <v>1085</v>
       </c>
       <c r="C23" t="n">
-        <v>1711</v>
+        <v>1177</v>
       </c>
       <c r="D23" t="n">
-        <v>3.60352175927859</v>
+        <v>2.212450318224122</v>
       </c>
       <c r="E23" t="n">
-        <v>3.090564677528731</v>
+        <v>1.561085141469107</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.5129570817498585</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G23" t="n">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="H23" t="n">
-        <v>61.51142222413409</v>
+        <v>58.94517099921359</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="K23" t="n">
-        <v>489.7695010089958</v>
+        <v>164.2819887902358</v>
       </c>
       <c r="L23" t="n">
-        <v>10.65583022744623</v>
+        <v>10.87542296980254</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,24 +2412,24 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.7623418700379553</v>
+        <v>0.9446348860032632</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.101123595505618</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4124538190589103</v>
+        <v>0.2537180689326123</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8038311588897973</v>
+        <v>0.925641783329273</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>917</v>
+        <v>1876</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2714</v>
+        <v>2624</v>
       </c>
       <c r="B24" t="n">
-        <v>2876</v>
+        <v>2655</v>
       </c>
       <c r="C24" t="n">
-        <v>3096</v>
+        <v>2710</v>
       </c>
       <c r="D24" t="n">
-        <v>4.829838950857035</v>
+        <v>1.273191784446011</v>
       </c>
       <c r="E24" t="n">
-        <v>4.316881869107176</v>
+        <v>0.6218266076909955</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.5129570817498585</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G24" t="n">
-        <v>382</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>115.0604539673436</v>
+        <v>45.9619486542656</v>
       </c>
       <c r="I24" t="n">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="K24" t="n">
-        <v>578.3273549510337</v>
+        <v>73.2817755355522</v>
       </c>
       <c r="L24" t="n">
-        <v>14.28212380117356</v>
+        <v>6.258445246645023</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,24 +2498,24 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.6175835487587396</v>
+        <v>0.8112305556928354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7363636363636363</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="R24" t="n">
-        <v>1.009241703221432</v>
+        <v>0.3765230695978019</v>
       </c>
       <c r="S24" t="n">
-        <v>0.9749342194501952</v>
+        <v>0.8734326683120808</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>918</v>
+        <v>1877</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3636</v>
+        <v>2767</v>
       </c>
       <c r="B25" t="n">
-        <v>3662</v>
+        <v>2798</v>
       </c>
       <c r="C25" t="n">
-        <v>3742</v>
+        <v>2903</v>
       </c>
       <c r="D25" t="n">
-        <v>3.639271558295889</v>
+        <v>2.213660955428561</v>
       </c>
       <c r="E25" t="n">
-        <v>3.159162632640674</v>
+        <v>1.562295778673546</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4801089256552151</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G25" t="n">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="H25" t="n">
-        <v>27.223825749757</v>
+        <v>60.96906348464472</v>
       </c>
       <c r="I25" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J25" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="K25" t="n">
-        <v>295.8007947463134</v>
+        <v>126.8322634665886</v>
       </c>
       <c r="L25" t="n">
-        <v>11.64481709713635</v>
+        <v>10.88137392452129</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,24 +2584,24 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.8846705478679259</v>
+        <v>0.9532348625254318</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.325</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2063625856872588</v>
+        <v>0.4788393392548395</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9231165278761974</v>
+        <v>0.9252789402521049</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>919</v>
+        <v>1878</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1030</v>
+        <v>3806</v>
       </c>
       <c r="B26" t="n">
-        <v>1131</v>
+        <v>3860</v>
       </c>
       <c r="C26" t="n">
-        <v>1262</v>
+        <v>4123</v>
       </c>
       <c r="D26" t="n">
-        <v>2.954144321157483</v>
+        <v>3.135726014017069</v>
       </c>
       <c r="E26" t="n">
-        <v>2.391282830186948</v>
+        <v>2.484360837262054</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5628614909705356</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G26" t="n">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.25386358839</v>
+        <v>148.2239002129859</v>
       </c>
       <c r="I26" t="n">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="J26" t="n">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="K26" t="n">
-        <v>368.9841792118079</v>
+        <v>572.6107205368482</v>
       </c>
       <c r="L26" t="n">
-        <v>10.90572315003924</v>
+        <v>15.41383616117612</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,24 +2670,24 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.65583212042533</v>
+        <v>0.8442620040078527</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7709923664122137</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2888577565249728</v>
+        <v>0.2244683961945164</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9064987087567686</v>
+        <v>0.9338340597807403</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>920</v>
+        <v>1879</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>484</v>
+        <v>1327</v>
       </c>
       <c r="B27" t="n">
-        <v>602</v>
+        <v>1374</v>
       </c>
       <c r="C27" t="n">
-        <v>824</v>
+        <v>1484</v>
       </c>
       <c r="D27" t="n">
-        <v>3.332878431056781</v>
+        <v>1.640784882745218</v>
       </c>
       <c r="E27" t="n">
-        <v>2.772646630778874</v>
+        <v>0.9541159401996443</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.560231800277907</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G27" t="n">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="H27" t="n">
-        <v>87.2012794199602</v>
+        <v>36.21591191871562</v>
       </c>
       <c r="I27" t="n">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="J27" t="n">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="K27" t="n">
-        <v>478.6551794588073</v>
+        <v>142.1882384276111</v>
       </c>
       <c r="L27" t="n">
-        <v>14.33008119711906</v>
+        <v>5.522802063351975</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7194124067868218</v>
+        <v>0.7171158090184391</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.5315315315315315</v>
+        <v>0.4272727272727272</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4418781624354017</v>
+        <v>0.192631649501089</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8767370751015585</v>
+        <v>0.8235269509903833</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>921</v>
+        <v>1880</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23</v>
+        <v>1892</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>1922</v>
       </c>
       <c r="C28" t="n">
-        <v>181</v>
+        <v>2069</v>
       </c>
       <c r="D28" t="n">
-        <v>2.298918318460503</v>
+        <v>3.33260764882986</v>
       </c>
       <c r="E28" t="n">
-        <v>1.735689906803457</v>
+        <v>2.645938706284286</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5632284116570462</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G28" t="n">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="H28" t="n">
-        <v>64.41013654387453</v>
+        <v>235.1240990399499</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="K28" t="n">
-        <v>163.7197063780399</v>
+        <v>278.0548840052347</v>
       </c>
       <c r="L28" t="n">
-        <v>6.688072171757995</v>
+        <v>11.21739515816719</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,24 +2842,24 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.9575905531115431</v>
+        <v>0.8473492501581112</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3057851239669421</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="R28" t="n">
-        <v>0.285403012592898</v>
+        <v>0.470888729526529</v>
       </c>
       <c r="S28" t="n">
-        <v>0.9130668145009</v>
+        <v>0.8416914211002641</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>922</v>
+        <v>1881</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3975</v>
+        <v>2482</v>
       </c>
       <c r="B29" t="n">
-        <v>4102</v>
+        <v>2504</v>
       </c>
       <c r="C29" t="n">
-        <v>4265</v>
+        <v>2538</v>
       </c>
       <c r="D29" t="n">
-        <v>4.384938832163955</v>
+        <v>2.382435817291397</v>
       </c>
       <c r="E29" t="n">
-        <v>3.849344475542797</v>
+        <v>1.695766874745823</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.535594356621158</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G29" t="n">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c r="H29" t="n">
-        <v>128.4400863331107</v>
+        <v>22.94235345436164</v>
       </c>
       <c r="I29" t="n">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="J29" t="n">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="K29" t="n">
-        <v>646.2519841500197</v>
+        <v>103.2162125967706</v>
       </c>
       <c r="L29" t="n">
-        <v>18.78537619130995</v>
+        <v>8.019163015157858</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,24 +2928,24 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.6925199715227183</v>
+        <v>0.7664995074128758</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7791411042944786</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R29" t="n">
-        <v>0.245709586191943</v>
+        <v>0.1380384038942778</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8640561111026441</v>
+        <v>0.9844129011643161</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>923</v>
+        <v>1882</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2827</v>
+        <v>2538</v>
       </c>
       <c r="B30" t="n">
-        <v>2906</v>
+        <v>2565</v>
       </c>
       <c r="C30" t="n">
-        <v>3032</v>
+        <v>2806</v>
       </c>
       <c r="D30" t="n">
-        <v>1.706960252409396</v>
+        <v>1.813834327526828</v>
       </c>
       <c r="E30" t="n">
-        <v>1.167371695513066</v>
+        <v>1.127165384981254</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5395885568963301</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G30" t="n">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="H30" t="n">
-        <v>37.49810803741184</v>
+        <v>29.98062440566491</v>
       </c>
       <c r="I30" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="J30" t="n">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="K30" t="n">
-        <v>159.362915640456</v>
+        <v>181.3096934866236</v>
       </c>
       <c r="L30" t="n">
-        <v>8.921377945596939</v>
+        <v>6.105278072701088</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.5397137061074023</v>
+        <v>0.7045525364995542</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.626984126984127</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4965547615946219</v>
+        <v>0.5948170727382506</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7673920592507064</v>
+        <v>0.586281249612448</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>924</v>
+        <v>1883</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2597</v>
+        <v>2258</v>
       </c>
       <c r="B31" t="n">
-        <v>2659</v>
+        <v>2464</v>
       </c>
       <c r="C31" t="n">
-        <v>2807</v>
+        <v>2838</v>
       </c>
       <c r="D31" t="n">
-        <v>2.89931538573148</v>
+        <v>2.553811244129513</v>
       </c>
       <c r="E31" t="n">
-        <v>2.281822921869728</v>
+        <v>1.953722452501884</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6174924638617518</v>
+        <v>-0.6000887916276285</v>
       </c>
       <c r="G31" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="H31" t="n">
-        <v>119.8570292233494</v>
+        <v>190.3620442161296</v>
       </c>
       <c r="I31" t="n">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="J31" t="n">
-        <v>148</v>
+        <v>374</v>
       </c>
       <c r="K31" t="n">
-        <v>320.1652794392596</v>
+        <v>456.2308452743262</v>
       </c>
       <c r="L31" t="n">
-        <v>8.329750538920765</v>
+        <v>5.894374872936158</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.8401186147336787</v>
+        <v>0.6579422974007391</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4189189189189189</v>
+        <v>0.5508021390374331</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1795973503137718</v>
+        <v>0.4601351220762094</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9531453285197999</v>
+        <v>0.8684652636492953</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>925</v>
+        <v>1884</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,85 +3137,4815 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1798</v>
+        <v>3042</v>
       </c>
       <c r="B32" t="n">
-        <v>1822</v>
+        <v>3066</v>
       </c>
       <c r="C32" t="n">
-        <v>1897</v>
+        <v>3149</v>
       </c>
       <c r="D32" t="n">
-        <v>1.856428666291726</v>
+        <v>2.151826119318632</v>
       </c>
       <c r="E32" t="n">
-        <v>1.318092738828888</v>
+        <v>1.551737327691004</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5383359274628383</v>
+        <v>-0.6000887916276285</v>
       </c>
       <c r="G32" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H32" t="n">
-        <v>23.39557461604227</v>
+        <v>44.5686518176035</v>
       </c>
       <c r="I32" t="n">
         <v>24</v>
       </c>
       <c r="J32" t="n">
+        <v>83</v>
+      </c>
+      <c r="K32" t="n">
+        <v>170.8859447125481</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.966565104525883</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0.9067016200108465</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.2891566265060241</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.1515208356994659</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.9380048980894267</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>n9</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1885</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1629</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.782574429026877</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.158500526244191</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G33" t="n">
+        <v>165</v>
+      </c>
+      <c r="H33" t="n">
+        <v>36.84136792103368</v>
+      </c>
+      <c r="I33" t="n">
+        <v>72</v>
+      </c>
+      <c r="J33" t="n">
+        <v>93</v>
+      </c>
+      <c r="K33" t="n">
+        <v>173.3982746027479</v>
+      </c>
+      <c r="L33" t="n">
+        <v>7.765298699337493</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0.5922631599113733</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7572416409418302</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.9066378987861115</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1886</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1817</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.089324140138562</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.465250237355876</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G34" t="n">
+        <v>188</v>
+      </c>
+      <c r="H34" t="n">
+        <v>38.98389715157168</v>
+      </c>
+      <c r="I34" t="n">
+        <v>76</v>
+      </c>
+      <c r="J34" t="n">
+        <v>112</v>
+      </c>
+      <c r="K34" t="n">
+        <v>247.062488954117</v>
+      </c>
+      <c r="L34" t="n">
+        <v>5.830653030756968</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0.5002047224533065</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1482062953490157</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.6085409142838114</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1887</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1851</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1915</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.039574126408104</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.415500223625418</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G35" t="n">
+        <v>98</v>
+      </c>
+      <c r="H35" t="n">
+        <v>63.32720376699831</v>
+      </c>
+      <c r="I35" t="n">
+        <v>34</v>
+      </c>
+      <c r="J35" t="n">
+        <v>64</v>
+      </c>
+      <c r="K35" t="n">
+        <v>190.4916408641635</v>
+      </c>
+      <c r="L35" t="n">
+        <v>8.482504821476157</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>0.6977400053657976</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.07576890660650276</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.9665809512110447</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1888</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2722</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2866</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.861110623411211</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.237036720628526</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G36" t="n">
+        <v>211</v>
+      </c>
+      <c r="H36" t="n">
+        <v>81.81211591669444</v>
+      </c>
+      <c r="I36" t="n">
+        <v>67</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="n">
+        <v>305.8003321528383</v>
+      </c>
+      <c r="L36" t="n">
+        <v>7.984468760609446</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8160457356896406</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.3661608482222031</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.9792887774471831</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1889</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2866</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2896</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2967</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.398528427186394</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.774454524403708</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G37" t="n">
+        <v>101</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50.49848150571825</v>
+      </c>
+      <c r="I37" t="n">
+        <v>30</v>
+      </c>
+      <c r="J37" t="n">
+        <v>71</v>
+      </c>
+      <c r="K37" t="n">
+        <v>141.2875997829169</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.693545905425485</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8227846179690725</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.4225352112676056</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1459025127071613</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.9694888277177974</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1890</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3057</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3088</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.961914845788242</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.337840943005557</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G38" t="n">
+        <v>54</v>
+      </c>
+      <c r="H38" t="n">
+        <v>22.72753732202136</v>
+      </c>
+      <c r="I38" t="n">
+        <v>23</v>
+      </c>
+      <c r="J38" t="n">
+        <v>31</v>
+      </c>
+      <c r="K38" t="n">
+        <v>73.78753438184252</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.475093367237728</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0.7566815019392503</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.159699317673204</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.9732815219529557</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1891</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3088</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3118</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.013719881437244</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.389645978654558</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.6240739027826856</v>
+      </c>
+      <c r="G39" t="n">
+        <v>86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>25.21512358023756</v>
+      </c>
+      <c r="I39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J39" t="n">
+        <v>56</v>
+      </c>
+      <c r="K39" t="n">
+        <v>104.380834621178</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.619665088931084</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0.7771259991324522</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1730692208123748</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.8873312042089258</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>n10</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1892</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>885</v>
+      </c>
+      <c r="B40" t="n">
+        <v>940</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1037</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.563056017345469</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.113520461922289</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.4495355554231797</v>
+      </c>
+      <c r="G40" t="n">
+        <v>152</v>
+      </c>
+      <c r="H40" t="n">
+        <v>120.9316724293542</v>
+      </c>
+      <c r="I40" t="n">
+        <v>55</v>
+      </c>
+      <c r="J40" t="n">
+        <v>97</v>
+      </c>
+      <c r="K40" t="n">
+        <v>238.0100253420943</v>
+      </c>
+      <c r="L40" t="n">
+        <v>13.15752811532576</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7828647036943692</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.2295258104156357</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8578800045641329</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1893</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1851</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.759210570439731</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.309675015016552</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.4495355554231797</v>
+      </c>
+      <c r="G41" t="n">
+        <v>688</v>
+      </c>
+      <c r="H41" t="n">
+        <v>165.8802091460104</v>
+      </c>
+      <c r="I41" t="n">
+        <v>179</v>
+      </c>
+      <c r="J41" t="n">
+        <v>509</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1177.043065133522</v>
+      </c>
+      <c r="L41" t="n">
+        <v>29.56508733707799</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0.6863165313348795</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3516699410609037</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2076347535464224</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.8862942434837835</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>n11</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1894</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1351</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1704</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.5857181966514</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.071118839080923</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5145993575704764</v>
+      </c>
+      <c r="G42" t="n">
+        <v>380</v>
+      </c>
+      <c r="H42" t="n">
+        <v>102.701863310617</v>
+      </c>
+      <c r="I42" t="n">
+        <v>27</v>
+      </c>
+      <c r="J42" t="n">
+        <v>353</v>
+      </c>
+      <c r="K42" t="n">
+        <v>489.2321009134472</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10.58311316963289</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0.7994998021573388</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0764872521246459</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.4284999122479004</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.7641901792332435</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>n12</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1895</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2829</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3095</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.021764638719839</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.507165281149362</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.5145993575704764</v>
+      </c>
+      <c r="G43" t="n">
+        <v>266</v>
+      </c>
+      <c r="H43" t="n">
+        <v>107.7622604293074</v>
+      </c>
+      <c r="I43" t="n">
+        <v>46</v>
+      </c>
+      <c r="J43" t="n">
+        <v>220</v>
+      </c>
+      <c r="K43" t="n">
+        <v>541.8481054152514</v>
+      </c>
+      <c r="L43" t="n">
+        <v>14.82155054250057</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>0.9424765920456744</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.2090909090909091</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.2870044219846181</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9444423526554003</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>n12</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1896</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1138</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1207</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.929654155594559</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.381261528834427</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5483926267601319</v>
+      </c>
+      <c r="G44" t="n">
+        <v>115</v>
+      </c>
+      <c r="H44" t="n">
+        <v>66.23321404075523</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46</v>
+      </c>
+      <c r="J44" t="n">
+        <v>69</v>
+      </c>
+      <c r="K44" t="n">
+        <v>228.6158826396061</v>
+      </c>
+      <c r="L44" t="n">
+        <v>8.276505828995392</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7752919166417984</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.2844635089702506</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.8712284953370787</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>n13</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1897</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3401</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3443</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3523</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.892019709223682</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.412818737474295</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.4792009717493871</v>
+      </c>
+      <c r="G45" t="n">
+        <v>122</v>
+      </c>
+      <c r="H45" t="n">
+        <v>36.08137327407076</v>
+      </c>
+      <c r="I45" t="n">
+        <v>42</v>
+      </c>
+      <c r="J45" t="n">
+        <v>80</v>
+      </c>
+      <c r="K45" t="n">
+        <v>225.535556232504</v>
+      </c>
+      <c r="L45" t="n">
+        <v>8.941825373344404</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0.7772532991403055</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.1753402523931788</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8561595661056001</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1898</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3627</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3658</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3733</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.707053370135631</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.227852398386243</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.4792009717493871</v>
+      </c>
+      <c r="G46" t="n">
+        <v>106</v>
+      </c>
+      <c r="H46" t="n">
+        <v>48.74859237825467</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
         <v>75</v>
       </c>
-      <c r="K32" t="n">
-        <v>105.4988566669516</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7.649301270261853</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>0.8758493979650175</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.4262582872080356</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.8630856713083783</v>
-      </c>
-      <c r="T32" t="inlineStr">
+      <c r="K46" t="n">
+        <v>306.2951959414244</v>
+      </c>
+      <c r="L46" t="n">
+        <v>11.46182502826673</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>0.6388800973647523</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.4133333333333333</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.1211180097457997</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.7765605864132431</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1899</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3795</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3822</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3862</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.235846732402567</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2.75664576065318</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.4792009717493871</v>
+      </c>
+      <c r="G47" t="n">
+        <v>67</v>
+      </c>
+      <c r="H47" t="n">
+        <v>36.63339588549115</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
+      <c r="J47" t="n">
+        <v>40</v>
+      </c>
+      <c r="K47" t="n">
+        <v>165.0667227580128</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10.00490291396314</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>0.6316511349033229</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.02974072776204865</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.9960281658634297</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>n14</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1900</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>630</v>
+      </c>
+      <c r="B48" t="n">
+        <v>661</v>
+      </c>
+      <c r="C48" t="n">
+        <v>702</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.307005214511472</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.743545888887316</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.5634593256241556</v>
+      </c>
+      <c r="G48" t="n">
+        <v>72</v>
+      </c>
+      <c r="H48" t="n">
+        <v>42.32224224063987</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>41</v>
+      </c>
+      <c r="K48" t="n">
+        <v>144.084781746457</v>
+      </c>
+      <c r="L48" t="n">
+        <v>12.07686108933492</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0.7708380591690273</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.7560975609756098</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.2305359783679984</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9538419690608312</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1901</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.274980424502266</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2.711521098878111</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.5634593256241556</v>
+      </c>
+      <c r="G49" t="n">
+        <v>179</v>
+      </c>
+      <c r="H49" t="n">
+        <v>85.91352925302158</v>
+      </c>
+      <c r="I49" t="n">
+        <v>36</v>
+      </c>
+      <c r="J49" t="n">
+        <v>143</v>
+      </c>
+      <c r="K49" t="n">
+        <v>310.1366455537755</v>
+      </c>
+      <c r="L49" t="n">
+        <v>11.95990967400024</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9152130631950034</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.2517482517482518</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.2006513284269273</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.898969500284984</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1902</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1437</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1514</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.845268602922638</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.281809277298483</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.5634593256241556</v>
+      </c>
+      <c r="G50" t="n">
+        <v>108</v>
+      </c>
+      <c r="H50" t="n">
+        <v>207.4604588187265</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>77</v>
+      </c>
+      <c r="K50" t="n">
+        <v>302.6700587413318</v>
+      </c>
+      <c r="L50" t="n">
+        <v>14.04254658108782</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>0.8428294915135168</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.4025974025974026</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.2385904760841639</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.9443293083376867</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>n15</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1903</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2797</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2889</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.990618886772342</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.436199342841188</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.5544195439311541</v>
+      </c>
+      <c r="G51" t="n">
+        <v>92</v>
+      </c>
+      <c r="H51" t="n">
+        <v>61.0692134052706</v>
+      </c>
+      <c r="I51" t="n">
+        <v>28</v>
+      </c>
+      <c r="J51" t="n">
+        <v>64</v>
+      </c>
+      <c r="K51" t="n">
+        <v>161.3044672249868</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.93604799897132</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0.7649089503728969</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.1196690403571011</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.938776682200635</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1904</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3347</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3381</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3470</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.482598264140055</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2.928178720208901</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5544195439311541</v>
+      </c>
+      <c r="G52" t="n">
+        <v>123</v>
+      </c>
+      <c r="H52" t="n">
+        <v>311.0811062498879</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34</v>
+      </c>
+      <c r="J52" t="n">
+        <v>89</v>
+      </c>
+      <c r="K52" t="n">
+        <v>349.6784372386472</v>
+      </c>
+      <c r="L52" t="n">
+        <v>10.40609533603162</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>0.6947970279148104</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.3820224719101123</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.07616877510266976</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.8366352723545265</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>n17</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1905</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>482</v>
+      </c>
+      <c r="B53" t="n">
+        <v>594</v>
+      </c>
+      <c r="C53" t="n">
+        <v>814</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.663131694671537</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.089910921933768</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-0.5732207727377685</v>
+      </c>
+      <c r="G53" t="n">
+        <v>332</v>
+      </c>
+      <c r="H53" t="n">
+        <v>80.76306479083894</v>
+      </c>
+      <c r="I53" t="n">
+        <v>112</v>
+      </c>
+      <c r="J53" t="n">
+        <v>220</v>
+      </c>
+      <c r="K53" t="n">
+        <v>480.4336113214201</v>
+      </c>
+      <c r="L53" t="n">
+        <v>15.35647863655962</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>0.6279448577173989</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.509090909090909</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.7678990217296586</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.862665975313627</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1906</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1076</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.462576289545679</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8893555168079109</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.5732207727377685</v>
+      </c>
+      <c r="G54" t="n">
+        <v>56</v>
+      </c>
+      <c r="H54" t="n">
+        <v>17.19753061874781</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>36</v>
+      </c>
+      <c r="K54" t="n">
+        <v>50.37237421353678</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.131371574059881</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8412488236250982</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.3796637826782537</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.9829466259496069</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1907</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1978</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2095</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.907034251937933</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.333813479200165</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.5732207727377685</v>
+      </c>
+      <c r="G55" t="n">
+        <v>117</v>
+      </c>
+      <c r="H55" t="n">
+        <v>62.5435258121322</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>92</v>
+      </c>
+      <c r="K55" t="n">
+        <v>110.4539411915862</v>
+      </c>
+      <c r="L55" t="n">
+        <v>7.99461586152399</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0.9271059333169301</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.2717391304347826</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.2660494463517709</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.8700771984844757</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1908</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3957</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3983</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4089</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.407160839680726</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.833940066942957</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.5732207727377685</v>
+      </c>
+      <c r="G56" t="n">
+        <v>132</v>
+      </c>
+      <c r="H56" t="n">
+        <v>90.23087677322019</v>
+      </c>
+      <c r="I56" t="n">
+        <v>26</v>
+      </c>
+      <c r="J56" t="n">
+        <v>106</v>
+      </c>
+      <c r="K56" t="n">
+        <v>175.7591079739329</v>
+      </c>
+      <c r="L56" t="n">
+        <v>10.09123260927002</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8758000683104943</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.2452830188679245</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.3383222308943946</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.777074932969375</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>n18</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1899</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1974</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.6054252130344</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.15682192226342</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.4486032907709799</v>
+      </c>
+      <c r="G57" t="n">
+        <v>110</v>
+      </c>
+      <c r="H57" t="n">
+        <v>31.3465920213182</v>
+      </c>
+      <c r="I57" t="n">
+        <v>35</v>
+      </c>
+      <c r="J57" t="n">
+        <v>75</v>
+      </c>
+      <c r="K57" t="n">
+        <v>86.67080274746607</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3.898704906586978</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(1944), 'value': np.float64(0.7171058195529143), 'amplitude': np.float64(1.1657091103238941), 'start_idx': np.int64(1924), 'end_idx': np.int64(1973), 'duration': np.float64(49.0), 'fwhm': np.float64(17.285389353037544), 'rise_time': np.float64(20.0), 'decay_time': np.float64(29.0), 'auc': np.float64(34.29056334004443)}]</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>0.7454880339070732</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.5361976944752546</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.4555130781804013</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>n19</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1910</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1634</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.171533183192236</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1.698618484426971</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-0.4729146987652649</v>
+      </c>
+      <c r="G58" t="n">
+        <v>154</v>
+      </c>
+      <c r="H58" t="n">
+        <v>32.00235995110461</v>
+      </c>
+      <c r="I58" t="n">
+        <v>56</v>
+      </c>
+      <c r="J58" t="n">
+        <v>98</v>
+      </c>
+      <c r="K58" t="n">
+        <v>152.081458878399</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.524344726333492</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>0.6347640312889002</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.3789545945746217</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.6837659550055115</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>n20</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1911</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3937</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3960</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4028</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.66366793570193</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.223339569899459</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-0.4403283658024706</v>
+      </c>
+      <c r="G59" t="n">
+        <v>91</v>
+      </c>
+      <c r="H59" t="n">
+        <v>36.91037947643963</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>68</v>
+      </c>
+      <c r="K59" t="n">
+        <v>131.656634889648</v>
+      </c>
+      <c r="L59" t="n">
+        <v>10.07000674313942</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>0.926352495500721</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.3382352941176471</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.4700353670824109</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.8436178883862564</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>n21</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1912</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>267</v>
+      </c>
+      <c r="B60" t="n">
+        <v>284</v>
+      </c>
+      <c r="C60" t="n">
+        <v>398</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.425596820846783</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.865749431273089</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.5598473895736945</v>
+      </c>
+      <c r="G60" t="n">
+        <v>131</v>
+      </c>
+      <c r="H60" t="n">
+        <v>73.72704055671952</v>
+      </c>
+      <c r="I60" t="n">
+        <v>17</v>
+      </c>
+      <c r="J60" t="n">
+        <v>114</v>
+      </c>
+      <c r="K60" t="n">
+        <v>145.8746311373012</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.964667896717491</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0.7594548536535013</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1491228070175439</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.5254614330752116</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.3990963087919036</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1913</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3469</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3496</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3532</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.951782530832038</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.391935141258343</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.5598473895736945</v>
+      </c>
+      <c r="G61" t="n">
+        <v>63</v>
+      </c>
+      <c r="H61" t="n">
+        <v>31.15227011514708</v>
+      </c>
+      <c r="I61" t="n">
+        <v>27</v>
+      </c>
+      <c r="J61" t="n">
+        <v>36</v>
+      </c>
+      <c r="K61" t="n">
+        <v>153.6930516497002</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.475516150866524</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>0.6604195217008153</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.07398556727516206</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.9836215146890589</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>1914</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3532</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3559</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3613</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.748124291722244</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.188276902148549</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-0.5598473895736945</v>
+      </c>
+      <c r="G62" t="n">
+        <v>81</v>
+      </c>
+      <c r="H62" t="n">
+        <v>24.86240457581926</v>
+      </c>
+      <c r="I62" t="n">
+        <v>27</v>
+      </c>
+      <c r="J62" t="n">
+        <v>54</v>
+      </c>
+      <c r="K62" t="n">
+        <v>180.8077273771454</v>
+      </c>
+      <c r="L62" t="n">
+        <v>7.890747904289243</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>0.6994913097629782</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.09464644886300275</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.7707366746318614</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>1915</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3613</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3665</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3784</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3.479624920608923</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.919777531035228</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.5598473895736945</v>
+      </c>
+      <c r="G63" t="n">
+        <v>171</v>
+      </c>
+      <c r="H63" t="n">
+        <v>502.1879105263279</v>
+      </c>
+      <c r="I63" t="n">
+        <v>52</v>
+      </c>
+      <c r="J63" t="n">
+        <v>119</v>
+      </c>
+      <c r="K63" t="n">
+        <v>447.291816316889</v>
+      </c>
+      <c r="L63" t="n">
+        <v>9.99112126504305</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>0.6613677719552149</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.4369747899159664</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.1291789155612994</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.7572840410096874</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>1916</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3784</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3806</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3837</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.710254232711498</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.150406843137804</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.5598473895736945</v>
+      </c>
+      <c r="G64" t="n">
+        <v>53</v>
+      </c>
+      <c r="H64" t="n">
+        <v>23.92504908087813</v>
+      </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>31</v>
+      </c>
+      <c r="K64" t="n">
+        <v>119.042332422843</v>
+      </c>
+      <c r="L64" t="n">
+        <v>7.782010795973418</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0.7146347746633286</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.1199006220230571</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.9537391547929475</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>1917</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3911</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3975</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3.002439741318787</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.472757562018033</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-0.5296821793007541</v>
+      </c>
+      <c r="G65" t="n">
+        <v>85</v>
+      </c>
+      <c r="H65" t="n">
+        <v>24.0474788694919</v>
+      </c>
+      <c r="I65" t="n">
+        <v>21</v>
+      </c>
+      <c r="J65" t="n">
+        <v>64</v>
+      </c>
+      <c r="K65" t="n">
+        <v>186.6509375790123</v>
+      </c>
+      <c r="L65" t="n">
+        <v>12.4435552540785</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0.9222052961193788</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.2764960095194737</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.9837818464783906</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>1918</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3975</v>
+      </c>
+      <c r="B66" t="n">
+        <v>4093</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4265</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.380312595926809</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.850630416626055</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-0.5296821793007541</v>
+      </c>
+      <c r="G66" t="n">
+        <v>290</v>
+      </c>
+      <c r="H66" t="n">
+        <v>130.5070759976034</v>
+      </c>
+      <c r="I66" t="n">
+        <v>118</v>
+      </c>
+      <c r="J66" t="n">
+        <v>172</v>
+      </c>
+      <c r="K66" t="n">
+        <v>644.029362743521</v>
+      </c>
+      <c r="L66" t="n">
+        <v>18.15412348412689</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>0.6611646497221946</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.686046511627907</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.3329174688990834</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.8455762140800567</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>n23</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>1919</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>738</v>
+      </c>
+      <c r="B67" t="n">
+        <v>765</v>
+      </c>
+      <c r="C67" t="n">
+        <v>831</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.038872568600067</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.534715593689455</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.504156974910613</v>
+      </c>
+      <c r="G67" t="n">
+        <v>93</v>
+      </c>
+      <c r="H67" t="n">
+        <v>30.76790860640506</v>
+      </c>
+      <c r="I67" t="n">
+        <v>27</v>
+      </c>
+      <c r="J67" t="n">
+        <v>66</v>
+      </c>
+      <c r="K67" t="n">
+        <v>91.68325044306204</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6.952469307952474</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>0.8797533935191291</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.3170808488156384</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.855584442112364</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>1920</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>979</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1053</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1154</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.934394014724441</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.430237039813828</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.504156974910613</v>
+      </c>
+      <c r="G68" t="n">
+        <v>175</v>
+      </c>
+      <c r="H68" t="n">
+        <v>129.382791620004</v>
+      </c>
+      <c r="I68" t="n">
+        <v>74</v>
+      </c>
+      <c r="J68" t="n">
+        <v>101</v>
+      </c>
+      <c r="K68" t="n">
+        <v>493.108794275866</v>
+      </c>
+      <c r="L68" t="n">
+        <v>16.82607509123115</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0.7603029334229832</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.7326732673267327</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.3550128314073789</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.942712725317055</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>1921</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.917145493759709</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1.412988518849096</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-0.504156974910613</v>
+      </c>
+      <c r="G69" t="n">
+        <v>138</v>
+      </c>
+      <c r="H69" t="n">
+        <v>36.75755422019097</v>
+      </c>
+      <c r="I69" t="n">
+        <v>41</v>
+      </c>
+      <c r="J69" t="n">
+        <v>97</v>
+      </c>
+      <c r="K69" t="n">
+        <v>159.4392680301755</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.537385126229673</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0.7582389109247372</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.422680412371134</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.3810257608731239</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.6269463401052204</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>n25</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>1922</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2303</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2323</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2411</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2.647541609727864</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2.115487264848623</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5320543448792412</v>
+      </c>
+      <c r="G70" t="n">
+        <v>108</v>
+      </c>
+      <c r="H70" t="n">
+        <v>90.90986322559775</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20</v>
+      </c>
+      <c r="J70" t="n">
+        <v>88</v>
+      </c>
+      <c r="K70" t="n">
+        <v>133.2654102721265</v>
+      </c>
+      <c r="L70" t="n">
+        <v>12.33671983757879</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0.8754097810732642</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.2272727272727273</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.5464201310842089</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.8602903938232874</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>1923</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2716</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2741</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.169503970945061</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2.63744962606582</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-0.5320543448792412</v>
+      </c>
+      <c r="G71" t="n">
+        <v>121</v>
+      </c>
+      <c r="H71" t="n">
+        <v>104.069950679233</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+      <c r="J71" t="n">
+        <v>96</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.1656634429418</v>
+      </c>
+      <c r="L71" t="n">
+        <v>14.76890197682742</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0.912570620980275</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.2604166666666667</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.412132897326587</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.9543757878371016</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>1924</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3368</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3402</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3532</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3.433953126432323</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2.901898781553082</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.5320543448792412</v>
+      </c>
+      <c r="G72" t="n">
+        <v>164</v>
+      </c>
+      <c r="H72" t="n">
+        <v>34.45726655415501</v>
+      </c>
+      <c r="I72" t="n">
+        <v>34</v>
+      </c>
+      <c r="J72" t="n">
+        <v>130</v>
+      </c>
+      <c r="K72" t="n">
+        <v>318.0113062297413</v>
+      </c>
+      <c r="L72" t="n">
+        <v>16.0011527299576</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0.7913505958528545</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.2615384615384616</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.4187481513944262</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.8515567021527248</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>n26</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>1925</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>174</v>
+      </c>
+      <c r="B73" t="n">
+        <v>187</v>
+      </c>
+      <c r="C73" t="n">
+        <v>227</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.389811106115522</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.771608393598818</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-0.6182027125167038</v>
+      </c>
+      <c r="G73" t="n">
+        <v>53</v>
+      </c>
+      <c r="H73" t="n">
+        <v>13.743977780439</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>40</v>
+      </c>
+      <c r="K73" t="n">
+        <v>93.09541930180856</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.726531916986356</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0.9122584419534375</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.2309398446657342</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.9863195185337706</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U73" t="n">
+        <v>1926</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3.146448458469015</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.528245745952312</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.6182027125167038</v>
+      </c>
+      <c r="G74" t="n">
+        <v>101</v>
+      </c>
+      <c r="H74" t="n">
+        <v>119.8108511369535</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>74</v>
+      </c>
+      <c r="K74" t="n">
+        <v>194.6102230363302</v>
+      </c>
+      <c r="L74" t="n">
+        <v>8.856217098867756</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0.8291333624685248</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.3648648648648649</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.2659569996473807</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.7674580081784831</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U74" t="n">
+        <v>1927</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2596</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2666</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2808</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.044733727210692</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.426531014693989</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-0.6182027125167038</v>
+      </c>
+      <c r="G75" t="n">
+        <v>212</v>
+      </c>
+      <c r="H75" t="n">
+        <v>113.4287801240062</v>
+      </c>
+      <c r="I75" t="n">
+        <v>70</v>
+      </c>
+      <c r="J75" t="n">
+        <v>142</v>
+      </c>
+      <c r="K75" t="n">
+        <v>321.4370715004898</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.56992359873046</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0.760751599961321</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.4929577464788732</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.2774298983051109</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0.8880761907572521</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>n27</t>
+        </is>
+      </c>
+      <c r="U75" t="n">
+        <v>1928</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1545</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1656</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.014738203108458</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.473704670106472</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.5410335330019856</v>
+      </c>
+      <c r="G76" t="n">
+        <v>314</v>
+      </c>
+      <c r="H76" t="n">
+        <v>110.5788433865598</v>
+      </c>
+      <c r="I76" t="n">
+        <v>111</v>
+      </c>
+      <c r="J76" t="n">
+        <v>203</v>
+      </c>
+      <c r="K76" t="n">
+        <v>344.5733749329729</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.517270415475363</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0.6060353758607383</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.5467980295566502</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.2637413440265632</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.5749774102153438</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U76" t="n">
+        <v>1929</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2190</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.989713505267927</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.448679972265941</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.5410335330019856</v>
+      </c>
+      <c r="G77" t="n">
+        <v>197</v>
+      </c>
+      <c r="H77" t="n">
+        <v>130.9030300543577</v>
+      </c>
+      <c r="I77" t="n">
+        <v>63</v>
+      </c>
+      <c r="J77" t="n">
+        <v>134</v>
+      </c>
+      <c r="K77" t="n">
+        <v>419.7780260120373</v>
+      </c>
+      <c r="L77" t="n">
+        <v>10.92565190597732</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>0.6736161170968081</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.4701492537313433</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.5075914516919384</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.8550662141639386</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U77" t="n">
+        <v>1930</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>3971</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3998</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4042</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.063048861817423</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.522015328815437</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-0.5410335330019856</v>
+      </c>
+      <c r="G78" t="n">
+        <v>71</v>
+      </c>
+      <c r="H78" t="n">
+        <v>40.01034229562265</v>
+      </c>
+      <c r="I78" t="n">
+        <v>27</v>
+      </c>
+      <c r="J78" t="n">
+        <v>44</v>
+      </c>
+      <c r="K78" t="n">
+        <v>169.1365993504526</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.388022245464418</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0.72829723370132</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.6136363636363636</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.8242316225082683</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.5844916560198409</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U78" t="n">
+        <v>1931</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1804</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.758709769626467</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1.210314782179211</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-0.5483949874472562</v>
+      </c>
+      <c r="G79" t="n">
+        <v>67</v>
+      </c>
+      <c r="H79" t="n">
+        <v>25.18141859411276</v>
+      </c>
+      <c r="I79" t="n">
+        <v>18</v>
+      </c>
+      <c r="J79" t="n">
+        <v>49</v>
+      </c>
+      <c r="K79" t="n">
+        <v>101.1603688167873</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.981140521185309</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0.7598202494337302</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.3673469387755102</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.03074174573805637</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.9119954717825465</v>
+      </c>
+      <c r="T79" t="inlineStr">
         <is>
           <t>n31</t>
         </is>
       </c>
-      <c r="U32" t="n">
-        <v>926</v>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
+      <c r="U79" t="n">
+        <v>1932</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1804</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1904</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.090751839560343</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.542356852113087</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.5483949874472562</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100</v>
+      </c>
+      <c r="H80" t="n">
+        <v>18.70486765582996</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
+      <c r="J80" t="n">
+        <v>76</v>
+      </c>
+      <c r="K80" t="n">
+        <v>100.1982653549961</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.299170584579999</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>0.824603463056837</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.5204929125385224</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0.7318793563594232</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U80" t="n">
+        <v>1933</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2049</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2281</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.273323133537645</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.724928146090389</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.5483949874472562</v>
+      </c>
+      <c r="G81" t="n">
+        <v>264</v>
+      </c>
+      <c r="H81" t="n">
+        <v>34.52165265097642</v>
+      </c>
+      <c r="I81" t="n">
+        <v>32</v>
+      </c>
+      <c r="J81" t="n">
+        <v>232</v>
+      </c>
+      <c r="K81" t="n">
+        <v>450.2564271534433</v>
+      </c>
+      <c r="L81" t="n">
+        <v>12.99334839728921</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0.7929957890965119</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.4160881316624515</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.9174042991929006</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>n31</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>1934</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1706</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1728</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.990455382843879</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.488716745557987</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.5017386372858914</v>
+      </c>
+      <c r="G82" t="n">
+        <v>75</v>
+      </c>
+      <c r="H82" t="n">
+        <v>52.86309935932695</v>
+      </c>
+      <c r="I82" t="n">
+        <v>22</v>
+      </c>
+      <c r="J82" t="n">
+        <v>53</v>
+      </c>
+      <c r="K82" t="n">
+        <v>125.2620067562341</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4.351742031109057</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0.6963533320268334</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.4150943396226415</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.15409084776685</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.4570316498345474</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U82" t="n">
+        <v>1935</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1839</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1867</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.140133871171197</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.638395233885306</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.5017386372858914</v>
+      </c>
+      <c r="G83" t="n">
+        <v>44</v>
+      </c>
+      <c r="H83" t="n">
+        <v>20.97633055640449</v>
+      </c>
+      <c r="I83" t="n">
+        <v>16</v>
+      </c>
+      <c r="J83" t="n">
+        <v>28</v>
+      </c>
+      <c r="K83" t="n">
+        <v>95.68309720936249</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.865289555478928</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0.8086362629204052</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.1918626052149408</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.9398574981441284</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U83" t="n">
+        <v>1936</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>232</v>
+      </c>
+      <c r="B84" t="n">
+        <v>263</v>
+      </c>
+      <c r="C84" t="n">
+        <v>317</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.912205616635196</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.390638631243405</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G84" t="n">
+        <v>85</v>
+      </c>
+      <c r="H84" t="n">
+        <v>66.69809980812821</v>
+      </c>
+      <c r="I84" t="n">
+        <v>31</v>
+      </c>
+      <c r="J84" t="n">
+        <v>54</v>
+      </c>
+      <c r="K84" t="n">
+        <v>225.5098498682394</v>
+      </c>
+      <c r="L84" t="n">
+        <v>12.01550787522257</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0.7896225570328879</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.2517637692395758</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.8960020392438806</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U84" t="n">
+        <v>1937</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>317</v>
+      </c>
+      <c r="B85" t="n">
+        <v>340</v>
+      </c>
+      <c r="C85" t="n">
+        <v>401</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.119567502882067</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.598000517490276</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G85" t="n">
+        <v>84</v>
+      </c>
+      <c r="H85" t="n">
+        <v>24.45844022784155</v>
+      </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>61</v>
+      </c>
+      <c r="K85" t="n">
+        <v>176.6524130360785</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9.58108841181164</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0.8884554176462371</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.232441208979669</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0.9190826517938014</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U85" t="n">
+        <v>1938</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2123</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3.724174981055706</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.202607995663916</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G86" t="n">
+        <v>96</v>
+      </c>
+      <c r="H86" t="n">
+        <v>26.62394168290371</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20</v>
+      </c>
+      <c r="J86" t="n">
+        <v>76</v>
+      </c>
+      <c r="K86" t="n">
+        <v>247.0518307691733</v>
+      </c>
+      <c r="L86" t="n">
+        <v>11.43801175053482</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0.9250875075841074</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.2513844432961022</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.9351838795387892</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U86" t="n">
+        <v>1939</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2194</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2308</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.319284693545597</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.797717708153806</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G87" t="n">
+        <v>133</v>
+      </c>
+      <c r="H87" t="n">
+        <v>38.66495792080786</v>
+      </c>
+      <c r="I87" t="n">
+        <v>19</v>
+      </c>
+      <c r="J87" t="n">
+        <v>114</v>
+      </c>
+      <c r="K87" t="n">
+        <v>201.3753262609864</v>
+      </c>
+      <c r="L87" t="n">
+        <v>7.123189891064168</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.8668831776897161</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.296259086768938</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.8556665690130475</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>1940</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagecellvedio22024-12-07104733trace/processed_No.297920240925homecagecellvedio22024-12-07104733trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_No.297920240925homecagecellvedio22024-12-07104733trace/processed_No.297920240925homecagecellvedio22024-12-07104733trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X87"/>
+  <dimension ref="A1:X90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1855</v>
+        <v>1936</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1856</v>
+        <v>1937</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1857</v>
+        <v>1938</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1858</v>
+        <v>1939</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1859</v>
+        <v>1940</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1860</v>
+        <v>1941</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>1861</v>
+        <v>1942</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>1862</v>
+        <v>1943</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>1863</v>
+        <v>1944</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>1864</v>
+        <v>1945</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>1865</v>
+        <v>1946</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>1866</v>
+        <v>1947</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>2515</v>
       </c>
       <c r="C14" t="n">
-        <v>2809</v>
+        <v>2734</v>
       </c>
       <c r="D14" t="n">
         <v>3.397912339261478</v>
@@ -1607,7 +1607,7 @@
         <v>-0.6474600675187113</v>
       </c>
       <c r="G14" t="n">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="H14" t="n">
         <v>206.8379358992142</v>
@@ -1616,10 +1616,10 @@
         <v>140</v>
       </c>
       <c r="J14" t="n">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="K14" t="n">
-        <v>790.8497896552606</v>
+        <v>686.7029275519096</v>
       </c>
       <c r="L14" t="n">
         <v>7.680332517636907</v>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.6718747216202424</v>
+        <v>0.6126775365069486</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.639269406392694</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5154079150181587</v>
+        <v>0.6699239570507707</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8254250748723398</v>
+        <v>0.8718400371309423</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>1867</v>
+        <v>1948</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
+        <v>2734</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2762</v>
+      </c>
+      <c r="C15" t="n">
         <v>2809</v>
       </c>
-      <c r="B15" t="n">
-        <v>2845</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2962</v>
-      </c>
       <c r="D15" t="n">
-        <v>1.969647272423642</v>
+        <v>1.770006733137725</v>
       </c>
       <c r="E15" t="n">
-        <v>1.322187204904931</v>
+        <v>1.122546665619014</v>
       </c>
       <c r="F15" t="n">
         <v>-0.6474600675187113</v>
       </c>
       <c r="G15" t="n">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="H15" t="n">
-        <v>57.36078559871157</v>
+        <v>26.50361328340023</v>
       </c>
       <c r="I15" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="K15" t="n">
-        <v>195.7678662672834</v>
+        <v>104.146862103351</v>
       </c>
       <c r="L15" t="n">
-        <v>4.452011848533458</v>
+        <v>4.000762501103426</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.9732212423418252</v>
+        <v>0.7360303056184931</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2249546084147926</v>
+        <v>0.09560185807607564</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9664125254138409</v>
+        <v>0.9742124330779506</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>1868</v>
+        <v>1949</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>207</v>
+        <v>2809</v>
       </c>
       <c r="B16" t="n">
-        <v>245</v>
+        <v>2845</v>
       </c>
       <c r="C16" t="n">
-        <v>309</v>
+        <v>2962</v>
       </c>
       <c r="D16" t="n">
-        <v>2.855192098606209</v>
+        <v>1.969647272423642</v>
       </c>
       <c r="E16" t="n">
-        <v>2.320689540944143</v>
+        <v>1.322187204904931</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5345025576620659</v>
+        <v>-0.6474600675187113</v>
       </c>
       <c r="G16" t="n">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="H16" t="n">
-        <v>54.1091248158954</v>
+        <v>57.36078559871157</v>
       </c>
       <c r="I16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="K16" t="n">
-        <v>190.1357789825377</v>
+        <v>195.7678662672834</v>
       </c>
       <c r="L16" t="n">
-        <v>6.270541710760106</v>
+        <v>4.452011848533458</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.8234729434991166</v>
+        <v>0.9732212423418252</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.59375</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2285797301954873</v>
+        <v>0.2249546084147926</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9683881590462594</v>
+        <v>0.9664125254138409</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n5</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>1869</v>
+        <v>1950</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4201</v>
+        <v>207</v>
       </c>
       <c r="B17" t="n">
-        <v>4226</v>
+        <v>245</v>
       </c>
       <c r="C17" t="n">
-        <v>4265</v>
+        <v>309</v>
       </c>
       <c r="D17" t="n">
-        <v>1.914483091437321</v>
+        <v>2.855192098606209</v>
       </c>
       <c r="E17" t="n">
-        <v>1.379980533775255</v>
+        <v>2.320689540944143</v>
       </c>
       <c r="F17" t="n">
         <v>-0.5345025576620659</v>
       </c>
       <c r="G17" t="n">
+        <v>102</v>
+      </c>
+      <c r="H17" t="n">
+        <v>54.1091248158954</v>
+      </c>
+      <c r="I17" t="n">
+        <v>38</v>
+      </c>
+      <c r="J17" t="n">
         <v>64</v>
       </c>
-      <c r="H17" t="n">
-        <v>26.56281001588377</v>
-      </c>
-      <c r="I17" t="n">
-        <v>25</v>
-      </c>
-      <c r="J17" t="n">
-        <v>39</v>
-      </c>
       <c r="K17" t="n">
-        <v>65.8838233814275</v>
+        <v>190.1357789825377</v>
       </c>
       <c r="L17" t="n">
-        <v>4.204566860934843</v>
+        <v>6.270541710760106</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,16 +1896,16 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.8435226562355043</v>
+        <v>0.8234729434991166</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.59375</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2249150003459838</v>
+        <v>0.2285797301954873</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9969511535050379</v>
+        <v>0.9683881590462594</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>1870</v>
+        <v>1951</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2827</v>
+        <v>4201</v>
       </c>
       <c r="B18" t="n">
-        <v>2857</v>
+        <v>4226</v>
       </c>
       <c r="C18" t="n">
-        <v>2948</v>
+        <v>4265</v>
       </c>
       <c r="D18" t="n">
-        <v>1.653871852924667</v>
+        <v>1.914483091437321</v>
       </c>
       <c r="E18" t="n">
-        <v>1.233987250300814</v>
+        <v>1.379980533775255</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4198846026238535</v>
+        <v>-0.5345025576620659</v>
       </c>
       <c r="G18" t="n">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>38.06622382743535</v>
+        <v>26.56281001588377</v>
       </c>
       <c r="I18" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J18" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="K18" t="n">
-        <v>99.12771889904268</v>
+        <v>65.8838233814275</v>
       </c>
       <c r="L18" t="n">
-        <v>8.043020114515505</v>
+        <v>4.204566860934843</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.9344924585487928</v>
+        <v>0.8435226562355043</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2687983920787421</v>
+        <v>0.2249150003459838</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9710543329264765</v>
+        <v>0.9969511535050379</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n5</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>1871</v>
+        <v>1952</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3591</v>
+        <v>2827</v>
       </c>
       <c r="B19" t="n">
-        <v>3636</v>
+        <v>2857</v>
       </c>
       <c r="C19" t="n">
-        <v>3732</v>
+        <v>2948</v>
       </c>
       <c r="D19" t="n">
-        <v>3.436392848222602</v>
+        <v>1.653871852924667</v>
       </c>
       <c r="E19" t="n">
-        <v>3.016508245598748</v>
+        <v>1.233987250300814</v>
       </c>
       <c r="F19" t="n">
         <v>-0.4198846026238535</v>
       </c>
       <c r="G19" t="n">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H19" t="n">
-        <v>47.599336958599</v>
+        <v>38.06622382743535</v>
       </c>
       <c r="I19" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J19" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K19" t="n">
-        <v>265.5596260910467</v>
+        <v>99.12771889904268</v>
       </c>
       <c r="L19" t="n">
-        <v>16.71167977782287</v>
+        <v>8.043020114515505</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,16 +2068,16 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.8858991859512183</v>
+        <v>0.9344924585487928</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.46875</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2899388436151185</v>
+        <v>0.2687983920787421</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9794288973694287</v>
+        <v>0.9710543329264765</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="U19" t="n">
-        <v>1872</v>
+        <v>1953</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3837</v>
+        <v>3591</v>
       </c>
       <c r="B20" t="n">
-        <v>3853</v>
+        <v>3636</v>
       </c>
       <c r="C20" t="n">
-        <v>3875</v>
+        <v>3732</v>
       </c>
       <c r="D20" t="n">
-        <v>4.234038873433523</v>
+        <v>3.436392848222602</v>
       </c>
       <c r="E20" t="n">
-        <v>3.814154270809669</v>
+        <v>3.016508245598748</v>
       </c>
       <c r="F20" t="n">
         <v>-0.4198846026238535</v>
       </c>
       <c r="G20" t="n">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="H20" t="n">
-        <v>15.71966024206313</v>
+        <v>47.599336958599</v>
       </c>
       <c r="I20" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J20" t="n">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="K20" t="n">
-        <v>148.5552451315251</v>
+        <v>265.5596260910467</v>
       </c>
       <c r="L20" t="n">
-        <v>20.59074877200752</v>
+        <v>16.71167977782287</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -2154,16 +2154,16 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.6686393630932941</v>
+        <v>0.8858991859512183</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.46875</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0579542097219189</v>
+        <v>0.2899388436151185</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9674433673910215</v>
+        <v>0.9794288973694287</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="U20" t="n">
-        <v>1873</v>
+        <v>1954</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2191,40 +2191,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3837</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3853</v>
+      </c>
+      <c r="C21" t="n">
         <v>3875</v>
       </c>
-      <c r="B21" t="n">
-        <v>3899</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3951</v>
-      </c>
       <c r="D21" t="n">
-        <v>3.736906186461573</v>
+        <v>4.234038873433523</v>
       </c>
       <c r="E21" t="n">
-        <v>3.31702158383772</v>
+        <v>3.814154270809669</v>
       </c>
       <c r="F21" t="n">
         <v>-0.4198846026238535</v>
       </c>
       <c r="G21" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H21" t="n">
-        <v>14.48007318055215</v>
+        <v>15.71966024206313</v>
       </c>
       <c r="I21" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="K21" t="n">
-        <v>222.8966011777755</v>
+        <v>148.5552451315251</v>
       </c>
       <c r="L21" t="n">
-        <v>18.17311998545566</v>
+        <v>20.59074877200752</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -2240,16 +2240,16 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.8112550500888229</v>
+        <v>0.6686393630932941</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2404449626507985</v>
+        <v>0.0579542097219189</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9633050678773035</v>
+        <v>0.9674433673910215</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="U21" t="n">
-        <v>1874</v>
+        <v>1955</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2277,40 +2277,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>3875</v>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>3899</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>3951</v>
       </c>
       <c r="D22" t="n">
-        <v>2.929030223626767</v>
+        <v>3.736906186461573</v>
       </c>
       <c r="E22" t="n">
-        <v>2.277665046871752</v>
+        <v>3.31702158383772</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6513651767550153</v>
+        <v>-0.4198846026238535</v>
       </c>
       <c r="G22" t="n">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="H22" t="n">
-        <v>35.41547515035041</v>
+        <v>14.48007318055215</v>
       </c>
       <c r="I22" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
-        <v>183</v>
+        <v>52</v>
       </c>
       <c r="K22" t="n">
-        <v>374.3964566891433</v>
+        <v>222.8966011777755</v>
       </c>
       <c r="L22" t="n">
-        <v>14.39781147214422</v>
+        <v>18.17311998545566</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -2326,24 +2326,24 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.6778654863467876</v>
+        <v>0.8112550500888229</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.273224043715847</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="R22" t="n">
-        <v>0.465516375606318</v>
+        <v>0.2404449626507985</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8357069642218313</v>
+        <v>0.9633050678773035</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>n7</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>1875</v>
+        <v>1956</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2363,40 +2363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>1085</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>1177</v>
+        <v>233</v>
       </c>
       <c r="D23" t="n">
-        <v>2.212450318224122</v>
+        <v>2.929030223626767</v>
       </c>
       <c r="E23" t="n">
-        <v>1.561085141469107</v>
+        <v>2.277665046871752</v>
       </c>
       <c r="F23" t="n">
         <v>-0.6513651767550153</v>
       </c>
       <c r="G23" t="n">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="H23" t="n">
-        <v>58.94517099921359</v>
+        <v>35.41547515035041</v>
       </c>
       <c r="I23" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J23" t="n">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="K23" t="n">
-        <v>164.2819887902358</v>
+        <v>374.3964566891433</v>
       </c>
       <c r="L23" t="n">
-        <v>10.87542296980254</v>
+        <v>14.39781147214422</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.9446348860032632</v>
+        <v>0.6778654863467876</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.273224043715847</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2537180689326123</v>
+        <v>0.465516375606318</v>
       </c>
       <c r="S23" t="n">
-        <v>0.925641783329273</v>
+        <v>0.8357069642218313</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="U23" t="n">
-        <v>1876</v>
+        <v>1957</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2449,40 +2449,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2624</v>
+        <v>1060</v>
       </c>
       <c r="B24" t="n">
-        <v>2655</v>
+        <v>1085</v>
       </c>
       <c r="C24" t="n">
-        <v>2710</v>
+        <v>1177</v>
       </c>
       <c r="D24" t="n">
-        <v>1.273191784446011</v>
+        <v>2.212450318224122</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6218266076909955</v>
+        <v>1.561085141469107</v>
       </c>
       <c r="F24" t="n">
         <v>-0.6513651767550153</v>
       </c>
       <c r="G24" t="n">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H24" t="n">
-        <v>45.9619486542656</v>
+        <v>58.94517099921359</v>
       </c>
       <c r="I24" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J24" t="n">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="K24" t="n">
-        <v>73.2817755355522</v>
+        <v>164.2819887902358</v>
       </c>
       <c r="L24" t="n">
-        <v>6.258445246645023</v>
+        <v>10.87542296980254</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2498,16 +2498,16 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.8112305556928354</v>
+        <v>0.9446348860032632</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3765230695978019</v>
+        <v>0.2537180689326123</v>
       </c>
       <c r="S24" t="n">
-        <v>0.8734326683120808</v>
+        <v>0.925641783329273</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="U24" t="n">
-        <v>1877</v>
+        <v>1958</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2535,40 +2535,40 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2767</v>
+        <v>2624</v>
       </c>
       <c r="B25" t="n">
-        <v>2798</v>
+        <v>2655</v>
       </c>
       <c r="C25" t="n">
-        <v>2903</v>
+        <v>2710</v>
       </c>
       <c r="D25" t="n">
-        <v>2.213660955428561</v>
+        <v>1.273191784446011</v>
       </c>
       <c r="E25" t="n">
-        <v>1.562295778673546</v>
+        <v>0.6218266076909955</v>
       </c>
       <c r="F25" t="n">
         <v>-0.6513651767550153</v>
       </c>
       <c r="G25" t="n">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="H25" t="n">
-        <v>60.96906348464472</v>
+        <v>45.9619486542656</v>
       </c>
       <c r="I25" t="n">
         <v>31</v>
       </c>
       <c r="J25" t="n">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="K25" t="n">
-        <v>126.8322634665886</v>
+        <v>73.2817755355522</v>
       </c>
       <c r="L25" t="n">
-        <v>10.88137392452129</v>
+        <v>6.258445246645023</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.9532348625254318</v>
+        <v>0.8112305556928354</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2952380952380952</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4788393392548395</v>
+        <v>0.3765230695978019</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9252789402521049</v>
+        <v>0.8734326683120808</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="U25" t="n">
-        <v>1878</v>
+        <v>1959</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2621,40 +2621,40 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3806</v>
+        <v>2767</v>
       </c>
       <c r="B26" t="n">
-        <v>3860</v>
+        <v>2798</v>
       </c>
       <c r="C26" t="n">
-        <v>4123</v>
+        <v>2903</v>
       </c>
       <c r="D26" t="n">
-        <v>3.135726014017069</v>
+        <v>2.213660955428561</v>
       </c>
       <c r="E26" t="n">
-        <v>2.484360837262054</v>
+        <v>1.562295778673546</v>
       </c>
       <c r="F26" t="n">
         <v>-0.6513651767550153</v>
       </c>
       <c r="G26" t="n">
-        <v>317</v>
+        <v>136</v>
       </c>
       <c r="H26" t="n">
-        <v>148.2239002129859</v>
+        <v>60.96906348464472</v>
       </c>
       <c r="I26" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="J26" t="n">
-        <v>263</v>
+        <v>105</v>
       </c>
       <c r="K26" t="n">
-        <v>572.6107205368482</v>
+        <v>126.8322634665886</v>
       </c>
       <c r="L26" t="n">
-        <v>15.41383616117612</v>
+        <v>10.88137392452129</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2670,16 +2670,16 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.8442620040078527</v>
+        <v>0.9532348625254318</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.2053231939163498</v>
+        <v>0.2952380952380952</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2244683961945164</v>
+        <v>0.4788393392548395</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9338340597807403</v>
+        <v>0.9252789402521049</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="U26" t="n">
-        <v>1879</v>
+        <v>1960</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -2707,40 +2707,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1327</v>
+        <v>3806</v>
       </c>
       <c r="B27" t="n">
-        <v>1374</v>
+        <v>3860</v>
       </c>
       <c r="C27" t="n">
-        <v>1484</v>
+        <v>4123</v>
       </c>
       <c r="D27" t="n">
-        <v>1.640784882745218</v>
+        <v>3.135726014017069</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9541159401996443</v>
+        <v>2.484360837262054</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6866689425455741</v>
+        <v>-0.6513651767550153</v>
       </c>
       <c r="G27" t="n">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="H27" t="n">
-        <v>36.21591191871562</v>
+        <v>148.2239002129859</v>
       </c>
       <c r="I27" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J27" t="n">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="K27" t="n">
-        <v>142.1882384276111</v>
+        <v>572.6107205368482</v>
       </c>
       <c r="L27" t="n">
-        <v>5.522802063351975</v>
+        <v>15.41383616117612</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2756,24 +2756,24 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.7171158090184391</v>
+        <v>0.8442620040078527</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4272727272727272</v>
+        <v>0.2053231939163498</v>
       </c>
       <c r="R27" t="n">
-        <v>0.192631649501089</v>
+        <v>0.2244683961945164</v>
       </c>
       <c r="S27" t="n">
-        <v>0.8235269509903833</v>
+        <v>0.9338340597807403</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n7</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>1880</v>
+        <v>1961</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2793,40 +2793,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1892</v>
+        <v>1327</v>
       </c>
       <c r="B28" t="n">
-        <v>1922</v>
+        <v>1374</v>
       </c>
       <c r="C28" t="n">
-        <v>2069</v>
+        <v>1484</v>
       </c>
       <c r="D28" t="n">
-        <v>3.33260764882986</v>
+        <v>1.640784882745218</v>
       </c>
       <c r="E28" t="n">
-        <v>2.645938706284286</v>
+        <v>0.9541159401996443</v>
       </c>
       <c r="F28" t="n">
         <v>-0.6866689425455741</v>
       </c>
       <c r="G28" t="n">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="H28" t="n">
-        <v>235.1240990399499</v>
+        <v>36.21591191871562</v>
       </c>
       <c r="I28" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="J28" t="n">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n">
-        <v>278.0548840052347</v>
+        <v>142.1882384276111</v>
       </c>
       <c r="L28" t="n">
-        <v>11.21739515816719</v>
+        <v>5.522802063351975</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2842,16 +2842,16 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.8473492501581112</v>
+        <v>0.7171158090184391</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.4272727272727272</v>
       </c>
       <c r="R28" t="n">
-        <v>0.470888729526529</v>
+        <v>0.192631649501089</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8416914211002641</v>
+        <v>0.8235269509903833</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="U28" t="n">
-        <v>1881</v>
+        <v>1962</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2879,40 +2879,40 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2482</v>
+        <v>1892</v>
       </c>
       <c r="B29" t="n">
-        <v>2504</v>
+        <v>1922</v>
       </c>
       <c r="C29" t="n">
-        <v>2538</v>
+        <v>2069</v>
       </c>
       <c r="D29" t="n">
-        <v>2.382435817291397</v>
+        <v>3.33260764882986</v>
       </c>
       <c r="E29" t="n">
-        <v>1.695766874745823</v>
+        <v>2.645938706284286</v>
       </c>
       <c r="F29" t="n">
         <v>-0.6866689425455741</v>
       </c>
       <c r="G29" t="n">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="H29" t="n">
-        <v>22.94235345436164</v>
+        <v>235.1240990399499</v>
       </c>
       <c r="I29" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J29" t="n">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="K29" t="n">
-        <v>103.2162125967706</v>
+        <v>278.0548840052347</v>
       </c>
       <c r="L29" t="n">
-        <v>8.019163015157858</v>
+        <v>11.21739515816719</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.7664995074128758</v>
+        <v>0.8473492501581112</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1380384038942778</v>
+        <v>0.470888729526529</v>
       </c>
       <c r="S29" t="n">
-        <v>0.9844129011643161</v>
+        <v>0.8416914211002641</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         </is>
       </c>
       <c r="U29" t="n">
-        <v>1882</v>
+        <v>1963</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2965,40 +2965,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2504</v>
+      </c>
+      <c r="C30" t="n">
         <v>2538</v>
       </c>
-      <c r="B30" t="n">
-        <v>2565</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2806</v>
-      </c>
       <c r="D30" t="n">
-        <v>1.813834327526828</v>
+        <v>2.382435817291397</v>
       </c>
       <c r="E30" t="n">
-        <v>1.127165384981254</v>
+        <v>1.695766874745823</v>
       </c>
       <c r="F30" t="n">
         <v>-0.6866689425455741</v>
       </c>
       <c r="G30" t="n">
-        <v>268</v>
+        <v>56</v>
       </c>
       <c r="H30" t="n">
-        <v>29.98062440566491</v>
+        <v>22.94235345436164</v>
       </c>
       <c r="I30" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J30" t="n">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="K30" t="n">
-        <v>181.3096934866236</v>
+        <v>103.2162125967706</v>
       </c>
       <c r="L30" t="n">
-        <v>6.105278072701088</v>
+        <v>8.019163015157858</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3014,16 +3014,16 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.7045525364995542</v>
+        <v>0.7664995074128758</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.1120331950207469</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="R30" t="n">
-        <v>0.5948170727382506</v>
+        <v>0.1380384038942778</v>
       </c>
       <c r="S30" t="n">
-        <v>0.586281249612448</v>
+        <v>0.9844129011643161</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="U30" t="n">
-        <v>1883</v>
+        <v>1964</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -3051,40 +3051,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2258</v>
+        <v>2538</v>
       </c>
       <c r="B31" t="n">
-        <v>2464</v>
+        <v>2565</v>
       </c>
       <c r="C31" t="n">
-        <v>2838</v>
+        <v>2806</v>
       </c>
       <c r="D31" t="n">
-        <v>2.553811244129513</v>
+        <v>1.813834327526828</v>
       </c>
       <c r="E31" t="n">
-        <v>1.953722452501884</v>
+        <v>1.127165384981254</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6000887916276285</v>
+        <v>-0.6866689425455741</v>
       </c>
       <c r="G31" t="n">
-        <v>580</v>
+        <v>268</v>
       </c>
       <c r="H31" t="n">
-        <v>190.3620442161296</v>
+        <v>29.98062440566491</v>
       </c>
       <c r="I31" t="n">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="J31" t="n">
-        <v>374</v>
+        <v>241</v>
       </c>
       <c r="K31" t="n">
-        <v>456.2308452743262</v>
+        <v>181.3096934866236</v>
       </c>
       <c r="L31" t="n">
-        <v>5.894374872936158</v>
+        <v>6.105278072701088</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3100,24 +3100,24 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.6579422974007391</v>
+        <v>0.7045525364995542</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5508021390374331</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4601351220762094</v>
+        <v>0.5948170727382506</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8684652636492953</v>
+        <v>0.586281249612448</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>n9</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>1884</v>
+        <v>1965</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -3137,40 +3137,40 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3042</v>
+        <v>2258</v>
       </c>
       <c r="B32" t="n">
-        <v>3066</v>
+        <v>2464</v>
       </c>
       <c r="C32" t="n">
-        <v>3149</v>
+        <v>2838</v>
       </c>
       <c r="D32" t="n">
-        <v>2.151826119318632</v>
+        <v>2.553811244129513</v>
       </c>
       <c r="E32" t="n">
-        <v>1.551737327691004</v>
+        <v>1.953722452501884</v>
       </c>
       <c r="F32" t="n">
         <v>-0.6000887916276285</v>
       </c>
       <c r="G32" t="n">
-        <v>107</v>
+        <v>580</v>
       </c>
       <c r="H32" t="n">
-        <v>44.5686518176035</v>
+        <v>190.3620442161296</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="J32" t="n">
-        <v>83</v>
+        <v>374</v>
       </c>
       <c r="K32" t="n">
-        <v>170.8859447125481</v>
+        <v>456.2308452743262</v>
       </c>
       <c r="L32" t="n">
-        <v>4.966565104525883</v>
+        <v>5.894374872936158</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.9067016200108465</v>
+        <v>0.6579422974007391</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.2891566265060241</v>
+        <v>0.5508021390374331</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1515208356994659</v>
+        <v>0.4601351220762094</v>
       </c>
       <c r="S32" t="n">
-        <v>0.9380048980894267</v>
+        <v>0.8684652636492953</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         </is>
       </c>
       <c r="U32" t="n">
-        <v>1885</v>
+        <v>1966</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -3223,40 +3223,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1464</v>
+        <v>3042</v>
       </c>
       <c r="B33" t="n">
-        <v>1536</v>
+        <v>3066</v>
       </c>
       <c r="C33" t="n">
-        <v>1629</v>
+        <v>3149</v>
       </c>
       <c r="D33" t="n">
-        <v>2.782574429026877</v>
+        <v>2.151826119318632</v>
       </c>
       <c r="E33" t="n">
-        <v>2.158500526244191</v>
+        <v>1.551737327691004</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6240739027826856</v>
+        <v>-0.6000887916276285</v>
       </c>
       <c r="G33" t="n">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="H33" t="n">
-        <v>36.84136792103368</v>
+        <v>44.5686518176035</v>
       </c>
       <c r="I33" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J33" t="n">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K33" t="n">
-        <v>173.3982746027479</v>
+        <v>170.8859447125481</v>
       </c>
       <c r="L33" t="n">
-        <v>7.765298699337493</v>
+        <v>4.966565104525883</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -3272,24 +3272,24 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.5922631599113733</v>
+        <v>0.9067016200108465</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7572416409418302</v>
+        <v>0.1515208356994659</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9066378987861115</v>
+        <v>0.9380048980894267</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>n10</t>
+          <t>n9</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>1886</v>
+        <v>1967</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -3309,40 +3309,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1536</v>
+      </c>
+      <c r="C34" t="n">
         <v>1629</v>
       </c>
-      <c r="B34" t="n">
-        <v>1705</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1817</v>
-      </c>
       <c r="D34" t="n">
-        <v>2.089324140138562</v>
+        <v>2.782574429026877</v>
       </c>
       <c r="E34" t="n">
-        <v>1.465250237355876</v>
+        <v>2.158500526244191</v>
       </c>
       <c r="F34" t="n">
         <v>-0.6240739027826856</v>
       </c>
       <c r="G34" t="n">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="H34" t="n">
-        <v>38.98389715157168</v>
+        <v>36.84136792103368</v>
       </c>
       <c r="I34" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J34" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="K34" t="n">
-        <v>247.062488954117</v>
+        <v>173.3982746027479</v>
       </c>
       <c r="L34" t="n">
-        <v>5.830653030756968</v>
+        <v>7.765298699337493</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3358,16 +3358,16 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.5002047224533065</v>
+        <v>0.5922631599113733</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1482062953490157</v>
+        <v>0.7572416409418302</v>
       </c>
       <c r="S34" t="n">
-        <v>0.6085409142838114</v>
+        <v>0.9066378987861115</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="U34" t="n">
-        <v>1887</v>
+        <v>1968</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -3395,40 +3395,40 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
+        <v>1629</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C35" t="n">
         <v>1817</v>
       </c>
-      <c r="B35" t="n">
-        <v>1851</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1915</v>
-      </c>
       <c r="D35" t="n">
-        <v>3.039574126408104</v>
+        <v>2.089324140138562</v>
       </c>
       <c r="E35" t="n">
-        <v>2.415500223625418</v>
+        <v>1.465250237355876</v>
       </c>
       <c r="F35" t="n">
         <v>-0.6240739027826856</v>
       </c>
       <c r="G35" t="n">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="H35" t="n">
-        <v>63.32720376699831</v>
+        <v>38.98389715157168</v>
       </c>
       <c r="I35" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="J35" t="n">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="K35" t="n">
-        <v>190.4916408641635</v>
+        <v>247.062488954117</v>
       </c>
       <c r="L35" t="n">
-        <v>8.482504821476157</v>
+        <v>5.830653030756968</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3444,16 +3444,16 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.6977400053657976</v>
+        <v>0.5002047224533065</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.53125</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="R35" t="n">
-        <v>0.07576890660650276</v>
+        <v>0.1482062953490157</v>
       </c>
       <c r="S35" t="n">
-        <v>0.9665809512110447</v>
+        <v>0.6085409142838114</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="U35" t="n">
-        <v>1888</v>
+        <v>1969</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -3481,40 +3481,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2655</v>
+        <v>1817</v>
       </c>
       <c r="B36" t="n">
-        <v>2722</v>
+        <v>1851</v>
       </c>
       <c r="C36" t="n">
-        <v>2866</v>
+        <v>1915</v>
       </c>
       <c r="D36" t="n">
-        <v>2.861110623411211</v>
+        <v>3.039574126408104</v>
       </c>
       <c r="E36" t="n">
-        <v>2.237036720628526</v>
+        <v>2.415500223625418</v>
       </c>
       <c r="F36" t="n">
         <v>-0.6240739027826856</v>
       </c>
       <c r="G36" t="n">
-        <v>211</v>
+        <v>98</v>
       </c>
       <c r="H36" t="n">
-        <v>81.81211591669444</v>
+        <v>63.32720376699831</v>
       </c>
       <c r="I36" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J36" t="n">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="K36" t="n">
-        <v>305.8003321528383</v>
+        <v>190.4916408641635</v>
       </c>
       <c r="L36" t="n">
-        <v>7.984468760609446</v>
+        <v>8.482504821476157</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3530,16 +3530,16 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.8160457356896406</v>
+        <v>0.6977400053657976</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.53125</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3661608482222031</v>
+        <v>0.07576890660650276</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9792887774471831</v>
+        <v>0.9665809512110447</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         </is>
       </c>
       <c r="U36" t="n">
-        <v>1889</v>
+        <v>1970</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -3567,40 +3567,40 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
+        <v>2655</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2722</v>
+      </c>
+      <c r="C37" t="n">
         <v>2866</v>
       </c>
-      <c r="B37" t="n">
-        <v>2896</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2967</v>
-      </c>
       <c r="D37" t="n">
-        <v>2.398528427186394</v>
+        <v>2.861110623411211</v>
       </c>
       <c r="E37" t="n">
-        <v>1.774454524403708</v>
+        <v>2.237036720628526</v>
       </c>
       <c r="F37" t="n">
         <v>-0.6240739027826856</v>
       </c>
       <c r="G37" t="n">
-        <v>101</v>
+        <v>211</v>
       </c>
       <c r="H37" t="n">
-        <v>50.49848150571825</v>
+        <v>81.81211591669444</v>
       </c>
       <c r="I37" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="J37" t="n">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="K37" t="n">
-        <v>141.2875997829169</v>
+        <v>305.8003321528383</v>
       </c>
       <c r="L37" t="n">
-        <v>6.693545905425485</v>
+        <v>7.984468760609446</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3616,16 +3616,16 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.8227846179690725</v>
+        <v>0.8160457356896406</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4225352112676056</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1459025127071613</v>
+        <v>0.3661608482222031</v>
       </c>
       <c r="S37" t="n">
-        <v>0.9694888277177974</v>
+        <v>0.9792887774471831</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="U37" t="n">
-        <v>1890</v>
+        <v>1971</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3653,40 +3653,40 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3034</v>
+        <v>2866</v>
       </c>
       <c r="B38" t="n">
-        <v>3057</v>
+        <v>2896</v>
       </c>
       <c r="C38" t="n">
-        <v>3088</v>
+        <v>2967</v>
       </c>
       <c r="D38" t="n">
-        <v>1.961914845788242</v>
+        <v>2.398528427186394</v>
       </c>
       <c r="E38" t="n">
-        <v>1.337840943005557</v>
+        <v>1.774454524403708</v>
       </c>
       <c r="F38" t="n">
         <v>-0.6240739027826856</v>
       </c>
       <c r="G38" t="n">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="H38" t="n">
-        <v>22.72753732202136</v>
+        <v>50.49848150571825</v>
       </c>
       <c r="I38" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J38" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K38" t="n">
-        <v>73.78753438184252</v>
+        <v>141.2875997829169</v>
       </c>
       <c r="L38" t="n">
-        <v>5.475093367237728</v>
+        <v>6.693545905425485</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3702,16 +3702,16 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.7566815019392503</v>
+        <v>0.8227846179690725</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="R38" t="n">
-        <v>0.159699317673204</v>
+        <v>0.1459025127071613</v>
       </c>
       <c r="S38" t="n">
-        <v>0.9732815219529557</v>
+        <v>0.9694888277177974</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="U38" t="n">
-        <v>1891</v>
+        <v>1972</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
+        <v>3034</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3057</v>
+      </c>
+      <c r="C39" t="n">
         <v>3088</v>
       </c>
-      <c r="B39" t="n">
-        <v>3118</v>
-      </c>
-      <c r="C39" t="n">
-        <v>3174</v>
-      </c>
       <c r="D39" t="n">
-        <v>2.013719881437244</v>
+        <v>1.961914845788242</v>
       </c>
       <c r="E39" t="n">
-        <v>1.389645978654558</v>
+        <v>1.337840943005557</v>
       </c>
       <c r="F39" t="n">
         <v>-0.6240739027826856</v>
       </c>
       <c r="G39" t="n">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H39" t="n">
-        <v>25.21512358023756</v>
+        <v>22.72753732202136</v>
       </c>
       <c r="I39" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J39" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="K39" t="n">
-        <v>104.380834621178</v>
+        <v>73.78753438184252</v>
       </c>
       <c r="L39" t="n">
-        <v>5.619665088931084</v>
+        <v>5.475093367237728</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.7771259991324522</v>
+        <v>0.7566815019392503</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1730692208123748</v>
+        <v>0.159699317673204</v>
       </c>
       <c r="S39" t="n">
-        <v>0.8873312042089258</v>
+        <v>0.9732815219529557</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         </is>
       </c>
       <c r="U39" t="n">
-        <v>1892</v>
+        <v>1973</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3825,40 +3825,40 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>885</v>
+        <v>3088</v>
       </c>
       <c r="B40" t="n">
-        <v>940</v>
+        <v>3118</v>
       </c>
       <c r="C40" t="n">
-        <v>1037</v>
+        <v>3174</v>
       </c>
       <c r="D40" t="n">
-        <v>2.563056017345469</v>
+        <v>2.013719881437244</v>
       </c>
       <c r="E40" t="n">
-        <v>2.113520461922289</v>
+        <v>1.389645978654558</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4495355554231797</v>
+        <v>-0.6240739027826856</v>
       </c>
       <c r="G40" t="n">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="H40" t="n">
-        <v>120.9316724293542</v>
+        <v>25.21512358023756</v>
       </c>
       <c r="I40" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="J40" t="n">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="K40" t="n">
-        <v>238.0100253420943</v>
+        <v>104.380834621178</v>
       </c>
       <c r="L40" t="n">
-        <v>13.15752811532576</v>
+        <v>5.619665088931084</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3874,24 +3874,24 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.7828647036943692</v>
+        <v>0.7771259991324522</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5670103092783505</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="R40" t="n">
-        <v>0.2295258104156357</v>
+        <v>0.1730692208123748</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8578800045641329</v>
+        <v>0.8873312042089258</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>n11</t>
+          <t>n10</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>1893</v>
+        <v>1974</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -3911,40 +3911,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1163</v>
+        <v>885</v>
       </c>
       <c r="B41" t="n">
-        <v>1342</v>
+        <v>940</v>
       </c>
       <c r="C41" t="n">
-        <v>1851</v>
+        <v>1037</v>
       </c>
       <c r="D41" t="n">
-        <v>5.759210570439731</v>
+        <v>2.563056017345469</v>
       </c>
       <c r="E41" t="n">
-        <v>5.309675015016552</v>
+        <v>2.113520461922289</v>
       </c>
       <c r="F41" t="n">
         <v>-0.4495355554231797</v>
       </c>
       <c r="G41" t="n">
-        <v>688</v>
+        <v>152</v>
       </c>
       <c r="H41" t="n">
-        <v>165.8802091460104</v>
+        <v>120.9316724293542</v>
       </c>
       <c r="I41" t="n">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="J41" t="n">
-        <v>509</v>
+        <v>97</v>
       </c>
       <c r="K41" t="n">
-        <v>1177.043065133522</v>
+        <v>238.0100253420943</v>
       </c>
       <c r="L41" t="n">
-        <v>29.56508733707799</v>
+        <v>13.15752811532576</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.6863165313348795</v>
+        <v>0.7828647036943692</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.3516699410609037</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="R41" t="n">
-        <v>0.2076347535464224</v>
+        <v>0.2295258104156357</v>
       </c>
       <c r="S41" t="n">
-        <v>0.8862942434837835</v>
+        <v>0.8578800045641329</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="U41" t="n">
-        <v>1894</v>
+        <v>1975</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -3997,40 +3997,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1324</v>
+        <v>1163</v>
       </c>
       <c r="B42" t="n">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="C42" t="n">
-        <v>1704</v>
+        <v>1851</v>
       </c>
       <c r="D42" t="n">
-        <v>3.5857181966514</v>
+        <v>5.759210570439731</v>
       </c>
       <c r="E42" t="n">
-        <v>3.071118839080923</v>
+        <v>5.309675015016552</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.5145993575704764</v>
+        <v>-0.4495355554231797</v>
       </c>
       <c r="G42" t="n">
-        <v>380</v>
+        <v>688</v>
       </c>
       <c r="H42" t="n">
-        <v>102.701863310617</v>
+        <v>165.8802091460104</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="J42" t="n">
-        <v>353</v>
+        <v>509</v>
       </c>
       <c r="K42" t="n">
-        <v>489.2321009134472</v>
+        <v>1177.043065133522</v>
       </c>
       <c r="L42" t="n">
-        <v>10.58311316963289</v>
+        <v>29.56508733707799</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4046,24 +4046,24 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.7994998021573388</v>
+        <v>0.6863165313348795</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.0764872521246459</v>
+        <v>0.3516699410609037</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4284999122479004</v>
+        <v>0.2076347535464224</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7641901792332435</v>
+        <v>0.8862942434837835</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>n12</t>
+          <t>n11</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>1895</v>
+        <v>1976</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -4083,40 +4083,40 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2829</v>
+        <v>1324</v>
       </c>
       <c r="B43" t="n">
-        <v>2875</v>
+        <v>1351</v>
       </c>
       <c r="C43" t="n">
-        <v>3095</v>
+        <v>1704</v>
       </c>
       <c r="D43" t="n">
-        <v>5.021764638719839</v>
+        <v>3.5857181966514</v>
       </c>
       <c r="E43" t="n">
-        <v>4.507165281149362</v>
+        <v>3.071118839080923</v>
       </c>
       <c r="F43" t="n">
         <v>-0.5145993575704764</v>
       </c>
       <c r="G43" t="n">
-        <v>266</v>
+        <v>380</v>
       </c>
       <c r="H43" t="n">
-        <v>107.7622604293074</v>
+        <v>102.701863310617</v>
       </c>
       <c r="I43" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J43" t="n">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="K43" t="n">
-        <v>541.8481054152514</v>
+        <v>489.2321009134472</v>
       </c>
       <c r="L43" t="n">
-        <v>14.82155054250057</v>
+        <v>10.58311316963289</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.9424765920456744</v>
+        <v>0.7994998021573388</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.0764872521246459</v>
       </c>
       <c r="R43" t="n">
-        <v>0.2870044219846181</v>
+        <v>0.4284999122479004</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9444423526554003</v>
+        <v>0.7641901792332435</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="U43" t="n">
-        <v>1896</v>
+        <v>1977</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -4169,40 +4169,40 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1092</v>
+        <v>2829</v>
       </c>
       <c r="B44" t="n">
-        <v>1138</v>
+        <v>2875</v>
       </c>
       <c r="C44" t="n">
-        <v>1207</v>
+        <v>3095</v>
       </c>
       <c r="D44" t="n">
-        <v>2.929654155594559</v>
+        <v>5.021764638719839</v>
       </c>
       <c r="E44" t="n">
-        <v>2.381261528834427</v>
+        <v>4.507165281149362</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.5483926267601319</v>
+        <v>-0.5145993575704764</v>
       </c>
       <c r="G44" t="n">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="H44" t="n">
-        <v>66.23321404075523</v>
+        <v>107.7622604293074</v>
       </c>
       <c r="I44" t="n">
         <v>46</v>
       </c>
       <c r="J44" t="n">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="K44" t="n">
-        <v>228.6158826396061</v>
+        <v>541.8481054152514</v>
       </c>
       <c r="L44" t="n">
-        <v>8.276505828995392</v>
+        <v>14.82155054250057</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4218,24 +4218,24 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.7752919166417984</v>
+        <v>0.9424765920456744</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2844635089702506</v>
+        <v>0.2870044219846181</v>
       </c>
       <c r="S44" t="n">
-        <v>0.8712284953370787</v>
+        <v>0.9444423526554003</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>n13</t>
+          <t>n12</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>1897</v>
+        <v>1978</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -4255,40 +4255,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3401</v>
+        <v>1092</v>
       </c>
       <c r="B45" t="n">
-        <v>3443</v>
+        <v>1138</v>
       </c>
       <c r="C45" t="n">
-        <v>3523</v>
+        <v>1207</v>
       </c>
       <c r="D45" t="n">
-        <v>2.892019709223682</v>
+        <v>2.929654155594559</v>
       </c>
       <c r="E45" t="n">
-        <v>2.412818737474295</v>
+        <v>2.381261528834427</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.4792009717493871</v>
+        <v>-0.5483926267601319</v>
       </c>
       <c r="G45" t="n">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H45" t="n">
-        <v>36.08137327407076</v>
+        <v>66.23321404075523</v>
       </c>
       <c r="I45" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J45" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K45" t="n">
-        <v>225.535556232504</v>
+        <v>228.6158826396061</v>
       </c>
       <c r="L45" t="n">
-        <v>8.941825373344404</v>
+        <v>8.276505828995392</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4304,24 +4304,24 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.7772532991403055</v>
+        <v>0.7752919166417984</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.525</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1753402523931788</v>
+        <v>0.2844635089702506</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8561595661056001</v>
+        <v>0.8712284953370787</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>n14</t>
+          <t>n13</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>1898</v>
+        <v>1979</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -4341,40 +4341,40 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3627</v>
+        <v>3401</v>
       </c>
       <c r="B46" t="n">
-        <v>3658</v>
+        <v>3443</v>
       </c>
       <c r="C46" t="n">
-        <v>3733</v>
+        <v>3523</v>
       </c>
       <c r="D46" t="n">
-        <v>3.707053370135631</v>
+        <v>2.892019709223682</v>
       </c>
       <c r="E46" t="n">
-        <v>3.227852398386243</v>
+        <v>2.412818737474295</v>
       </c>
       <c r="F46" t="n">
         <v>-0.4792009717493871</v>
       </c>
       <c r="G46" t="n">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H46" t="n">
-        <v>48.74859237825467</v>
+        <v>36.08137327407076</v>
       </c>
       <c r="I46" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K46" t="n">
-        <v>306.2951959414244</v>
+        <v>225.535556232504</v>
       </c>
       <c r="L46" t="n">
-        <v>11.46182502826673</v>
+        <v>8.941825373344404</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4390,16 +4390,16 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.6388800973647523</v>
+        <v>0.7772532991403055</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4133333333333333</v>
+        <v>0.525</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1211180097457997</v>
+        <v>0.1753402523931788</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7765605864132431</v>
+        <v>0.8561595661056001</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="U46" t="n">
-        <v>1899</v>
+        <v>1980</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -4427,40 +4427,40 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3795</v>
+        <v>3691</v>
       </c>
       <c r="B47" t="n">
-        <v>3822</v>
+        <v>3702</v>
       </c>
       <c r="C47" t="n">
-        <v>3862</v>
+        <v>3733</v>
       </c>
       <c r="D47" t="n">
-        <v>3.235846732402567</v>
+        <v>3.162015036086376</v>
       </c>
       <c r="E47" t="n">
-        <v>2.75664576065318</v>
+        <v>2.682814064336989</v>
       </c>
       <c r="F47" t="n">
         <v>-0.4792009717493871</v>
       </c>
       <c r="G47" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="H47" t="n">
-        <v>36.63339588549115</v>
+        <v>11.82309215613805</v>
       </c>
       <c r="I47" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K47" t="n">
-        <v>165.0667227580128</v>
+        <v>101.0405194149213</v>
       </c>
       <c r="L47" t="n">
-        <v>10.00490291396314</v>
+        <v>9.776622956751373</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4476,16 +4476,16 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.6316511349033229</v>
+        <v>0.9006280871839644</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.675</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02974072776204865</v>
+        <v>0.2363864874509222</v>
       </c>
       <c r="S47" t="n">
-        <v>0.9960281658634297</v>
+        <v>0.9491036110091158</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="U47" t="n">
-        <v>1900</v>
+        <v>1981</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -4513,40 +4513,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>630</v>
+        <v>3795</v>
       </c>
       <c r="B48" t="n">
-        <v>661</v>
+        <v>3822</v>
       </c>
       <c r="C48" t="n">
-        <v>702</v>
+        <v>3862</v>
       </c>
       <c r="D48" t="n">
-        <v>3.307005214511472</v>
+        <v>3.235846732402567</v>
       </c>
       <c r="E48" t="n">
-        <v>2.743545888887316</v>
+        <v>2.75664576065318</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.5634593256241556</v>
+        <v>-0.4792009717493871</v>
       </c>
       <c r="G48" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H48" t="n">
-        <v>42.32224224063987</v>
+        <v>36.63339588549115</v>
       </c>
       <c r="I48" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J48" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K48" t="n">
-        <v>144.084781746457</v>
+        <v>165.0667227580128</v>
       </c>
       <c r="L48" t="n">
-        <v>12.07686108933492</v>
+        <v>10.00490291396314</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4562,24 +4562,24 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.7708380591690273</v>
+        <v>0.6316511349033229</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.675</v>
       </c>
       <c r="R48" t="n">
-        <v>0.2305359783679984</v>
+        <v>0.02974072776204865</v>
       </c>
       <c r="S48" t="n">
-        <v>0.9538419690608312</v>
+        <v>0.9960281658634297</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n14</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>1901</v>
+        <v>1982</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -4599,40 +4599,40 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1090</v>
+        <v>630</v>
       </c>
       <c r="B49" t="n">
-        <v>1126</v>
+        <v>661</v>
       </c>
       <c r="C49" t="n">
-        <v>1269</v>
+        <v>702</v>
       </c>
       <c r="D49" t="n">
-        <v>3.274980424502266</v>
+        <v>3.307005214511472</v>
       </c>
       <c r="E49" t="n">
-        <v>2.711521098878111</v>
+        <v>2.743545888887316</v>
       </c>
       <c r="F49" t="n">
         <v>-0.5634593256241556</v>
       </c>
       <c r="G49" t="n">
-        <v>179</v>
+        <v>72</v>
       </c>
       <c r="H49" t="n">
-        <v>85.91352925302158</v>
+        <v>42.32224224063987</v>
       </c>
       <c r="I49" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J49" t="n">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="K49" t="n">
-        <v>310.1366455537755</v>
+        <v>144.084781746457</v>
       </c>
       <c r="L49" t="n">
-        <v>11.95990967400024</v>
+        <v>12.07686108933492</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4648,16 +4648,16 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.9152130631950034</v>
+        <v>0.7708380591690273</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.2517482517482518</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2006513284269273</v>
+        <v>0.2305359783679984</v>
       </c>
       <c r="S49" t="n">
-        <v>0.898969500284984</v>
+        <v>0.9538419690608312</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         </is>
       </c>
       <c r="U49" t="n">
-        <v>1902</v>
+        <v>1983</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -4685,40 +4685,40 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1406</v>
+        <v>1150</v>
       </c>
       <c r="B50" t="n">
-        <v>1437</v>
+        <v>1166</v>
       </c>
       <c r="C50" t="n">
-        <v>1514</v>
+        <v>1269</v>
       </c>
       <c r="D50" t="n">
-        <v>3.845268602922638</v>
+        <v>2.554618540536557</v>
       </c>
       <c r="E50" t="n">
-        <v>3.281809277298483</v>
+        <v>1.991159214912402</v>
       </c>
       <c r="F50" t="n">
         <v>-0.5634593256241556</v>
       </c>
       <c r="G50" t="n">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H50" t="n">
-        <v>207.4604588187265</v>
+        <v>29.29686095234547</v>
       </c>
       <c r="I50" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J50" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K50" t="n">
-        <v>302.6700587413318</v>
+        <v>174.063187251872</v>
       </c>
       <c r="L50" t="n">
-        <v>14.04254658108782</v>
+        <v>9.329218204712475</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4734,16 +4734,16 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.8428294915135168</v>
+        <v>0.8547739509826173</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="R50" t="n">
-        <v>0.2385904760841639</v>
+        <v>0.4476752424232471</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9443293083376867</v>
+        <v>0.9271446316070961</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="U50" t="n">
-        <v>1903</v>
+        <v>1984</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -4771,40 +4771,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2797</v>
+        <v>1406</v>
       </c>
       <c r="B51" t="n">
-        <v>2825</v>
+        <v>1437</v>
       </c>
       <c r="C51" t="n">
-        <v>2889</v>
+        <v>1514</v>
       </c>
       <c r="D51" t="n">
-        <v>2.990618886772342</v>
+        <v>3.845268602922638</v>
       </c>
       <c r="E51" t="n">
-        <v>2.436199342841188</v>
+        <v>3.281809277298483</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.5544195439311541</v>
+        <v>-0.5634593256241556</v>
       </c>
       <c r="G51" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H51" t="n">
-        <v>61.0692134052706</v>
+        <v>207.4604588187265</v>
       </c>
       <c r="I51" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J51" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K51" t="n">
-        <v>161.3044672249868</v>
+        <v>302.6700587413318</v>
       </c>
       <c r="L51" t="n">
-        <v>8.93604799897132</v>
+        <v>14.04254658108782</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -4820,24 +4820,24 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.7649089503728969</v>
+        <v>0.8428294915135168</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.4375</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1196690403571011</v>
+        <v>0.2385904760841639</v>
       </c>
       <c r="S51" t="n">
-        <v>0.938776682200635</v>
+        <v>0.9443293083376867</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U51" t="n">
-        <v>1904</v>
+        <v>1985</v>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -4857,40 +4857,40 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3347</v>
+        <v>2797</v>
       </c>
       <c r="B52" t="n">
-        <v>3381</v>
+        <v>2825</v>
       </c>
       <c r="C52" t="n">
-        <v>3470</v>
+        <v>2889</v>
       </c>
       <c r="D52" t="n">
-        <v>3.482598264140055</v>
+        <v>2.990618886772342</v>
       </c>
       <c r="E52" t="n">
-        <v>2.928178720208901</v>
+        <v>2.436199342841188</v>
       </c>
       <c r="F52" t="n">
         <v>-0.5544195439311541</v>
       </c>
       <c r="G52" t="n">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H52" t="n">
-        <v>311.0811062498879</v>
+        <v>61.0692134052706</v>
       </c>
       <c r="I52" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J52" t="n">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="K52" t="n">
-        <v>349.6784372386472</v>
+        <v>161.3044672249868</v>
       </c>
       <c r="L52" t="n">
-        <v>10.40609533603162</v>
+        <v>8.93604799897132</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -4906,16 +4906,16 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.6947970279148104</v>
+        <v>0.7649089503728969</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.3820224719101123</v>
+        <v>0.4375</v>
       </c>
       <c r="R52" t="n">
-        <v>0.07616877510266976</v>
+        <v>0.1196690403571011</v>
       </c>
       <c r="S52" t="n">
-        <v>0.8366352723545265</v>
+        <v>0.938776682200635</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="U52" t="n">
-        <v>1905</v>
+        <v>1986</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -4943,40 +4943,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>482</v>
+        <v>3347</v>
       </c>
       <c r="B53" t="n">
-        <v>594</v>
+        <v>3381</v>
       </c>
       <c r="C53" t="n">
-        <v>814</v>
+        <v>3470</v>
       </c>
       <c r="D53" t="n">
-        <v>3.663131694671537</v>
+        <v>3.482598264140055</v>
       </c>
       <c r="E53" t="n">
-        <v>3.089910921933768</v>
+        <v>2.928178720208901</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.5732207727377685</v>
+        <v>-0.5544195439311541</v>
       </c>
       <c r="G53" t="n">
-        <v>332</v>
+        <v>123</v>
       </c>
       <c r="H53" t="n">
-        <v>80.76306479083894</v>
+        <v>311.0811062498879</v>
       </c>
       <c r="I53" t="n">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="J53" t="n">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="K53" t="n">
-        <v>480.4336113214201</v>
+        <v>349.6784372386472</v>
       </c>
       <c r="L53" t="n">
-        <v>15.35647863655962</v>
+        <v>10.40609533603162</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -4992,24 +4992,24 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.6279448577173989</v>
+        <v>0.6947970279148104</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.509090909090909</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="R53" t="n">
-        <v>0.7678990217296586</v>
+        <v>0.07616877510266976</v>
       </c>
       <c r="S53" t="n">
-        <v>0.862665975313627</v>
+        <v>0.8366352723545265</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>n18</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U53" t="n">
-        <v>1906</v>
+        <v>1987</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -5029,40 +5029,40 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1020</v>
+        <v>482</v>
       </c>
       <c r="B54" t="n">
-        <v>1040</v>
+        <v>594</v>
       </c>
       <c r="C54" t="n">
-        <v>1076</v>
+        <v>814</v>
       </c>
       <c r="D54" t="n">
-        <v>1.462576289545679</v>
+        <v>3.663131694671537</v>
       </c>
       <c r="E54" t="n">
-        <v>0.8893555168079109</v>
+        <v>3.089910921933768</v>
       </c>
       <c r="F54" t="n">
         <v>-0.5732207727377685</v>
       </c>
       <c r="G54" t="n">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="H54" t="n">
-        <v>17.19753061874781</v>
+        <v>80.76306479083894</v>
       </c>
       <c r="I54" t="n">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="J54" t="n">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="K54" t="n">
-        <v>50.37237421353678</v>
+        <v>480.4336113214201</v>
       </c>
       <c r="L54" t="n">
-        <v>6.131371574059881</v>
+        <v>15.35647863655962</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5078,16 +5078,16 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.8412488236250982</v>
+        <v>0.6279448577173989</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="R54" t="n">
-        <v>0.3796637826782537</v>
+        <v>0.7678990217296586</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9829466259496069</v>
+        <v>0.862665975313627</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="U54" t="n">
-        <v>1907</v>
+        <v>1988</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -5115,40 +5115,40 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1978</v>
+        <v>1020</v>
       </c>
       <c r="B55" t="n">
-        <v>2003</v>
+        <v>1040</v>
       </c>
       <c r="C55" t="n">
-        <v>2095</v>
+        <v>1076</v>
       </c>
       <c r="D55" t="n">
-        <v>1.907034251937933</v>
+        <v>1.462576289545679</v>
       </c>
       <c r="E55" t="n">
-        <v>1.333813479200165</v>
+        <v>0.8893555168079109</v>
       </c>
       <c r="F55" t="n">
         <v>-0.5732207727377685</v>
       </c>
       <c r="G55" t="n">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="H55" t="n">
-        <v>62.5435258121322</v>
+        <v>17.19753061874781</v>
       </c>
       <c r="I55" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J55" t="n">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="K55" t="n">
-        <v>110.4539411915862</v>
+        <v>50.37237421353678</v>
       </c>
       <c r="L55" t="n">
-        <v>7.99461586152399</v>
+        <v>6.131371574059881</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5164,16 +5164,16 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.9271059333169301</v>
+        <v>0.8412488236250982</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.2717391304347826</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="R55" t="n">
-        <v>0.2660494463517709</v>
+        <v>0.3796637826782537</v>
       </c>
       <c r="S55" t="n">
-        <v>0.8700771984844757</v>
+        <v>0.9829466259496069</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="U55" t="n">
-        <v>1908</v>
+        <v>1989</v>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -5201,40 +5201,40 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>3957</v>
+        <v>1978</v>
       </c>
       <c r="B56" t="n">
-        <v>3983</v>
+        <v>2003</v>
       </c>
       <c r="C56" t="n">
-        <v>4089</v>
+        <v>2095</v>
       </c>
       <c r="D56" t="n">
-        <v>2.407160839680726</v>
+        <v>1.907034251937933</v>
       </c>
       <c r="E56" t="n">
-        <v>1.833940066942957</v>
+        <v>1.333813479200165</v>
       </c>
       <c r="F56" t="n">
         <v>-0.5732207727377685</v>
       </c>
       <c r="G56" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H56" t="n">
-        <v>90.23087677322019</v>
+        <v>62.5435258121322</v>
       </c>
       <c r="I56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J56" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K56" t="n">
-        <v>175.7591079739329</v>
+        <v>110.4539411915862</v>
       </c>
       <c r="L56" t="n">
-        <v>10.09123260927002</v>
+        <v>7.99461586152399</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5250,16 +5250,16 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.8758000683104943</v>
+        <v>0.9271059333169301</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="R56" t="n">
-        <v>0.3383222308943946</v>
+        <v>0.2660494463517709</v>
       </c>
       <c r="S56" t="n">
-        <v>0.777074932969375</v>
+        <v>0.8700771984844757</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="U56" t="n">
-        <v>1909</v>
+        <v>1990</v>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -5287,73 +5287,73 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1864</v>
+        <v>3957</v>
       </c>
       <c r="B57" t="n">
-        <v>1899</v>
+        <v>3983</v>
       </c>
       <c r="C57" t="n">
-        <v>1974</v>
+        <v>4089</v>
       </c>
       <c r="D57" t="n">
-        <v>1.6054252130344</v>
+        <v>2.407160839680726</v>
       </c>
       <c r="E57" t="n">
-        <v>1.15682192226342</v>
+        <v>1.833940066942957</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.4486032907709799</v>
+        <v>-0.5732207727377685</v>
       </c>
       <c r="G57" t="n">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="H57" t="n">
-        <v>31.3465920213182</v>
+        <v>90.23087677322019</v>
       </c>
       <c r="I57" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J57" t="n">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="K57" t="n">
-        <v>86.67080274746607</v>
+        <v>175.7591079739329</v>
       </c>
       <c r="L57" t="n">
-        <v>3.898704906586978</v>
+        <v>10.09123260927002</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(1944), 'value': np.float64(0.7171058195529143), 'amplitude': np.float64(1.1657091103238941), 'start_idx': np.int64(1924), 'end_idx': np.int64(1973), 'duration': np.float64(49.0), 'fwhm': np.float64(17.285389353037544), 'rise_time': np.float64(20.0), 'decay_time': np.float64(29.0), 'auc': np.float64(34.29056334004443)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.7454880339070732</v>
+        <v>0.8758000683104943</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5361976944752546</v>
+        <v>0.3383222308943946</v>
       </c>
       <c r="S57" t="n">
-        <v>0.4555130781804013</v>
+        <v>0.777074932969375</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>n19</t>
+          <t>n18</t>
         </is>
       </c>
       <c r="U57" t="n">
-        <v>1910</v>
+        <v>1991</v>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -5373,73 +5373,73 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1480</v>
+        <v>1864</v>
       </c>
       <c r="B58" t="n">
-        <v>1536</v>
+        <v>1899</v>
       </c>
       <c r="C58" t="n">
-        <v>1634</v>
+        <v>1974</v>
       </c>
       <c r="D58" t="n">
-        <v>2.171533183192236</v>
+        <v>1.6054252130344</v>
       </c>
       <c r="E58" t="n">
-        <v>1.698618484426971</v>
+        <v>1.15682192226342</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4729146987652649</v>
+        <v>-0.4486032907709799</v>
       </c>
       <c r="G58" t="n">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="H58" t="n">
-        <v>32.00235995110461</v>
+        <v>31.3465920213182</v>
       </c>
       <c r="I58" t="n">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J58" t="n">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="K58" t="n">
-        <v>152.081458878399</v>
+        <v>86.67080274746607</v>
       </c>
       <c r="L58" t="n">
-        <v>4.524344726333492</v>
+        <v>3.898704906586978</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(1944), 'value': np.float64(0.7171058195529143), 'amplitude': np.float64(1.1657091103238941), 'start_idx': np.int64(1924), 'end_idx': np.int64(1973), 'duration': np.float64(49.0), 'fwhm': np.float64(17.285389353037544), 'rise_time': np.float64(20.0), 'decay_time': np.float64(29.0), 'auc': np.float64(34.29056334004443)}]</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.6347640312889002</v>
+        <v>0.7454880339070732</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3789545945746217</v>
+        <v>0.5361976944752546</v>
       </c>
       <c r="S58" t="n">
-        <v>0.6837659550055115</v>
+        <v>0.4555130781804013</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n19</t>
         </is>
       </c>
       <c r="U58" t="n">
-        <v>1911</v>
+        <v>1992</v>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -5459,40 +5459,40 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3937</v>
+        <v>1480</v>
       </c>
       <c r="B59" t="n">
-        <v>3960</v>
+        <v>1536</v>
       </c>
       <c r="C59" t="n">
-        <v>4028</v>
+        <v>1634</v>
       </c>
       <c r="D59" t="n">
-        <v>3.66366793570193</v>
+        <v>2.171533183192236</v>
       </c>
       <c r="E59" t="n">
-        <v>3.223339569899459</v>
+        <v>1.698618484426971</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.4403283658024706</v>
+        <v>-0.4729146987652649</v>
       </c>
       <c r="G59" t="n">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="H59" t="n">
-        <v>36.91037947643963</v>
+        <v>32.00235995110461</v>
       </c>
       <c r="I59" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="J59" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="K59" t="n">
-        <v>131.656634889648</v>
+        <v>152.081458878399</v>
       </c>
       <c r="L59" t="n">
-        <v>10.07000674313942</v>
+        <v>4.524344726333492</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5508,24 +5508,24 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.926352495500721</v>
+        <v>0.6347640312889002</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.3382352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R59" t="n">
-        <v>0.4700353670824109</v>
+        <v>0.3789545945746217</v>
       </c>
       <c r="S59" t="n">
-        <v>0.8436178883862564</v>
+        <v>0.6837659550055115</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>n21</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="U59" t="n">
-        <v>1912</v>
+        <v>1993</v>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -5545,40 +5545,40 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>267</v>
+        <v>3937</v>
       </c>
       <c r="B60" t="n">
-        <v>284</v>
+        <v>3960</v>
       </c>
       <c r="C60" t="n">
-        <v>398</v>
+        <v>4028</v>
       </c>
       <c r="D60" t="n">
-        <v>2.425596820846783</v>
+        <v>3.66366793570193</v>
       </c>
       <c r="E60" t="n">
-        <v>1.865749431273089</v>
+        <v>3.223339569899459</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.5598473895736945</v>
+        <v>-0.4403283658024706</v>
       </c>
       <c r="G60" t="n">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H60" t="n">
-        <v>73.72704055671952</v>
+        <v>36.91037947643963</v>
       </c>
       <c r="I60" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J60" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="K60" t="n">
-        <v>145.8746311373012</v>
+        <v>131.656634889648</v>
       </c>
       <c r="L60" t="n">
-        <v>6.964667896717491</v>
+        <v>10.07000674313942</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -5594,24 +5594,24 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.7594548536535013</v>
+        <v>0.926352495500721</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.1491228070175439</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="R60" t="n">
-        <v>0.5254614330752116</v>
+        <v>0.4700353670824109</v>
       </c>
       <c r="S60" t="n">
-        <v>0.3990963087919036</v>
+        <v>0.8436178883862564</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n21</t>
         </is>
       </c>
       <c r="U60" t="n">
-        <v>1913</v>
+        <v>1994</v>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -5631,40 +5631,40 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3469</v>
+        <v>267</v>
       </c>
       <c r="B61" t="n">
-        <v>3496</v>
+        <v>284</v>
       </c>
       <c r="C61" t="n">
-        <v>3532</v>
+        <v>398</v>
       </c>
       <c r="D61" t="n">
-        <v>2.951782530832038</v>
+        <v>2.425596820846783</v>
       </c>
       <c r="E61" t="n">
-        <v>2.391935141258343</v>
+        <v>1.865749431273089</v>
       </c>
       <c r="F61" t="n">
         <v>-0.5598473895736945</v>
       </c>
       <c r="G61" t="n">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="H61" t="n">
-        <v>31.15227011514708</v>
+        <v>73.72704055671952</v>
       </c>
       <c r="I61" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="K61" t="n">
-        <v>153.6930516497002</v>
+        <v>145.8746311373012</v>
       </c>
       <c r="L61" t="n">
-        <v>8.475516150866524</v>
+        <v>6.964667896717491</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
@@ -5680,16 +5680,16 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.6604195217008153</v>
+        <v>0.7594548536535013</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.75</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="R61" t="n">
-        <v>0.07398556727516206</v>
+        <v>0.5254614330752116</v>
       </c>
       <c r="S61" t="n">
-        <v>0.9836215146890589</v>
+        <v>0.3990963087919036</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="U61" t="n">
-        <v>1914</v>
+        <v>1995</v>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -5717,40 +5717,40 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>3469</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3496</v>
+      </c>
+      <c r="C62" t="n">
         <v>3532</v>
       </c>
-      <c r="B62" t="n">
-        <v>3559</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3613</v>
-      </c>
       <c r="D62" t="n">
-        <v>2.748124291722244</v>
+        <v>2.951782530832038</v>
       </c>
       <c r="E62" t="n">
-        <v>2.188276902148549</v>
+        <v>2.391935141258343</v>
       </c>
       <c r="F62" t="n">
         <v>-0.5598473895736945</v>
       </c>
       <c r="G62" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H62" t="n">
-        <v>24.86240457581926</v>
+        <v>31.15227011514708</v>
       </c>
       <c r="I62" t="n">
         <v>27</v>
       </c>
       <c r="J62" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K62" t="n">
-        <v>180.8077273771454</v>
+        <v>153.6930516497002</v>
       </c>
       <c r="L62" t="n">
-        <v>7.890747904289243</v>
+        <v>8.475516150866524</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -5766,16 +5766,16 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.6994913097629782</v>
+        <v>0.6604195217008153</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R62" t="n">
-        <v>0.09464644886300275</v>
+        <v>0.07398556727516206</v>
       </c>
       <c r="S62" t="n">
-        <v>0.7707366746318614</v>
+        <v>0.9836215146890589</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="U62" t="n">
-        <v>1915</v>
+        <v>1996</v>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -5803,40 +5803,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
+        <v>3532</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3559</v>
+      </c>
+      <c r="C63" t="n">
         <v>3613</v>
       </c>
-      <c r="B63" t="n">
-        <v>3665</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3784</v>
-      </c>
       <c r="D63" t="n">
-        <v>3.479624920608923</v>
+        <v>2.748124291722244</v>
       </c>
       <c r="E63" t="n">
-        <v>2.919777531035228</v>
+        <v>2.188276902148549</v>
       </c>
       <c r="F63" t="n">
         <v>-0.5598473895736945</v>
       </c>
       <c r="G63" t="n">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="H63" t="n">
-        <v>502.1879105263279</v>
+        <v>24.86240457581926</v>
       </c>
       <c r="I63" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J63" t="n">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="K63" t="n">
-        <v>447.291816316889</v>
+        <v>180.8077273771454</v>
       </c>
       <c r="L63" t="n">
-        <v>9.99112126504305</v>
+        <v>7.890747904289243</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -5852,16 +5852,16 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.6613677719552149</v>
+        <v>0.6994913097629782</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.4369747899159664</v>
+        <v>0.5</v>
       </c>
       <c r="R63" t="n">
-        <v>0.1291789155612994</v>
+        <v>0.09464644886300275</v>
       </c>
       <c r="S63" t="n">
-        <v>0.7572840410096874</v>
+        <v>0.7707366746318614</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="U63" t="n">
-        <v>1916</v>
+        <v>1997</v>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -5889,40 +5889,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
+        <v>3613</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3665</v>
+      </c>
+      <c r="C64" t="n">
         <v>3784</v>
       </c>
-      <c r="B64" t="n">
-        <v>3806</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3837</v>
-      </c>
       <c r="D64" t="n">
-        <v>2.710254232711498</v>
+        <v>3.479624920608923</v>
       </c>
       <c r="E64" t="n">
-        <v>2.150406843137804</v>
+        <v>2.919777531035228</v>
       </c>
       <c r="F64" t="n">
         <v>-0.5598473895736945</v>
       </c>
       <c r="G64" t="n">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="H64" t="n">
-        <v>23.92504908087813</v>
+        <v>502.1879105263279</v>
       </c>
       <c r="I64" t="n">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J64" t="n">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="K64" t="n">
-        <v>119.042332422843</v>
+        <v>447.291816316889</v>
       </c>
       <c r="L64" t="n">
-        <v>7.782010795973418</v>
+        <v>9.99112126504305</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
@@ -5938,16 +5938,16 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.7146347746633286</v>
+        <v>0.6613677719552149</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.4369747899159664</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1199006220230571</v>
+        <v>0.1291789155612994</v>
       </c>
       <c r="S64" t="n">
-        <v>0.9537391547929475</v>
+        <v>0.7572840410096874</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="U64" t="n">
-        <v>1917</v>
+        <v>1998</v>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -5975,40 +5975,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3890</v>
+        <v>3784</v>
       </c>
       <c r="B65" t="n">
-        <v>3911</v>
+        <v>3806</v>
       </c>
       <c r="C65" t="n">
-        <v>3975</v>
+        <v>3837</v>
       </c>
       <c r="D65" t="n">
-        <v>3.002439741318787</v>
+        <v>2.710254232711498</v>
       </c>
       <c r="E65" t="n">
-        <v>2.472757562018033</v>
+        <v>2.150406843137804</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5296821793007541</v>
+        <v>-0.5598473895736945</v>
       </c>
       <c r="G65" t="n">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="H65" t="n">
-        <v>24.0474788694919</v>
+        <v>23.92504908087813</v>
       </c>
       <c r="I65" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J65" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K65" t="n">
-        <v>186.6509375790123</v>
+        <v>119.042332422843</v>
       </c>
       <c r="L65" t="n">
-        <v>12.4435552540785</v>
+        <v>7.782010795973418</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
@@ -6024,24 +6024,24 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.9222052961193788</v>
+        <v>0.7146347746633286</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.328125</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="R65" t="n">
-        <v>0.2764960095194737</v>
+        <v>0.1199006220230571</v>
       </c>
       <c r="S65" t="n">
-        <v>0.9837818464783906</v>
+        <v>0.9537391547929475</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>n23</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U65" t="n">
-        <v>1918</v>
+        <v>1999</v>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -6061,40 +6061,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>3890</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3911</v>
+      </c>
+      <c r="C66" t="n">
         <v>3975</v>
       </c>
-      <c r="B66" t="n">
-        <v>4093</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4265</v>
-      </c>
       <c r="D66" t="n">
-        <v>4.380312595926809</v>
+        <v>3.002439741318787</v>
       </c>
       <c r="E66" t="n">
-        <v>3.850630416626055</v>
+        <v>2.472757562018033</v>
       </c>
       <c r="F66" t="n">
         <v>-0.5296821793007541</v>
       </c>
       <c r="G66" t="n">
-        <v>290</v>
+        <v>85</v>
       </c>
       <c r="H66" t="n">
-        <v>130.5070759976034</v>
+        <v>24.0474788694919</v>
       </c>
       <c r="I66" t="n">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="J66" t="n">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="K66" t="n">
-        <v>644.029362743521</v>
+        <v>186.6509375790123</v>
       </c>
       <c r="L66" t="n">
-        <v>18.15412348412689</v>
+        <v>12.4435552540785</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6110,16 +6110,16 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.6611646497221946</v>
+        <v>0.9222052961193788</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.686046511627907</v>
+        <v>0.328125</v>
       </c>
       <c r="R66" t="n">
-        <v>0.3329174688990834</v>
+        <v>0.2764960095194737</v>
       </c>
       <c r="S66" t="n">
-        <v>0.8455762140800567</v>
+        <v>0.9837818464783906</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
         </is>
       </c>
       <c r="U66" t="n">
-        <v>1919</v>
+        <v>2000</v>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>738</v>
+        <v>3975</v>
       </c>
       <c r="B67" t="n">
-        <v>765</v>
+        <v>4093</v>
       </c>
       <c r="C67" t="n">
-        <v>831</v>
+        <v>4265</v>
       </c>
       <c r="D67" t="n">
-        <v>2.038872568600067</v>
+        <v>4.380312595926809</v>
       </c>
       <c r="E67" t="n">
-        <v>1.534715593689455</v>
+        <v>3.850630416626055</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.504156974910613</v>
+        <v>-0.5296821793007541</v>
       </c>
       <c r="G67" t="n">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="H67" t="n">
-        <v>30.76790860640506</v>
+        <v>130.5070759976034</v>
       </c>
       <c r="I67" t="n">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J67" t="n">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="K67" t="n">
-        <v>91.68325044306204</v>
+        <v>644.029362743521</v>
       </c>
       <c r="L67" t="n">
-        <v>6.952469307952474</v>
+        <v>18.15412348412689</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
@@ -6196,24 +6196,24 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.8797533935191291</v>
+        <v>0.6611646497221946</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3170808488156384</v>
+        <v>0.3329174688990834</v>
       </c>
       <c r="S67" t="n">
-        <v>0.855584442112364</v>
+        <v>0.8455762140800567</v>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>n25</t>
+          <t>n23</t>
         </is>
       </c>
       <c r="U67" t="n">
-        <v>1920</v>
+        <v>2001</v>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -6233,40 +6233,40 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>979</v>
+        <v>738</v>
       </c>
       <c r="B68" t="n">
-        <v>1053</v>
+        <v>765</v>
       </c>
       <c r="C68" t="n">
-        <v>1154</v>
+        <v>831</v>
       </c>
       <c r="D68" t="n">
-        <v>4.934394014724441</v>
+        <v>2.038872568600067</v>
       </c>
       <c r="E68" t="n">
-        <v>4.430237039813828</v>
+        <v>1.534715593689455</v>
       </c>
       <c r="F68" t="n">
         <v>-0.504156974910613</v>
       </c>
       <c r="G68" t="n">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="H68" t="n">
-        <v>129.382791620004</v>
+        <v>30.76790860640506</v>
       </c>
       <c r="I68" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="J68" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="K68" t="n">
-        <v>493.108794275866</v>
+        <v>91.68325044306204</v>
       </c>
       <c r="L68" t="n">
-        <v>16.82607509123115</v>
+        <v>6.952469307952474</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -6282,16 +6282,16 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.7603029334229832</v>
+        <v>0.8797533935191291</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7326732673267327</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3550128314073789</v>
+        <v>0.3170808488156384</v>
       </c>
       <c r="S68" t="n">
-        <v>0.942712725317055</v>
+        <v>0.855584442112364</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="U68" t="n">
-        <v>1921</v>
+        <v>2002</v>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -6319,40 +6319,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1617</v>
+        <v>979</v>
       </c>
       <c r="B69" t="n">
-        <v>1658</v>
+        <v>1053</v>
       </c>
       <c r="C69" t="n">
-        <v>1755</v>
+        <v>1154</v>
       </c>
       <c r="D69" t="n">
-        <v>1.917145493759709</v>
+        <v>4.934394014724441</v>
       </c>
       <c r="E69" t="n">
-        <v>1.412988518849096</v>
+        <v>4.430237039813828</v>
       </c>
       <c r="F69" t="n">
         <v>-0.504156974910613</v>
       </c>
       <c r="G69" t="n">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="H69" t="n">
-        <v>36.75755422019097</v>
+        <v>129.382791620004</v>
       </c>
       <c r="I69" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="J69" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K69" t="n">
-        <v>159.4392680301755</v>
+        <v>493.108794275866</v>
       </c>
       <c r="L69" t="n">
-        <v>6.537385126229673</v>
+        <v>16.82607509123115</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6368,16 +6368,16 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.7582389109247372</v>
+        <v>0.7603029334229832</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.422680412371134</v>
+        <v>0.7326732673267327</v>
       </c>
       <c r="R69" t="n">
-        <v>0.3810257608731239</v>
+        <v>0.3550128314073789</v>
       </c>
       <c r="S69" t="n">
-        <v>0.6269463401052204</v>
+        <v>0.942712725317055</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -6385,7 +6385,7 @@
         </is>
       </c>
       <c r="U69" t="n">
-        <v>1922</v>
+        <v>2003</v>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -6405,40 +6405,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2303</v>
+        <v>1617</v>
       </c>
       <c r="B70" t="n">
-        <v>2323</v>
+        <v>1658</v>
       </c>
       <c r="C70" t="n">
-        <v>2411</v>
+        <v>1755</v>
       </c>
       <c r="D70" t="n">
-        <v>2.647541609727864</v>
+        <v>1.917145493759709</v>
       </c>
       <c r="E70" t="n">
-        <v>2.115487264848623</v>
+        <v>1.412988518849096</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5320543448792412</v>
+        <v>-0.504156974910613</v>
       </c>
       <c r="G70" t="n">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="H70" t="n">
-        <v>90.90986322559775</v>
+        <v>36.75755422019097</v>
       </c>
       <c r="I70" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J70" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K70" t="n">
-        <v>133.2654102721265</v>
+        <v>159.4392680301755</v>
       </c>
       <c r="L70" t="n">
-        <v>12.33671983757879</v>
+        <v>6.537385126229673</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -6454,24 +6454,24 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.8754097810732642</v>
+        <v>0.7582389109247372</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="R70" t="n">
-        <v>0.5464201310842089</v>
+        <v>0.3810257608731239</v>
       </c>
       <c r="S70" t="n">
-        <v>0.8602903938232874</v>
+        <v>0.6269463401052204</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>n26</t>
+          <t>n25</t>
         </is>
       </c>
       <c r="U70" t="n">
-        <v>1923</v>
+        <v>2004</v>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -6491,40 +6491,40 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2716</v>
+        <v>2303</v>
       </c>
       <c r="B71" t="n">
-        <v>2741</v>
+        <v>2323</v>
       </c>
       <c r="C71" t="n">
-        <v>2837</v>
+        <v>2411</v>
       </c>
       <c r="D71" t="n">
-        <v>3.169503970945061</v>
+        <v>2.647541609727864</v>
       </c>
       <c r="E71" t="n">
-        <v>2.63744962606582</v>
+        <v>2.115487264848623</v>
       </c>
       <c r="F71" t="n">
         <v>-0.5320543448792412</v>
       </c>
       <c r="G71" t="n">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H71" t="n">
-        <v>104.069950679233</v>
+        <v>90.90986322559775</v>
       </c>
       <c r="I71" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K71" t="n">
-        <v>216.1656634429418</v>
+        <v>133.2654102721265</v>
       </c>
       <c r="L71" t="n">
-        <v>14.76890197682742</v>
+        <v>12.33671983757879</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.912570620980275</v>
+        <v>0.8754097810732642</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.2604166666666667</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="R71" t="n">
-        <v>0.412132897326587</v>
+        <v>0.5464201310842089</v>
       </c>
       <c r="S71" t="n">
-        <v>0.9543757878371016</v>
+        <v>0.8602903938232874</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
         </is>
       </c>
       <c r="U71" t="n">
-        <v>1924</v>
+        <v>2005</v>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -6577,40 +6577,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3368</v>
+        <v>2716</v>
       </c>
       <c r="B72" t="n">
-        <v>3402</v>
+        <v>2741</v>
       </c>
       <c r="C72" t="n">
-        <v>3532</v>
+        <v>2837</v>
       </c>
       <c r="D72" t="n">
-        <v>3.433953126432323</v>
+        <v>3.169503970945061</v>
       </c>
       <c r="E72" t="n">
-        <v>2.901898781553082</v>
+        <v>2.63744962606582</v>
       </c>
       <c r="F72" t="n">
         <v>-0.5320543448792412</v>
       </c>
       <c r="G72" t="n">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="H72" t="n">
-        <v>34.45726655415501</v>
+        <v>104.069950679233</v>
       </c>
       <c r="I72" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J72" t="n">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="K72" t="n">
-        <v>318.0113062297413</v>
+        <v>216.1656634429418</v>
       </c>
       <c r="L72" t="n">
-        <v>16.0011527299576</v>
+        <v>14.76890197682742</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -6626,16 +6626,16 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.7913505958528545</v>
+        <v>0.912570620980275</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="R72" t="n">
-        <v>0.4187481513944262</v>
+        <v>0.412132897326587</v>
       </c>
       <c r="S72" t="n">
-        <v>0.8515567021527248</v>
+        <v>0.9543757878371016</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
       <c r="U72" t="n">
-        <v>1925</v>
+        <v>2006</v>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -6663,40 +6663,40 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>174</v>
+        <v>3368</v>
       </c>
       <c r="B73" t="n">
-        <v>187</v>
+        <v>3402</v>
       </c>
       <c r="C73" t="n">
-        <v>227</v>
+        <v>3532</v>
       </c>
       <c r="D73" t="n">
-        <v>2.389811106115522</v>
+        <v>3.433953126432323</v>
       </c>
       <c r="E73" t="n">
-        <v>1.771608393598818</v>
+        <v>2.901898781553082</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.6182027125167038</v>
+        <v>-0.5320543448792412</v>
       </c>
       <c r="G73" t="n">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="H73" t="n">
-        <v>13.743977780439</v>
+        <v>34.45726655415501</v>
       </c>
       <c r="I73" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J73" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="K73" t="n">
-        <v>93.09541930180856</v>
+        <v>318.0113062297413</v>
       </c>
       <c r="L73" t="n">
-        <v>6.726531916986356</v>
+        <v>16.0011527299576</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -6712,24 +6712,24 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.9122584419534375</v>
+        <v>0.7913505958528545</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.325</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="R73" t="n">
-        <v>0.2309398446657342</v>
+        <v>0.4187481513944262</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9863195185337706</v>
+        <v>0.8515567021527248</v>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>n27</t>
+          <t>n26</t>
         </is>
       </c>
       <c r="U73" t="n">
-        <v>1926</v>
+        <v>2007</v>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -6749,40 +6749,40 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1429</v>
+        <v>174</v>
       </c>
       <c r="B74" t="n">
-        <v>1456</v>
+        <v>187</v>
       </c>
       <c r="C74" t="n">
-        <v>1530</v>
+        <v>227</v>
       </c>
       <c r="D74" t="n">
-        <v>3.146448458469015</v>
+        <v>2.389811106115522</v>
       </c>
       <c r="E74" t="n">
-        <v>2.528245745952312</v>
+        <v>1.771608393598818</v>
       </c>
       <c r="F74" t="n">
         <v>-0.6182027125167038</v>
       </c>
       <c r="G74" t="n">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="H74" t="n">
-        <v>119.8108511369535</v>
+        <v>13.743977780439</v>
       </c>
       <c r="I74" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J74" t="n">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="K74" t="n">
-        <v>194.6102230363302</v>
+        <v>93.09541930180856</v>
       </c>
       <c r="L74" t="n">
-        <v>8.856217098867756</v>
+        <v>6.726531916986356</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -6798,16 +6798,16 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.8291333624685248</v>
+        <v>0.9122584419534375</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.3648648648648649</v>
+        <v>0.325</v>
       </c>
       <c r="R74" t="n">
-        <v>0.2659569996473807</v>
+        <v>0.2309398446657342</v>
       </c>
       <c r="S74" t="n">
-        <v>0.7674580081784831</v>
+        <v>0.9863195185337706</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="U74" t="n">
-        <v>1927</v>
+        <v>2008</v>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -6835,40 +6835,40 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2596</v>
+        <v>1429</v>
       </c>
       <c r="B75" t="n">
-        <v>2666</v>
+        <v>1456</v>
       </c>
       <c r="C75" t="n">
-        <v>2808</v>
+        <v>1530</v>
       </c>
       <c r="D75" t="n">
-        <v>3.044733727210692</v>
+        <v>3.146448458469015</v>
       </c>
       <c r="E75" t="n">
-        <v>2.426531014693989</v>
+        <v>2.528245745952312</v>
       </c>
       <c r="F75" t="n">
         <v>-0.6182027125167038</v>
       </c>
       <c r="G75" t="n">
-        <v>212</v>
+        <v>101</v>
       </c>
       <c r="H75" t="n">
-        <v>113.4287801240062</v>
+        <v>119.8108511369535</v>
       </c>
       <c r="I75" t="n">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="J75" t="n">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="K75" t="n">
-        <v>321.4370715004898</v>
+        <v>194.6102230363302</v>
       </c>
       <c r="L75" t="n">
-        <v>8.56992359873046</v>
+        <v>8.856217098867756</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.760751599961321</v>
+        <v>0.8291333624685248</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.4929577464788732</v>
+        <v>0.3648648648648649</v>
       </c>
       <c r="R75" t="n">
-        <v>0.2774298983051109</v>
+        <v>0.2659569996473807</v>
       </c>
       <c r="S75" t="n">
-        <v>0.8880761907572521</v>
+        <v>0.7674580081784831</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -6901,7 +6901,7 @@
         </is>
       </c>
       <c r="U75" t="n">
-        <v>1928</v>
+        <v>2009</v>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -6921,40 +6921,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1545</v>
+        <v>2596</v>
       </c>
       <c r="B76" t="n">
-        <v>1656</v>
+        <v>2666</v>
       </c>
       <c r="C76" t="n">
-        <v>1859</v>
+        <v>2808</v>
       </c>
       <c r="D76" t="n">
-        <v>2.014738203108458</v>
+        <v>3.044733727210692</v>
       </c>
       <c r="E76" t="n">
-        <v>1.473704670106472</v>
+        <v>2.426531014693989</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5410335330019856</v>
+        <v>-0.6182027125167038</v>
       </c>
       <c r="G76" t="n">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="H76" t="n">
-        <v>110.5788433865598</v>
+        <v>113.4287801240062</v>
       </c>
       <c r="I76" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="J76" t="n">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="K76" t="n">
-        <v>344.5733749329729</v>
+        <v>321.4370715004898</v>
       </c>
       <c r="L76" t="n">
-        <v>5.517270415475363</v>
+        <v>8.56992359873046</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -6970,24 +6970,24 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.6060353758607383</v>
+        <v>0.760751599961321</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.5467980295566502</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="R76" t="n">
-        <v>0.2637413440265632</v>
+        <v>0.2774298983051109</v>
       </c>
       <c r="S76" t="n">
-        <v>0.5749774102153438</v>
+        <v>0.8880761907572521</v>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n27</t>
         </is>
       </c>
       <c r="U76" t="n">
-        <v>1929</v>
+        <v>2010</v>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -7007,40 +7007,40 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1993</v>
+        <v>2566</v>
       </c>
       <c r="B77" t="n">
-        <v>2056</v>
+        <v>2592</v>
       </c>
       <c r="C77" t="n">
-        <v>2190</v>
+        <v>2664</v>
       </c>
       <c r="D77" t="n">
-        <v>3.989713505267927</v>
+        <v>3.383233007741695</v>
       </c>
       <c r="E77" t="n">
-        <v>3.448679972265941</v>
+        <v>2.878506755649567</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.5410335330019856</v>
+        <v>-0.5047262520921282</v>
       </c>
       <c r="G77" t="n">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="H77" t="n">
-        <v>130.9030300543577</v>
+        <v>70.62575893561461</v>
       </c>
       <c r="I77" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J77" t="n">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="K77" t="n">
-        <v>419.7780260120373</v>
+        <v>257.2951037359034</v>
       </c>
       <c r="L77" t="n">
-        <v>10.92565190597732</v>
+        <v>12.14667717904747</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -7056,24 +7056,24 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.6736161170968081</v>
+        <v>0.7560002018263541</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.4701492537313433</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="R77" t="n">
-        <v>0.5075914516919384</v>
+        <v>0.1385141280316627</v>
       </c>
       <c r="S77" t="n">
-        <v>0.8550662141639386</v>
+        <v>0.6868329711188605</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>n29</t>
+          <t>n28</t>
         </is>
       </c>
       <c r="U77" t="n">
-        <v>1930</v>
+        <v>2011</v>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -7093,40 +7093,40 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3971</v>
+        <v>1545</v>
       </c>
       <c r="B78" t="n">
-        <v>3998</v>
+        <v>1656</v>
       </c>
       <c r="C78" t="n">
-        <v>4042</v>
+        <v>1859</v>
       </c>
       <c r="D78" t="n">
-        <v>3.063048861817423</v>
+        <v>2.014738203108458</v>
       </c>
       <c r="E78" t="n">
-        <v>2.522015328815437</v>
+        <v>1.473704670106472</v>
       </c>
       <c r="F78" t="n">
         <v>-0.5410335330019856</v>
       </c>
       <c r="G78" t="n">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="H78" t="n">
-        <v>40.01034229562265</v>
+        <v>110.5788433865598</v>
       </c>
       <c r="I78" t="n">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="J78" t="n">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="K78" t="n">
-        <v>169.1365993504526</v>
+        <v>344.5733749329729</v>
       </c>
       <c r="L78" t="n">
-        <v>8.388022245464418</v>
+        <v>5.517270415475363</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -7142,16 +7142,16 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.72829723370132</v>
+        <v>0.6060353758607383</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.5467980295566502</v>
       </c>
       <c r="R78" t="n">
-        <v>0.8242316225082683</v>
+        <v>0.2637413440265632</v>
       </c>
       <c r="S78" t="n">
-        <v>0.5844916560198409</v>
+        <v>0.5749774102153438</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         </is>
       </c>
       <c r="U78" t="n">
-        <v>1931</v>
+        <v>2012</v>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -7179,40 +7179,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1737</v>
+        <v>2029</v>
       </c>
       <c r="B79" t="n">
-        <v>1755</v>
+        <v>2056</v>
       </c>
       <c r="C79" t="n">
-        <v>1804</v>
+        <v>2190</v>
       </c>
       <c r="D79" t="n">
-        <v>1.758709769626467</v>
+        <v>3.989713505267927</v>
       </c>
       <c r="E79" t="n">
-        <v>1.210314782179211</v>
+        <v>3.448679972265941</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5483949874472562</v>
+        <v>-0.5410335330019856</v>
       </c>
       <c r="G79" t="n">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="H79" t="n">
-        <v>25.18141859411276</v>
+        <v>130.9030300543577</v>
       </c>
       <c r="I79" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J79" t="n">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="K79" t="n">
-        <v>101.1603688167873</v>
+        <v>383.9807693614414</v>
       </c>
       <c r="L79" t="n">
-        <v>6.981140521185309</v>
+        <v>10.92565190597732</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -7228,24 +7228,24 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.7598202494337302</v>
+        <v>0.7996286760486819</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.2014925373134328</v>
       </c>
       <c r="R79" t="n">
-        <v>0.03074174573805637</v>
+        <v>0.150338649409505</v>
       </c>
       <c r="S79" t="n">
-        <v>0.9119954717825465</v>
+        <v>0.8550662141639386</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U79" t="n">
-        <v>1932</v>
+        <v>2013</v>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -7265,40 +7265,40 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1804</v>
+        <v>3971</v>
       </c>
       <c r="B80" t="n">
-        <v>1828</v>
+        <v>3998</v>
       </c>
       <c r="C80" t="n">
-        <v>1904</v>
+        <v>4042</v>
       </c>
       <c r="D80" t="n">
-        <v>2.090751839560343</v>
+        <v>3.063048861817423</v>
       </c>
       <c r="E80" t="n">
-        <v>1.542356852113087</v>
+        <v>2.522015328815437</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5483949874472562</v>
+        <v>-0.5410335330019856</v>
       </c>
       <c r="G80" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H80" t="n">
-        <v>18.70486765582996</v>
+        <v>40.01034229562265</v>
       </c>
       <c r="I80" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J80" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="K80" t="n">
-        <v>100.1982653549961</v>
+        <v>169.1365993504526</v>
       </c>
       <c r="L80" t="n">
-        <v>8.299170584579999</v>
+        <v>8.388022245464418</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7314,24 +7314,24 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.824603463056837</v>
+        <v>0.72829723370132</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="R80" t="n">
-        <v>0.5204929125385224</v>
+        <v>0.8242316225082683</v>
       </c>
       <c r="S80" t="n">
-        <v>0.7318793563594232</v>
+        <v>0.5844916560198409</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>n31</t>
+          <t>n29</t>
         </is>
       </c>
       <c r="U80" t="n">
-        <v>1933</v>
+        <v>2014</v>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -7351,40 +7351,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2017</v>
+        <v>1737</v>
       </c>
       <c r="B81" t="n">
-        <v>2049</v>
+        <v>1755</v>
       </c>
       <c r="C81" t="n">
-        <v>2281</v>
+        <v>1804</v>
       </c>
       <c r="D81" t="n">
-        <v>3.273323133537645</v>
+        <v>1.758709769626467</v>
       </c>
       <c r="E81" t="n">
-        <v>2.724928146090389</v>
+        <v>1.210314782179211</v>
       </c>
       <c r="F81" t="n">
         <v>-0.5483949874472562</v>
       </c>
       <c r="G81" t="n">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="H81" t="n">
-        <v>34.52165265097642</v>
+        <v>25.18141859411276</v>
       </c>
       <c r="I81" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J81" t="n">
-        <v>232</v>
+        <v>49</v>
       </c>
       <c r="K81" t="n">
-        <v>450.2564271534433</v>
+        <v>101.1603688167873</v>
       </c>
       <c r="L81" t="n">
-        <v>12.99334839728921</v>
+        <v>6.981140521185309</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7400,16 +7400,16 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.7929957890965119</v>
+        <v>0.7598202494337302</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="R81" t="n">
-        <v>0.4160881316624515</v>
+        <v>0.03074174573805637</v>
       </c>
       <c r="S81" t="n">
-        <v>0.9174042991929006</v>
+        <v>0.9119954717825465</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="U81" t="n">
-        <v>1934</v>
+        <v>2015</v>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -7437,40 +7437,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1706</v>
+        <v>1804</v>
       </c>
       <c r="B82" t="n">
-        <v>1728</v>
+        <v>1828</v>
       </c>
       <c r="C82" t="n">
-        <v>1781</v>
+        <v>1904</v>
       </c>
       <c r="D82" t="n">
-        <v>1.990455382843879</v>
+        <v>2.090751839560343</v>
       </c>
       <c r="E82" t="n">
-        <v>1.488716745557987</v>
+        <v>1.542356852113087</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5017386372858914</v>
+        <v>-0.5483949874472562</v>
       </c>
       <c r="G82" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>52.86309935932695</v>
+        <v>18.70486765582996</v>
       </c>
       <c r="I82" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J82" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="K82" t="n">
-        <v>125.2620067562341</v>
+        <v>100.1982653549961</v>
       </c>
       <c r="L82" t="n">
-        <v>4.351742031109057</v>
+        <v>8.299170584579999</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7486,24 +7486,24 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.6963533320268334</v>
+        <v>0.824603463056837</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="R82" t="n">
-        <v>0.15409084776685</v>
+        <v>0.5204929125385224</v>
       </c>
       <c r="S82" t="n">
-        <v>0.4570316498345474</v>
+        <v>0.7318793563594232</v>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U82" t="n">
-        <v>1935</v>
+        <v>2016</v>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -7523,40 +7523,40 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1823</v>
+        <v>2017</v>
       </c>
       <c r="B83" t="n">
-        <v>1839</v>
+        <v>2049</v>
       </c>
       <c r="C83" t="n">
-        <v>1867</v>
+        <v>2281</v>
       </c>
       <c r="D83" t="n">
-        <v>3.140133871171197</v>
+        <v>3.273323133537645</v>
       </c>
       <c r="E83" t="n">
-        <v>2.638395233885306</v>
+        <v>2.724928146090389</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.5017386372858914</v>
+        <v>-0.5483949874472562</v>
       </c>
       <c r="G83" t="n">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="H83" t="n">
-        <v>20.97633055640449</v>
+        <v>34.52165265097642</v>
       </c>
       <c r="I83" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J83" t="n">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="K83" t="n">
-        <v>95.68309720936249</v>
+        <v>450.2564271534433</v>
       </c>
       <c r="L83" t="n">
-        <v>6.865289555478928</v>
+        <v>12.99334839728921</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -7572,24 +7572,24 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.8086362629204052</v>
+        <v>0.7929957890965119</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="R83" t="n">
-        <v>0.1918626052149408</v>
+        <v>0.4160881316624515</v>
       </c>
       <c r="S83" t="n">
-        <v>0.9398574981441284</v>
+        <v>0.9174042991929006</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n31</t>
         </is>
       </c>
       <c r="U83" t="n">
-        <v>1936</v>
+        <v>2017</v>
       </c>
       <c r="V83" t="inlineStr">
         <is>
@@ -7609,40 +7609,40 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>232</v>
+        <v>1706</v>
       </c>
       <c r="B84" t="n">
-        <v>263</v>
+        <v>1728</v>
       </c>
       <c r="C84" t="n">
-        <v>317</v>
+        <v>1781</v>
       </c>
       <c r="D84" t="n">
-        <v>3.912205616635196</v>
+        <v>1.990455382843879</v>
       </c>
       <c r="E84" t="n">
-        <v>3.390638631243405</v>
+        <v>1.488716745557987</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5215669853917901</v>
+        <v>-0.5017386372858914</v>
       </c>
       <c r="G84" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H84" t="n">
-        <v>66.69809980812821</v>
+        <v>52.86309935932695</v>
       </c>
       <c r="I84" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J84" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K84" t="n">
-        <v>225.5098498682394</v>
+        <v>125.2620067562341</v>
       </c>
       <c r="L84" t="n">
-        <v>12.01550787522257</v>
+        <v>4.351742031109057</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -7658,24 +7658,24 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.7896225570328879</v>
+        <v>0.6963533320268334</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.4150943396226415</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2517637692395758</v>
+        <v>0.15409084776685</v>
       </c>
       <c r="S84" t="n">
-        <v>0.8960020392438806</v>
+        <v>0.4570316498345474</v>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U84" t="n">
-        <v>1937</v>
+        <v>2018</v>
       </c>
       <c r="V84" t="inlineStr">
         <is>
@@ -7695,40 +7695,40 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>317</v>
+        <v>1823</v>
       </c>
       <c r="B85" t="n">
-        <v>340</v>
+        <v>1839</v>
       </c>
       <c r="C85" t="n">
-        <v>401</v>
+        <v>1867</v>
       </c>
       <c r="D85" t="n">
-        <v>3.119567502882067</v>
+        <v>3.140133871171197</v>
       </c>
       <c r="E85" t="n">
-        <v>2.598000517490276</v>
+        <v>2.638395233885306</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.5215669853917901</v>
+        <v>-0.5017386372858914</v>
       </c>
       <c r="G85" t="n">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H85" t="n">
-        <v>24.45844022784155</v>
+        <v>20.97633055640449</v>
       </c>
       <c r="I85" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J85" t="n">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K85" t="n">
-        <v>176.6524130360785</v>
+        <v>95.68309720936249</v>
       </c>
       <c r="L85" t="n">
-        <v>9.58108841181164</v>
+        <v>6.865289555478928</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -7744,24 +7744,24 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.8884554176462371</v>
+        <v>0.8086362629204052</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="R85" t="n">
-        <v>0.232441208979669</v>
+        <v>0.1918626052149408</v>
       </c>
       <c r="S85" t="n">
-        <v>0.9190826517938014</v>
+        <v>0.9398574981441284</v>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U85" t="n">
-        <v>1938</v>
+        <v>2019</v>
       </c>
       <c r="V85" t="inlineStr">
         <is>
@@ -7781,40 +7781,40 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2027</v>
+        <v>1867</v>
       </c>
       <c r="B86" t="n">
-        <v>2047</v>
+        <v>1880</v>
       </c>
       <c r="C86" t="n">
-        <v>2123</v>
+        <v>1898</v>
       </c>
       <c r="D86" t="n">
-        <v>3.724174981055706</v>
+        <v>1.902927078289618</v>
       </c>
       <c r="E86" t="n">
-        <v>3.202607995663916</v>
+        <v>1.401188441003726</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5215669853917901</v>
+        <v>-0.5017386372858914</v>
       </c>
       <c r="G86" t="n">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H86" t="n">
-        <v>26.62394168290371</v>
+        <v>16.19437684845684</v>
       </c>
       <c r="I86" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J86" t="n">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="K86" t="n">
-        <v>247.0518307691733</v>
+        <v>49.47719647709601</v>
       </c>
       <c r="L86" t="n">
-        <v>11.43801175053482</v>
+        <v>4.160378484292813</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -7830,24 +7830,24 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.9250875075841074</v>
+        <v>0.6209580831568829</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="R86" t="n">
-        <v>0.2513844432961022</v>
+        <v>0.02809984240671828</v>
       </c>
       <c r="S86" t="n">
-        <v>0.9351838795387892</v>
+        <v>0.9887469561130516</v>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>n33</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U86" t="n">
-        <v>1939</v>
+        <v>2020</v>
       </c>
       <c r="V86" t="inlineStr">
         <is>
@@ -7867,85 +7867,343 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2175</v>
+        <v>232</v>
       </c>
       <c r="B87" t="n">
-        <v>2194</v>
+        <v>263</v>
       </c>
       <c r="C87" t="n">
-        <v>2308</v>
+        <v>317</v>
       </c>
       <c r="D87" t="n">
-        <v>2.319284693545597</v>
+        <v>3.912205616635196</v>
       </c>
       <c r="E87" t="n">
-        <v>1.797717708153806</v>
+        <v>3.390638631243405</v>
       </c>
       <c r="F87" t="n">
         <v>-0.5215669853917901</v>
       </c>
       <c r="G87" t="n">
+        <v>85</v>
+      </c>
+      <c r="H87" t="n">
+        <v>66.69809980812821</v>
+      </c>
+      <c r="I87" t="n">
+        <v>31</v>
+      </c>
+      <c r="J87" t="n">
+        <v>54</v>
+      </c>
+      <c r="K87" t="n">
+        <v>225.5098498682394</v>
+      </c>
+      <c r="L87" t="n">
+        <v>12.01550787522257</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0.7896225570328879</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.5740740740740741</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.2517637692395758</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.8960020392438806</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U87" t="n">
+        <v>2021</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>317</v>
+      </c>
+      <c r="B88" t="n">
+        <v>340</v>
+      </c>
+      <c r="C88" t="n">
+        <v>401</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.119567502882067</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.598000517490276</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G88" t="n">
+        <v>84</v>
+      </c>
+      <c r="H88" t="n">
+        <v>24.45844022784155</v>
+      </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>61</v>
+      </c>
+      <c r="K88" t="n">
+        <v>176.6524130360785</v>
+      </c>
+      <c r="L88" t="n">
+        <v>9.58108841181164</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0.8884554176462371</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.3770491803278688</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.232441208979669</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.9190826517938014</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U88" t="n">
+        <v>2022</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2047</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2123</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.724174981055706</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.202607995663916</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G89" t="n">
+        <v>96</v>
+      </c>
+      <c r="H89" t="n">
+        <v>26.62394168290371</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>76</v>
+      </c>
+      <c r="K89" t="n">
+        <v>247.0518307691733</v>
+      </c>
+      <c r="L89" t="n">
+        <v>11.43801175053482</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0.9250875075841074</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.2513844432961022</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.9351838795387892</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>n33</t>
+        </is>
+      </c>
+      <c r="U89" t="n">
+        <v>2023</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2175</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2194</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2308</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.319284693545597</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.797717708153806</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.5215669853917901</v>
+      </c>
+      <c r="G90" t="n">
         <v>133</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H90" t="n">
         <v>38.66495792080786</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I90" t="n">
         <v>19</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J90" t="n">
         <v>114</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K90" t="n">
         <v>201.3753262609864</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L90" t="n">
         <v>7.123189891064168</v>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
         <v>0.8668831776897161</v>
       </c>
-      <c r="Q87" t="n">
+      <c r="Q90" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="R87" t="n">
+      <c r="R90" t="n">
         <v>0.296259086768938</v>
       </c>
-      <c r="S87" t="n">
+      <c r="S90" t="n">
         <v>0.8556665690130475</v>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>n33</t>
         </is>
       </c>
-      <c r="U87" t="n">
-        <v>1940</v>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
+      <c r="U90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\processed_No.297920240925homecagecellvedio22024-12-07104733trace.xlsx</t>
         </is>
